--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arabi\Documents\LSA 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C7430C-1DF3-4E14-9DD7-D162777AD50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="1145">
   <si>
     <t>File ID</t>
   </si>
@@ -3613,12 +3613,15 @@
       <t xml:space="preserve">).  Populations based on personal characteristics are  in a separate list below this one. </t>
     </r>
   </si>
+  <si>
+    <t>NoYesNA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3652,14 +3655,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3705,7 +3700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3740,19 +3735,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF595B79"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF595B79"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF595B79"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3760,7 +3742,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3816,9 +3798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4204,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEB091-1C47-49A4-9436-DD6048088BD1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4410,9 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C558DEBD-79BE-47F9-B6C2-E444BD5D5EBE}">
   <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10332,7 +10309,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13">
         <v>11</v>
       </c>
@@ -10354,7 +10331,7 @@
       <c r="G234" s="12">
         <v>0</v>
       </c>
-      <c r="H234" s="20"/>
+      <c r="H234"/>
     </row>
     <row r="235" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13">
@@ -10413,7 +10390,7 @@
         <v>19</v>
       </c>
       <c r="C237" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>423</v>
@@ -10437,7 +10414,7 @@
         <v>19</v>
       </c>
       <c r="C238" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>407</v>
@@ -10458,7 +10435,7 @@
         <v>19</v>
       </c>
       <c r="C239" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>408</v>
@@ -10479,7 +10456,7 @@
         <v>19</v>
       </c>
       <c r="C240" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>409</v>
@@ -10503,7 +10480,7 @@
         <v>19</v>
       </c>
       <c r="C241" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>410</v>
@@ -10527,7 +10504,7 @@
         <v>19</v>
       </c>
       <c r="C242" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>411</v>
@@ -11588,10 +11565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
-  <dimension ref="A1:D625"/>
+  <dimension ref="A1:D628"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="D626" sqref="D626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11601,16 +11578,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1017</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1018</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -11929,10 +11906,10 @@
       <c r="B24" t="s">
         <v>820</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>821</v>
       </c>
     </row>
@@ -11943,10 +11920,10 @@
       <c r="B25" t="s">
         <v>820</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>2</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>528</v>
       </c>
     </row>
@@ -11957,10 +11934,10 @@
       <c r="B26" t="s">
         <v>820</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>3</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>822</v>
       </c>
     </row>
@@ -11971,10 +11948,10 @@
       <c r="B27" t="s">
         <v>820</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>4</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>531</v>
       </c>
     </row>
@@ -11985,10 +11962,10 @@
       <c r="B28" t="s">
         <v>820</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>5</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>823</v>
       </c>
     </row>
@@ -11999,10 +11976,10 @@
       <c r="B29" t="s">
         <v>820</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>12</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>824</v>
       </c>
     </row>
@@ -12013,10 +11990,10 @@
       <c r="B30" t="s">
         <v>820</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>13</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>825</v>
       </c>
     </row>
@@ -12027,10 +12004,10 @@
       <c r="B31" t="s">
         <v>820</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>14</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>826</v>
       </c>
     </row>
@@ -12041,10 +12018,10 @@
       <c r="B32" t="s">
         <v>820</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>15</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>827</v>
       </c>
     </row>
@@ -12055,10 +12032,10 @@
       <c r="B33" t="s">
         <v>820</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>23</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>828</v>
       </c>
     </row>
@@ -12069,10 +12046,10 @@
       <c r="B34" t="s">
         <v>820</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>24</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>829</v>
       </c>
     </row>
@@ -12083,10 +12060,10 @@
       <c r="B35" t="s">
         <v>820</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>25</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>830</v>
       </c>
     </row>
@@ -12097,10 +12074,10 @@
       <c r="B36" t="s">
         <v>820</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>34</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>831</v>
       </c>
     </row>
@@ -12111,10 +12088,10 @@
       <c r="B37" t="s">
         <v>820</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>35</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>832</v>
       </c>
     </row>
@@ -12125,10 +12102,10 @@
       <c r="B38" t="s">
         <v>820</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="21">
         <v>45</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>833</v>
       </c>
     </row>
@@ -12139,10 +12116,10 @@
       <c r="B39" t="s">
         <v>820</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="21">
         <v>98</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>850</v>
       </c>
     </row>
@@ -12153,10 +12130,10 @@
       <c r="B40" t="s">
         <v>820</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="21">
         <v>99</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>851</v>
       </c>
     </row>
@@ -12167,10 +12144,10 @@
       <c r="B41" t="s">
         <v>820</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="21">
         <v>123</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>834</v>
       </c>
     </row>
@@ -12181,10 +12158,10 @@
       <c r="B42" t="s">
         <v>820</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="21">
         <v>124</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>835</v>
       </c>
     </row>
@@ -12195,10 +12172,10 @@
       <c r="B43" t="s">
         <v>820</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <v>125</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>836</v>
       </c>
     </row>
@@ -12209,10 +12186,10 @@
       <c r="B44" t="s">
         <v>820</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="21">
         <v>134</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>837</v>
       </c>
     </row>
@@ -12223,10 +12200,10 @@
       <c r="B45" t="s">
         <v>820</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="21">
         <v>135</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>838</v>
       </c>
     </row>
@@ -12237,10 +12214,10 @@
       <c r="B46" t="s">
         <v>820</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <v>145</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>839</v>
       </c>
     </row>
@@ -12251,10 +12228,10 @@
       <c r="B47" t="s">
         <v>820</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>234</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>840</v>
       </c>
     </row>
@@ -12265,10 +12242,10 @@
       <c r="B48" t="s">
         <v>820</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <v>235</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>841</v>
       </c>
     </row>
@@ -12279,10 +12256,10 @@
       <c r="B49" t="s">
         <v>820</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <v>245</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>842</v>
       </c>
     </row>
@@ -12293,10 +12270,10 @@
       <c r="B50" t="s">
         <v>820</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>345</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>843</v>
       </c>
     </row>
@@ -12307,10 +12284,10 @@
       <c r="B51" t="s">
         <v>820</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>1234</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>844</v>
       </c>
     </row>
@@ -12321,10 +12298,10 @@
       <c r="B52" t="s">
         <v>820</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="21">
         <v>1235</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>845</v>
       </c>
     </row>
@@ -12335,10 +12312,10 @@
       <c r="B53" t="s">
         <v>820</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="21">
         <v>1245</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>846</v>
       </c>
     </row>
@@ -12349,10 +12326,10 @@
       <c r="B54" t="s">
         <v>820</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="21">
         <v>1345</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>847</v>
       </c>
     </row>
@@ -12363,10 +12340,10 @@
       <c r="B55" t="s">
         <v>820</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="21">
         <v>2345</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>848</v>
       </c>
     </row>
@@ -12377,10 +12354,10 @@
       <c r="B56" t="s">
         <v>820</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="21">
         <v>12345</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="21" t="s">
         <v>849</v>
       </c>
     </row>
@@ -13973,10 +13950,10 @@
       <c r="B170" t="s">
         <v>946</v>
       </c>
-      <c r="C170" s="22">
+      <c r="C170" s="21">
         <v>-1</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="21" t="s">
         <v>792</v>
       </c>
     </row>
@@ -13987,10 +13964,10 @@
       <c r="B171" t="s">
         <v>946</v>
       </c>
-      <c r="C171" s="22">
+      <c r="C171" s="21">
         <v>1</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="21" t="s">
         <v>480</v>
       </c>
     </row>
@@ -14001,10 +13978,10 @@
       <c r="B172" t="s">
         <v>946</v>
       </c>
-      <c r="C172" s="22">
+      <c r="C172" s="21">
         <v>2</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="D172" s="21" t="s">
         <v>481</v>
       </c>
     </row>
@@ -14015,10 +13992,10 @@
       <c r="B173" t="s">
         <v>946</v>
       </c>
-      <c r="C173" s="22">
+      <c r="C173" s="21">
         <v>3</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="D173" s="21" t="s">
         <v>482</v>
       </c>
     </row>
@@ -14029,10 +14006,10 @@
       <c r="B174" t="s">
         <v>946</v>
       </c>
-      <c r="C174" s="22">
+      <c r="C174" s="21">
         <v>4</v>
       </c>
-      <c r="D174" s="22" t="s">
+      <c r="D174" s="21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -14043,10 +14020,10 @@
       <c r="B175" t="s">
         <v>946</v>
       </c>
-      <c r="C175" s="22">
+      <c r="C175" s="21">
         <v>5</v>
       </c>
-      <c r="D175" s="22" t="s">
+      <c r="D175" s="21" t="s">
         <v>536</v>
       </c>
     </row>
@@ -14057,10 +14034,10 @@
       <c r="B176" t="s">
         <v>946</v>
       </c>
-      <c r="C176" s="22">
+      <c r="C176" s="21">
         <v>98</v>
       </c>
-      <c r="D176" s="22" t="s">
+      <c r="D176" s="21" t="s">
         <v>854</v>
       </c>
     </row>
@@ -14071,10 +14048,10 @@
       <c r="B177" t="s">
         <v>946</v>
       </c>
-      <c r="C177" s="22">
+      <c r="C177" s="21">
         <v>99</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="21" t="s">
         <v>855</v>
       </c>
     </row>
@@ -15261,10 +15238,10 @@
       <c r="B262" t="s">
         <v>400</v>
       </c>
-      <c r="C262" s="44">
-        <v>0</v>
-      </c>
-      <c r="D262" s="22" t="s">
+      <c r="C262" s="43">
+        <v>0</v>
+      </c>
+      <c r="D262" s="21" t="s">
         <v>519</v>
       </c>
     </row>
@@ -15275,10 +15252,10 @@
       <c r="B263" t="s">
         <v>400</v>
       </c>
-      <c r="C263" s="44">
+      <c r="C263" s="43">
         <v>10</v>
       </c>
-      <c r="D263" s="22" t="s">
+      <c r="D263" s="21" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15289,10 +15266,10 @@
       <c r="B264" t="s">
         <v>400</v>
       </c>
-      <c r="C264" s="44">
+      <c r="C264" s="43">
         <v>11</v>
       </c>
-      <c r="D264" s="22" t="s">
+      <c r="D264" s="21" t="s">
         <v>538</v>
       </c>
     </row>
@@ -15303,10 +15280,10 @@
       <c r="B265" t="s">
         <v>400</v>
       </c>
-      <c r="C265" s="44">
+      <c r="C265" s="43">
         <v>12</v>
       </c>
-      <c r="D265" s="22" t="s">
+      <c r="D265" s="21" t="s">
         <v>545</v>
       </c>
     </row>
@@ -15317,10 +15294,10 @@
       <c r="B266" t="s">
         <v>400</v>
       </c>
-      <c r="C266" s="44">
+      <c r="C266" s="43">
         <v>13</v>
       </c>
-      <c r="D266" s="22" t="s">
+      <c r="D266" s="21" t="s">
         <v>539</v>
       </c>
     </row>
@@ -15331,10 +15308,10 @@
       <c r="B267" t="s">
         <v>400</v>
       </c>
-      <c r="C267" s="44">
+      <c r="C267" s="43">
         <v>14</v>
       </c>
-      <c r="D267" s="22" t="s">
+      <c r="D267" s="21" t="s">
         <v>540</v>
       </c>
     </row>
@@ -15345,10 +15322,10 @@
       <c r="B268" t="s">
         <v>400</v>
       </c>
-      <c r="C268" s="44">
+      <c r="C268" s="43">
         <v>15</v>
       </c>
-      <c r="D268" s="22" t="s">
+      <c r="D268" s="21" t="s">
         <v>542</v>
       </c>
     </row>
@@ -15359,10 +15336,10 @@
       <c r="B269" t="s">
         <v>400</v>
       </c>
-      <c r="C269" s="44">
+      <c r="C269" s="43">
         <v>16</v>
       </c>
-      <c r="D269" s="22" t="s">
+      <c r="D269" s="21" t="s">
         <v>522</v>
       </c>
     </row>
@@ -15373,10 +15350,10 @@
       <c r="B270" t="s">
         <v>400</v>
       </c>
-      <c r="C270" s="44">
+      <c r="C270" s="43">
         <v>17</v>
       </c>
-      <c r="D270" s="22" t="s">
+      <c r="D270" s="21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -15387,10 +15364,10 @@
       <c r="B271" t="s">
         <v>400</v>
       </c>
-      <c r="C271" s="44">
+      <c r="C271" s="43">
         <v>18</v>
       </c>
-      <c r="D271" s="22" t="s">
+      <c r="D271" s="21" t="s">
         <v>541</v>
       </c>
     </row>
@@ -15401,10 +15378,10 @@
       <c r="B272" t="s">
         <v>400</v>
       </c>
-      <c r="C272" s="44">
+      <c r="C272" s="43">
         <v>19</v>
       </c>
-      <c r="D272" s="22" t="s">
+      <c r="D272" s="21" t="s">
         <v>543</v>
       </c>
     </row>
@@ -15415,10 +15392,10 @@
       <c r="B273" t="s">
         <v>400</v>
       </c>
-      <c r="C273" s="44">
+      <c r="C273" s="43">
         <v>20</v>
       </c>
-      <c r="D273" s="22" t="s">
+      <c r="D273" s="21" t="s">
         <v>467</v>
       </c>
     </row>
@@ -15429,10 +15406,10 @@
       <c r="B274" t="s">
         <v>400</v>
       </c>
-      <c r="C274" s="44">
+      <c r="C274" s="43">
         <v>21</v>
       </c>
-      <c r="D274" s="22" t="s">
+      <c r="D274" s="21" t="s">
         <v>468</v>
       </c>
     </row>
@@ -15443,10 +15420,10 @@
       <c r="B275" t="s">
         <v>400</v>
       </c>
-      <c r="C275" s="44">
+      <c r="C275" s="43">
         <v>22</v>
       </c>
-      <c r="D275" s="22" t="s">
+      <c r="D275" s="21" t="s">
         <v>548</v>
       </c>
     </row>
@@ -15457,10 +15434,10 @@
       <c r="B276" t="s">
         <v>400</v>
       </c>
-      <c r="C276" s="44">
+      <c r="C276" s="43">
         <v>23</v>
       </c>
-      <c r="D276" s="22" t="s">
+      <c r="D276" s="21" t="s">
         <v>549</v>
       </c>
     </row>
@@ -15471,10 +15448,10 @@
       <c r="B277" t="s">
         <v>400</v>
       </c>
-      <c r="C277" s="44">
+      <c r="C277" s="43">
         <v>24</v>
       </c>
-      <c r="D277" s="22" t="s">
+      <c r="D277" s="21" t="s">
         <v>550</v>
       </c>
     </row>
@@ -15485,10 +15462,10 @@
       <c r="B278" t="s">
         <v>400</v>
       </c>
-      <c r="C278" s="44">
+      <c r="C278" s="43">
         <v>25</v>
       </c>
-      <c r="D278" s="22" t="s">
+      <c r="D278" s="21" t="s">
         <v>551</v>
       </c>
     </row>
@@ -15499,10 +15476,10 @@
       <c r="B279" t="s">
         <v>400</v>
       </c>
-      <c r="C279" s="44">
+      <c r="C279" s="43">
         <v>26</v>
       </c>
-      <c r="D279" s="22" t="s">
+      <c r="D279" s="21" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15513,10 +15490,10 @@
       <c r="B280" t="s">
         <v>400</v>
       </c>
-      <c r="C280" s="44">
+      <c r="C280" s="43">
         <v>27</v>
       </c>
-      <c r="D280" s="22" t="s">
+      <c r="D280" s="21" t="s">
         <v>553</v>
       </c>
     </row>
@@ -15527,10 +15504,10 @@
       <c r="B281" t="s">
         <v>400</v>
       </c>
-      <c r="C281" s="44">
+      <c r="C281" s="43">
         <v>28</v>
       </c>
-      <c r="D281" s="22" t="s">
+      <c r="D281" s="21" t="s">
         <v>555</v>
       </c>
     </row>
@@ -15541,10 +15518,10 @@
       <c r="B282" t="s">
         <v>400</v>
       </c>
-      <c r="C282" s="44">
+      <c r="C282" s="43">
         <v>29</v>
       </c>
-      <c r="D282" s="22" t="s">
+      <c r="D282" s="21" t="s">
         <v>554</v>
       </c>
     </row>
@@ -15555,10 +15532,10 @@
       <c r="B283" t="s">
         <v>400</v>
       </c>
-      <c r="C283" s="44">
+      <c r="C283" s="43">
         <v>30</v>
       </c>
-      <c r="D283" s="22" t="s">
+      <c r="D283" s="21" t="s">
         <v>556</v>
       </c>
     </row>
@@ -15569,10 +15546,10 @@
       <c r="B284" t="s">
         <v>400</v>
       </c>
-      <c r="C284" s="44">
+      <c r="C284" s="43">
         <v>31</v>
       </c>
-      <c r="D284" s="22" t="s">
+      <c r="D284" s="21" t="s">
         <v>557</v>
       </c>
     </row>
@@ -15583,10 +15560,10 @@
       <c r="B285" t="s">
         <v>400</v>
       </c>
-      <c r="C285" s="44">
+      <c r="C285" s="43">
         <v>32</v>
       </c>
-      <c r="D285" s="22" t="s">
+      <c r="D285" s="21" t="s">
         <v>558</v>
       </c>
     </row>
@@ -15597,10 +15574,10 @@
       <c r="B286" t="s">
         <v>400</v>
       </c>
-      <c r="C286" s="44">
+      <c r="C286" s="43">
         <v>33</v>
       </c>
-      <c r="D286" s="22" t="s">
+      <c r="D286" s="21" t="s">
         <v>559</v>
       </c>
     </row>
@@ -15611,10 +15588,10 @@
       <c r="B287" t="s">
         <v>400</v>
       </c>
-      <c r="C287" s="44">
+      <c r="C287" s="43">
         <v>34</v>
       </c>
-      <c r="D287" s="22" t="s">
+      <c r="D287" s="21" t="s">
         <v>544</v>
       </c>
     </row>
@@ -15625,10 +15602,10 @@
       <c r="B288" t="s">
         <v>400</v>
       </c>
-      <c r="C288" s="44">
+      <c r="C288" s="43">
         <v>35</v>
       </c>
-      <c r="D288" s="22" t="s">
+      <c r="D288" s="21" t="s">
         <v>546</v>
       </c>
     </row>
@@ -15639,10 +15616,10 @@
       <c r="B289" t="s">
         <v>400</v>
       </c>
-      <c r="C289" s="44">
+      <c r="C289" s="43">
         <v>36</v>
       </c>
-      <c r="D289" s="22" t="s">
+      <c r="D289" s="21" t="s">
         <v>547</v>
       </c>
     </row>
@@ -15653,10 +15630,10 @@
       <c r="B290" t="s">
         <v>400</v>
       </c>
-      <c r="C290" s="44">
+      <c r="C290" s="43">
         <v>50</v>
       </c>
-      <c r="D290" s="22" t="s">
+      <c r="D290" s="21" t="s">
         <v>520</v>
       </c>
     </row>
@@ -15667,10 +15644,10 @@
       <c r="B291" t="s">
         <v>400</v>
       </c>
-      <c r="C291" s="44">
+      <c r="C291" s="43">
         <v>51</v>
       </c>
-      <c r="D291" s="22" t="s">
+      <c r="D291" s="21" t="s">
         <v>561</v>
       </c>
     </row>
@@ -15681,10 +15658,10 @@
       <c r="B292" t="s">
         <v>400</v>
       </c>
-      <c r="C292" s="44">
+      <c r="C292" s="43">
         <v>52</v>
       </c>
-      <c r="D292" s="22" t="s">
+      <c r="D292" s="21" t="s">
         <v>562</v>
       </c>
     </row>
@@ -15695,10 +15672,10 @@
       <c r="B293" t="s">
         <v>400</v>
       </c>
-      <c r="C293" s="44">
+      <c r="C293" s="43">
         <v>53</v>
       </c>
-      <c r="D293" s="22" t="s">
+      <c r="D293" s="21" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15709,10 +15686,10 @@
       <c r="B294" t="s">
         <v>400</v>
       </c>
-      <c r="C294" s="44">
+      <c r="C294" s="43">
         <v>54</v>
       </c>
-      <c r="D294" s="22" t="s">
+      <c r="D294" s="21" t="s">
         <v>564</v>
       </c>
     </row>
@@ -15723,10 +15700,10 @@
       <c r="B295" t="s">
         <v>400</v>
       </c>
-      <c r="C295" s="44">
+      <c r="C295" s="43">
         <v>55</v>
       </c>
-      <c r="D295" s="22" t="s">
+      <c r="D295" s="21" t="s">
         <v>466</v>
       </c>
     </row>
@@ -15737,10 +15714,10 @@
       <c r="B296" t="s">
         <v>400</v>
       </c>
-      <c r="C296" s="44">
+      <c r="C296" s="43">
         <v>56</v>
       </c>
-      <c r="D296" s="22" t="s">
+      <c r="D296" s="21" t="s">
         <v>524</v>
       </c>
     </row>
@@ -15751,10 +15728,10 @@
       <c r="B297" t="s">
         <v>400</v>
       </c>
-      <c r="C297" s="44">
+      <c r="C297" s="43">
         <v>57</v>
       </c>
-      <c r="D297" s="22" t="s">
+      <c r="D297" s="21" t="s">
         <v>525</v>
       </c>
     </row>
@@ -15765,10 +15742,10 @@
       <c r="B298" t="s">
         <v>400</v>
       </c>
-      <c r="C298" s="44">
+      <c r="C298" s="43">
         <v>58</v>
       </c>
-      <c r="D298" s="22" t="s">
+      <c r="D298" s="21" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15779,10 +15756,10 @@
       <c r="B299" t="s">
         <v>400</v>
       </c>
-      <c r="C299" s="44">
+      <c r="C299" s="43">
         <v>59</v>
       </c>
-      <c r="D299" s="22" t="s">
+      <c r="D299" s="21" t="s">
         <v>527</v>
       </c>
     </row>
@@ -15793,10 +15770,10 @@
       <c r="B300" t="s">
         <v>400</v>
       </c>
-      <c r="C300" s="44">
+      <c r="C300" s="43">
         <v>60</v>
       </c>
-      <c r="D300" s="22" t="s">
+      <c r="D300" s="21" t="s">
         <v>528</v>
       </c>
     </row>
@@ -15807,10 +15784,10 @@
       <c r="B301" t="s">
         <v>400</v>
       </c>
-      <c r="C301" s="44">
+      <c r="C301" s="43">
         <v>61</v>
       </c>
-      <c r="D301" s="22" t="s">
+      <c r="D301" s="21" t="s">
         <v>530</v>
       </c>
     </row>
@@ -15821,10 +15798,10 @@
       <c r="B302" t="s">
         <v>400</v>
       </c>
-      <c r="C302" s="44">
+      <c r="C302" s="43">
         <v>62</v>
       </c>
-      <c r="D302" s="22" t="s">
+      <c r="D302" s="21" t="s">
         <v>529</v>
       </c>
     </row>
@@ -15835,10 +15812,10 @@
       <c r="B303" t="s">
         <v>400</v>
       </c>
-      <c r="C303" s="44">
+      <c r="C303" s="43">
         <v>63</v>
       </c>
-      <c r="D303" s="22" t="s">
+      <c r="D303" s="21" t="s">
         <v>531</v>
       </c>
     </row>
@@ -15849,10 +15826,10 @@
       <c r="B304" t="s">
         <v>400</v>
       </c>
-      <c r="C304" s="44">
+      <c r="C304" s="43">
         <v>64</v>
       </c>
-      <c r="D304" s="22" t="s">
+      <c r="D304" s="21" t="s">
         <v>532</v>
       </c>
     </row>
@@ -15863,10 +15840,10 @@
       <c r="B305" t="s">
         <v>400</v>
       </c>
-      <c r="C305" s="44">
+      <c r="C305" s="43">
         <v>65</v>
       </c>
-      <c r="D305" s="22" t="s">
+      <c r="D305" s="21" t="s">
         <v>533</v>
       </c>
     </row>
@@ -15877,10 +15854,10 @@
       <c r="B306" t="s">
         <v>400</v>
       </c>
-      <c r="C306" s="44">
+      <c r="C306" s="43">
         <v>66</v>
       </c>
-      <c r="D306" s="22" t="s">
+      <c r="D306" s="21" t="s">
         <v>534</v>
       </c>
     </row>
@@ -15891,10 +15868,10 @@
       <c r="B307" t="s">
         <v>400</v>
       </c>
-      <c r="C307" s="44">
+      <c r="C307" s="43">
         <v>67</v>
       </c>
-      <c r="D307" s="22" t="s">
+      <c r="D307" s="21" t="s">
         <v>480</v>
       </c>
     </row>
@@ -15905,10 +15882,10 @@
       <c r="B308" t="s">
         <v>400</v>
       </c>
-      <c r="C308" s="44">
+      <c r="C308" s="43">
         <v>68</v>
       </c>
-      <c r="D308" s="22" t="s">
+      <c r="D308" s="21" t="s">
         <v>481</v>
       </c>
     </row>
@@ -15919,10 +15896,10 @@
       <c r="B309" t="s">
         <v>400</v>
       </c>
-      <c r="C309" s="44">
+      <c r="C309" s="43">
         <v>69</v>
       </c>
-      <c r="D309" s="22" t="s">
+      <c r="D309" s="21" t="s">
         <v>482</v>
       </c>
     </row>
@@ -15933,10 +15910,10 @@
       <c r="B310" t="s">
         <v>400</v>
       </c>
-      <c r="C310" s="44">
+      <c r="C310" s="43">
         <v>70</v>
       </c>
-      <c r="D310" s="22" t="s">
+      <c r="D310" s="21" t="s">
         <v>535</v>
       </c>
     </row>
@@ -15947,10 +15924,10 @@
       <c r="B311" t="s">
         <v>400</v>
       </c>
-      <c r="C311" s="44">
+      <c r="C311" s="43">
         <v>71</v>
       </c>
-      <c r="D311" s="22" t="s">
+      <c r="D311" s="21" t="s">
         <v>536</v>
       </c>
     </row>
@@ -15961,10 +15938,10 @@
       <c r="B312" t="s">
         <v>400</v>
       </c>
-      <c r="C312" s="44">
+      <c r="C312" s="43">
         <v>72</v>
       </c>
-      <c r="D312" s="22" t="s">
+      <c r="D312" s="21" t="s">
         <v>640</v>
       </c>
     </row>
@@ -15975,10 +15952,10 @@
       <c r="B313" t="s">
         <v>400</v>
       </c>
-      <c r="C313" s="44">
+      <c r="C313" s="43">
         <v>73</v>
       </c>
-      <c r="D313" s="22" t="s">
+      <c r="D313" s="21" t="s">
         <v>470</v>
       </c>
     </row>
@@ -15989,10 +15966,10 @@
       <c r="B314" t="s">
         <v>400</v>
       </c>
-      <c r="C314" s="44">
+      <c r="C314" s="43">
         <v>74</v>
       </c>
-      <c r="D314" s="22" t="s">
+      <c r="D314" s="21" t="s">
         <v>471</v>
       </c>
     </row>
@@ -16003,10 +15980,10 @@
       <c r="B315" t="s">
         <v>400</v>
       </c>
-      <c r="C315" s="44">
+      <c r="C315" s="43">
         <v>75</v>
       </c>
-      <c r="D315" s="22" t="s">
+      <c r="D315" s="21" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16017,10 +15994,10 @@
       <c r="B316" t="s">
         <v>400</v>
       </c>
-      <c r="C316" s="44">
+      <c r="C316" s="43">
         <v>76</v>
       </c>
-      <c r="D316" s="22" t="s">
+      <c r="D316" s="21" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16031,10 +16008,10 @@
       <c r="B317" t="s">
         <v>400</v>
       </c>
-      <c r="C317" s="44">
+      <c r="C317" s="43">
         <v>77</v>
       </c>
-      <c r="D317" s="22" t="s">
+      <c r="D317" s="21" t="s">
         <v>474</v>
       </c>
     </row>
@@ -16045,10 +16022,10 @@
       <c r="B318" t="s">
         <v>400</v>
       </c>
-      <c r="C318" s="44">
+      <c r="C318" s="43">
         <v>78</v>
       </c>
-      <c r="D318" s="22" t="s">
+      <c r="D318" s="21" t="s">
         <v>475</v>
       </c>
     </row>
@@ -16059,10 +16036,10 @@
       <c r="B319" t="s">
         <v>400</v>
       </c>
-      <c r="C319" s="44">
+      <c r="C319" s="43">
         <v>79</v>
       </c>
-      <c r="D319" s="22" t="s">
+      <c r="D319" s="21" t="s">
         <v>476</v>
       </c>
     </row>
@@ -16073,10 +16050,10 @@
       <c r="B320" t="s">
         <v>400</v>
       </c>
-      <c r="C320" s="44">
+      <c r="C320" s="43">
         <v>80</v>
       </c>
-      <c r="D320" s="22" t="s">
+      <c r="D320" s="21" t="s">
         <v>477</v>
       </c>
     </row>
@@ -16087,10 +16064,10 @@
       <c r="B321" t="s">
         <v>400</v>
       </c>
-      <c r="C321" s="44">
+      <c r="C321" s="43">
         <v>81</v>
       </c>
-      <c r="D321" s="22" t="s">
+      <c r="D321" s="21" t="s">
         <v>478</v>
       </c>
     </row>
@@ -16101,10 +16078,10 @@
       <c r="B322" t="s">
         <v>400</v>
       </c>
-      <c r="C322" s="44">
+      <c r="C322" s="43">
         <v>82</v>
       </c>
-      <c r="D322" s="22" t="s">
+      <c r="D322" s="21" t="s">
         <v>479</v>
       </c>
     </row>
@@ -16115,10 +16092,10 @@
       <c r="B323" t="s">
         <v>400</v>
       </c>
-      <c r="C323" s="45">
+      <c r="C323" s="44">
         <v>1018</v>
       </c>
-      <c r="D323" s="22" t="s">
+      <c r="D323" s="21" t="s">
         <v>483</v>
       </c>
     </row>
@@ -16129,10 +16106,10 @@
       <c r="B324" t="s">
         <v>400</v>
       </c>
-      <c r="C324" s="45">
+      <c r="C324" s="44">
         <v>1019</v>
       </c>
-      <c r="D324" s="22" t="s">
+      <c r="D324" s="21" t="s">
         <v>484</v>
       </c>
     </row>
@@ -16143,10 +16120,10 @@
       <c r="B325" t="s">
         <v>400</v>
       </c>
-      <c r="C325" s="45">
+      <c r="C325" s="44">
         <v>1020</v>
       </c>
-      <c r="D325" s="22" t="s">
+      <c r="D325" s="21" t="s">
         <v>485</v>
       </c>
     </row>
@@ -16157,10 +16134,10 @@
       <c r="B326" t="s">
         <v>400</v>
       </c>
-      <c r="C326" s="45">
+      <c r="C326" s="44">
         <v>1021</v>
       </c>
-      <c r="D326" s="22" t="s">
+      <c r="D326" s="21" t="s">
         <v>486</v>
       </c>
     </row>
@@ -16171,10 +16148,10 @@
       <c r="B327" t="s">
         <v>400</v>
       </c>
-      <c r="C327" s="45">
+      <c r="C327" s="44">
         <v>1022</v>
       </c>
-      <c r="D327" s="22" t="s">
+      <c r="D327" s="21" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16185,10 +16162,10 @@
       <c r="B328" t="s">
         <v>400</v>
       </c>
-      <c r="C328" s="45">
+      <c r="C328" s="44">
         <v>1023</v>
       </c>
-      <c r="D328" s="22" t="s">
+      <c r="D328" s="21" t="s">
         <v>567</v>
       </c>
     </row>
@@ -16199,10 +16176,10 @@
       <c r="B329" t="s">
         <v>400</v>
       </c>
-      <c r="C329" s="45">
+      <c r="C329" s="44">
         <v>1024</v>
       </c>
-      <c r="D329" s="22" t="s">
+      <c r="D329" s="21" t="s">
         <v>568</v>
       </c>
     </row>
@@ -16213,10 +16190,10 @@
       <c r="B330" t="s">
         <v>400</v>
       </c>
-      <c r="C330" s="45">
+      <c r="C330" s="44">
         <v>1025</v>
       </c>
-      <c r="D330" s="22" t="s">
+      <c r="D330" s="21" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -16227,10 +16204,10 @@
       <c r="B331" t="s">
         <v>400</v>
       </c>
-      <c r="C331" s="45">
+      <c r="C331" s="44">
         <v>1026</v>
       </c>
-      <c r="D331" s="22" t="s">
+      <c r="D331" s="21" t="s">
         <v>569</v>
       </c>
     </row>
@@ -16241,10 +16218,10 @@
       <c r="B332" t="s">
         <v>400</v>
       </c>
-      <c r="C332" s="45">
+      <c r="C332" s="44">
         <v>1027</v>
       </c>
-      <c r="D332" s="22" t="s">
+      <c r="D332" s="21" t="s">
         <v>571</v>
       </c>
     </row>
@@ -16255,10 +16232,10 @@
       <c r="B333" t="s">
         <v>400</v>
       </c>
-      <c r="C333" s="45">
+      <c r="C333" s="44">
         <v>1028</v>
       </c>
-      <c r="D333" s="22" t="s">
+      <c r="D333" s="21" t="s">
         <v>573</v>
       </c>
     </row>
@@ -16269,10 +16246,10 @@
       <c r="B334" t="s">
         <v>400</v>
       </c>
-      <c r="C334" s="45">
+      <c r="C334" s="44">
         <v>1029</v>
       </c>
-      <c r="D334" s="22" t="s">
+      <c r="D334" s="21" t="s">
         <v>572</v>
       </c>
     </row>
@@ -16283,10 +16260,10 @@
       <c r="B335" t="s">
         <v>400</v>
       </c>
-      <c r="C335" s="45">
+      <c r="C335" s="44">
         <v>1030</v>
       </c>
-      <c r="D335" s="22" t="s">
+      <c r="D335" s="21" t="s">
         <v>574</v>
       </c>
     </row>
@@ -16297,10 +16274,10 @@
       <c r="B336" t="s">
         <v>400</v>
       </c>
-      <c r="C336" s="45">
+      <c r="C336" s="44">
         <v>1031</v>
       </c>
-      <c r="D336" s="22" t="s">
+      <c r="D336" s="21" t="s">
         <v>487</v>
       </c>
     </row>
@@ -16311,10 +16288,10 @@
       <c r="B337" t="s">
         <v>400</v>
       </c>
-      <c r="C337" s="45">
+      <c r="C337" s="44">
         <v>1032</v>
       </c>
-      <c r="D337" s="22" t="s">
+      <c r="D337" s="21" t="s">
         <v>575</v>
       </c>
     </row>
@@ -16325,10 +16302,10 @@
       <c r="B338" t="s">
         <v>400</v>
       </c>
-      <c r="C338" s="45">
+      <c r="C338" s="44">
         <v>1033</v>
       </c>
-      <c r="D338" s="22" t="s">
+      <c r="D338" s="21" t="s">
         <v>576</v>
       </c>
     </row>
@@ -16339,10 +16316,10 @@
       <c r="B339" t="s">
         <v>400</v>
       </c>
-      <c r="C339" s="45">
+      <c r="C339" s="44">
         <v>1118</v>
       </c>
-      <c r="D339" s="22" t="s">
+      <c r="D339" s="21" t="s">
         <v>488</v>
       </c>
     </row>
@@ -16353,10 +16330,10 @@
       <c r="B340" t="s">
         <v>400</v>
       </c>
-      <c r="C340" s="45">
+      <c r="C340" s="44">
         <v>1119</v>
       </c>
-      <c r="D340" s="22" t="s">
+      <c r="D340" s="21" t="s">
         <v>489</v>
       </c>
     </row>
@@ -16367,10 +16344,10 @@
       <c r="B341" t="s">
         <v>400</v>
       </c>
-      <c r="C341" s="45">
+      <c r="C341" s="44">
         <v>1120</v>
       </c>
-      <c r="D341" s="22" t="s">
+      <c r="D341" s="21" t="s">
         <v>490</v>
       </c>
     </row>
@@ -16381,10 +16358,10 @@
       <c r="B342" t="s">
         <v>400</v>
       </c>
-      <c r="C342" s="45">
+      <c r="C342" s="44">
         <v>1121</v>
       </c>
-      <c r="D342" s="22" t="s">
+      <c r="D342" s="21" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16395,10 +16372,10 @@
       <c r="B343" t="s">
         <v>400</v>
       </c>
-      <c r="C343" s="45">
+      <c r="C343" s="44">
         <v>1122</v>
       </c>
-      <c r="D343" s="22" t="s">
+      <c r="D343" s="21" t="s">
         <v>577</v>
       </c>
     </row>
@@ -16409,10 +16386,10 @@
       <c r="B344" t="s">
         <v>400</v>
       </c>
-      <c r="C344" s="45">
+      <c r="C344" s="44">
         <v>1123</v>
       </c>
-      <c r="D344" s="22" t="s">
+      <c r="D344" s="21" t="s">
         <v>578</v>
       </c>
     </row>
@@ -16423,10 +16400,10 @@
       <c r="B345" t="s">
         <v>400</v>
       </c>
-      <c r="C345" s="45">
+      <c r="C345" s="44">
         <v>1124</v>
       </c>
-      <c r="D345" s="22" t="s">
+      <c r="D345" s="21" t="s">
         <v>579</v>
       </c>
     </row>
@@ -16437,10 +16414,10 @@
       <c r="B346" t="s">
         <v>400</v>
       </c>
-      <c r="C346" s="45">
+      <c r="C346" s="44">
         <v>1125</v>
       </c>
-      <c r="D346" s="22" t="s">
+      <c r="D346" s="21" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -16451,10 +16428,10 @@
       <c r="B347" t="s">
         <v>400</v>
       </c>
-      <c r="C347" s="45">
+      <c r="C347" s="44">
         <v>1126</v>
       </c>
-      <c r="D347" s="22" t="s">
+      <c r="D347" s="21" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16465,10 +16442,10 @@
       <c r="B348" t="s">
         <v>400</v>
       </c>
-      <c r="C348" s="45">
+      <c r="C348" s="44">
         <v>1127</v>
       </c>
-      <c r="D348" s="22" t="s">
+      <c r="D348" s="21" t="s">
         <v>581</v>
       </c>
     </row>
@@ -16479,10 +16456,10 @@
       <c r="B349" t="s">
         <v>400</v>
       </c>
-      <c r="C349" s="45">
+      <c r="C349" s="44">
         <v>1128</v>
       </c>
-      <c r="D349" s="22" t="s">
+      <c r="D349" s="21" t="s">
         <v>583</v>
       </c>
     </row>
@@ -16493,10 +16470,10 @@
       <c r="B350" t="s">
         <v>400</v>
       </c>
-      <c r="C350" s="45">
+      <c r="C350" s="44">
         <v>1129</v>
       </c>
-      <c r="D350" s="22" t="s">
+      <c r="D350" s="21" t="s">
         <v>582</v>
       </c>
     </row>
@@ -16507,10 +16484,10 @@
       <c r="B351" t="s">
         <v>400</v>
       </c>
-      <c r="C351" s="45">
+      <c r="C351" s="44">
         <v>1130</v>
       </c>
-      <c r="D351" s="22" t="s">
+      <c r="D351" s="21" t="s">
         <v>584</v>
       </c>
     </row>
@@ -16521,10 +16498,10 @@
       <c r="B352" t="s">
         <v>400</v>
       </c>
-      <c r="C352" s="45">
+      <c r="C352" s="44">
         <v>1131</v>
       </c>
-      <c r="D352" s="22" t="s">
+      <c r="D352" s="21" t="s">
         <v>492</v>
       </c>
     </row>
@@ -16535,10 +16512,10 @@
       <c r="B353" t="s">
         <v>400</v>
       </c>
-      <c r="C353" s="45">
+      <c r="C353" s="44">
         <v>1132</v>
       </c>
-      <c r="D353" s="22" t="s">
+      <c r="D353" s="21" t="s">
         <v>585</v>
       </c>
     </row>
@@ -16549,10 +16526,10 @@
       <c r="B354" t="s">
         <v>400</v>
       </c>
-      <c r="C354" s="45">
+      <c r="C354" s="44">
         <v>1133</v>
       </c>
-      <c r="D354" s="22" t="s">
+      <c r="D354" s="21" t="s">
         <v>586</v>
       </c>
     </row>
@@ -16563,10 +16540,10 @@
       <c r="B355" t="s">
         <v>400</v>
       </c>
-      <c r="C355" s="44">
+      <c r="C355" s="43">
         <v>1176</v>
       </c>
-      <c r="D355" s="22" t="s">
+      <c r="D355" s="21" t="s">
         <v>515</v>
       </c>
     </row>
@@ -16577,10 +16554,10 @@
       <c r="B356" t="s">
         <v>400</v>
       </c>
-      <c r="C356" s="44">
+      <c r="C356" s="43">
         <v>1177</v>
       </c>
-      <c r="D356" s="22" t="s">
+      <c r="D356" s="21" t="s">
         <v>516</v>
       </c>
     </row>
@@ -16591,10 +16568,10 @@
       <c r="B357" t="s">
         <v>400</v>
       </c>
-      <c r="C357" s="45">
+      <c r="C357" s="44">
         <v>1218</v>
       </c>
-      <c r="D357" s="22" t="s">
+      <c r="D357" s="21" t="s">
         <v>611</v>
       </c>
     </row>
@@ -16605,10 +16582,10 @@
       <c r="B358" t="s">
         <v>400</v>
       </c>
-      <c r="C358" s="45">
+      <c r="C358" s="44">
         <v>1219</v>
       </c>
-      <c r="D358" s="22" t="s">
+      <c r="D358" s="21" t="s">
         <v>612</v>
       </c>
     </row>
@@ -16619,10 +16596,10 @@
       <c r="B359" t="s">
         <v>400</v>
       </c>
-      <c r="C359" s="45">
+      <c r="C359" s="44">
         <v>1220</v>
       </c>
-      <c r="D359" s="22" t="s">
+      <c r="D359" s="21" t="s">
         <v>613</v>
       </c>
     </row>
@@ -16633,10 +16610,10 @@
       <c r="B360" t="s">
         <v>400</v>
       </c>
-      <c r="C360" s="45">
+      <c r="C360" s="44">
         <v>1221</v>
       </c>
-      <c r="D360" s="22" t="s">
+      <c r="D360" s="21" t="s">
         <v>614</v>
       </c>
     </row>
@@ -16647,10 +16624,10 @@
       <c r="B361" t="s">
         <v>400</v>
       </c>
-      <c r="C361" s="45">
+      <c r="C361" s="44">
         <v>1222</v>
       </c>
-      <c r="D361" s="22" t="s">
+      <c r="D361" s="21" t="s">
         <v>615</v>
       </c>
     </row>
@@ -16661,10 +16638,10 @@
       <c r="B362" t="s">
         <v>400</v>
       </c>
-      <c r="C362" s="45">
+      <c r="C362" s="44">
         <v>1223</v>
       </c>
-      <c r="D362" s="22" t="s">
+      <c r="D362" s="21" t="s">
         <v>616</v>
       </c>
     </row>
@@ -16675,10 +16652,10 @@
       <c r="B363" t="s">
         <v>400</v>
       </c>
-      <c r="C363" s="45">
+      <c r="C363" s="44">
         <v>1224</v>
       </c>
-      <c r="D363" s="22" t="s">
+      <c r="D363" s="21" t="s">
         <v>617</v>
       </c>
     </row>
@@ -16689,10 +16666,10 @@
       <c r="B364" t="s">
         <v>400</v>
       </c>
-      <c r="C364" s="45">
+      <c r="C364" s="44">
         <v>1225</v>
       </c>
-      <c r="D364" s="22" t="s">
+      <c r="D364" s="21" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -16703,10 +16680,10 @@
       <c r="B365" t="s">
         <v>400</v>
       </c>
-      <c r="C365" s="45">
+      <c r="C365" s="44">
         <v>1226</v>
       </c>
-      <c r="D365" s="22" t="s">
+      <c r="D365" s="21" t="s">
         <v>618</v>
       </c>
     </row>
@@ -16717,10 +16694,10 @@
       <c r="B366" t="s">
         <v>400</v>
       </c>
-      <c r="C366" s="45">
+      <c r="C366" s="44">
         <v>1227</v>
       </c>
-      <c r="D366" s="22" t="s">
+      <c r="D366" s="21" t="s">
         <v>619</v>
       </c>
     </row>
@@ -16731,10 +16708,10 @@
       <c r="B367" t="s">
         <v>400</v>
       </c>
-      <c r="C367" s="45">
+      <c r="C367" s="44">
         <v>1228</v>
       </c>
-      <c r="D367" s="22" t="s">
+      <c r="D367" s="21" t="s">
         <v>621</v>
       </c>
     </row>
@@ -16745,10 +16722,10 @@
       <c r="B368" t="s">
         <v>400</v>
       </c>
-      <c r="C368" s="45">
+      <c r="C368" s="44">
         <v>1229</v>
       </c>
-      <c r="D368" s="22" t="s">
+      <c r="D368" s="21" t="s">
         <v>620</v>
       </c>
     </row>
@@ -16759,10 +16736,10 @@
       <c r="B369" t="s">
         <v>400</v>
       </c>
-      <c r="C369" s="45">
+      <c r="C369" s="44">
         <v>1230</v>
       </c>
-      <c r="D369" s="22" t="s">
+      <c r="D369" s="21" t="s">
         <v>622</v>
       </c>
     </row>
@@ -16773,10 +16750,10 @@
       <c r="B370" t="s">
         <v>400</v>
       </c>
-      <c r="C370" s="45">
+      <c r="C370" s="44">
         <v>1231</v>
       </c>
-      <c r="D370" s="22" t="s">
+      <c r="D370" s="21" t="s">
         <v>623</v>
       </c>
     </row>
@@ -16787,10 +16764,10 @@
       <c r="B371" t="s">
         <v>400</v>
       </c>
-      <c r="C371" s="45">
+      <c r="C371" s="44">
         <v>1232</v>
       </c>
-      <c r="D371" s="22" t="s">
+      <c r="D371" s="21" t="s">
         <v>624</v>
       </c>
     </row>
@@ -16801,10 +16778,10 @@
       <c r="B372" t="s">
         <v>400</v>
       </c>
-      <c r="C372" s="45">
+      <c r="C372" s="44">
         <v>1233</v>
       </c>
-      <c r="D372" s="22" t="s">
+      <c r="D372" s="21" t="s">
         <v>625</v>
       </c>
     </row>
@@ -16815,10 +16792,10 @@
       <c r="B373" t="s">
         <v>400</v>
       </c>
-      <c r="C373" s="44">
+      <c r="C373" s="43">
         <v>1276</v>
       </c>
-      <c r="D373" s="22" t="s">
+      <c r="D373" s="21" t="s">
         <v>517</v>
       </c>
     </row>
@@ -16829,10 +16806,10 @@
       <c r="B374" t="s">
         <v>400</v>
       </c>
-      <c r="C374" s="44">
+      <c r="C374" s="43">
         <v>1277</v>
       </c>
-      <c r="D374" s="22" t="s">
+      <c r="D374" s="21" t="s">
         <v>518</v>
       </c>
     </row>
@@ -16843,10 +16820,10 @@
       <c r="B375" t="s">
         <v>400</v>
       </c>
-      <c r="C375" s="45">
+      <c r="C375" s="44">
         <v>1318</v>
       </c>
-      <c r="D375" s="22" t="s">
+      <c r="D375" s="21" t="s">
         <v>498</v>
       </c>
     </row>
@@ -16857,10 +16834,10 @@
       <c r="B376" t="s">
         <v>400</v>
       </c>
-      <c r="C376" s="45">
+      <c r="C376" s="44">
         <v>1319</v>
       </c>
-      <c r="D376" s="22" t="s">
+      <c r="D376" s="21" t="s">
         <v>499</v>
       </c>
     </row>
@@ -16871,10 +16848,10 @@
       <c r="B377" t="s">
         <v>400</v>
       </c>
-      <c r="C377" s="45">
+      <c r="C377" s="44">
         <v>1320</v>
       </c>
-      <c r="D377" s="22" t="s">
+      <c r="D377" s="21" t="s">
         <v>500</v>
       </c>
     </row>
@@ -16885,10 +16862,10 @@
       <c r="B378" t="s">
         <v>400</v>
       </c>
-      <c r="C378" s="45">
+      <c r="C378" s="44">
         <v>1321</v>
       </c>
-      <c r="D378" s="22" t="s">
+      <c r="D378" s="21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -16899,10 +16876,10 @@
       <c r="B379" t="s">
         <v>400</v>
       </c>
-      <c r="C379" s="45">
+      <c r="C379" s="44">
         <v>1322</v>
       </c>
-      <c r="D379" s="22" t="s">
+      <c r="D379" s="21" t="s">
         <v>601</v>
       </c>
     </row>
@@ -16913,10 +16890,10 @@
       <c r="B380" t="s">
         <v>400</v>
       </c>
-      <c r="C380" s="45">
+      <c r="C380" s="44">
         <v>1323</v>
       </c>
-      <c r="D380" s="22" t="s">
+      <c r="D380" s="21" t="s">
         <v>602</v>
       </c>
     </row>
@@ -16927,10 +16904,10 @@
       <c r="B381" t="s">
         <v>400</v>
       </c>
-      <c r="C381" s="45">
+      <c r="C381" s="44">
         <v>1324</v>
       </c>
-      <c r="D381" s="22" t="s">
+      <c r="D381" s="21" t="s">
         <v>603</v>
       </c>
     </row>
@@ -16941,10 +16918,10 @@
       <c r="B382" t="s">
         <v>400</v>
       </c>
-      <c r="C382" s="45">
+      <c r="C382" s="44">
         <v>1325</v>
       </c>
-      <c r="D382" s="22" t="s">
+      <c r="D382" s="21" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -16955,10 +16932,10 @@
       <c r="B383" t="s">
         <v>400</v>
       </c>
-      <c r="C383" s="45">
+      <c r="C383" s="44">
         <v>1326</v>
       </c>
-      <c r="D383" s="22" t="s">
+      <c r="D383" s="21" t="s">
         <v>604</v>
       </c>
     </row>
@@ -16969,10 +16946,10 @@
       <c r="B384" t="s">
         <v>400</v>
       </c>
-      <c r="C384" s="45">
+      <c r="C384" s="44">
         <v>1327</v>
       </c>
-      <c r="D384" s="22" t="s">
+      <c r="D384" s="21" t="s">
         <v>605</v>
       </c>
     </row>
@@ -16983,10 +16960,10 @@
       <c r="B385" t="s">
         <v>400</v>
       </c>
-      <c r="C385" s="45">
+      <c r="C385" s="44">
         <v>1328</v>
       </c>
-      <c r="D385" s="22" t="s">
+      <c r="D385" s="21" t="s">
         <v>607</v>
       </c>
     </row>
@@ -16997,10 +16974,10 @@
       <c r="B386" t="s">
         <v>400</v>
       </c>
-      <c r="C386" s="45">
+      <c r="C386" s="44">
         <v>1329</v>
       </c>
-      <c r="D386" s="22" t="s">
+      <c r="D386" s="21" t="s">
         <v>606</v>
       </c>
     </row>
@@ -17011,10 +16988,10 @@
       <c r="B387" t="s">
         <v>400</v>
       </c>
-      <c r="C387" s="45">
+      <c r="C387" s="44">
         <v>1330</v>
       </c>
-      <c r="D387" s="22" t="s">
+      <c r="D387" s="21" t="s">
         <v>608</v>
       </c>
     </row>
@@ -17025,10 +17002,10 @@
       <c r="B388" t="s">
         <v>400</v>
       </c>
-      <c r="C388" s="45">
+      <c r="C388" s="44">
         <v>1331</v>
       </c>
-      <c r="D388" s="22" t="s">
+      <c r="D388" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -17039,10 +17016,10 @@
       <c r="B389" t="s">
         <v>400</v>
       </c>
-      <c r="C389" s="45">
+      <c r="C389" s="44">
         <v>1332</v>
       </c>
-      <c r="D389" s="22" t="s">
+      <c r="D389" s="21" t="s">
         <v>609</v>
       </c>
     </row>
@@ -17053,10 +17030,10 @@
       <c r="B390" t="s">
         <v>400</v>
       </c>
-      <c r="C390" s="45">
+      <c r="C390" s="44">
         <v>1333</v>
       </c>
-      <c r="D390" s="22" t="s">
+      <c r="D390" s="21" t="s">
         <v>610</v>
       </c>
     </row>
@@ -17067,10 +17044,10 @@
       <c r="B391" t="s">
         <v>400</v>
       </c>
-      <c r="C391" s="45">
+      <c r="C391" s="44">
         <v>1334</v>
       </c>
-      <c r="D391" s="22" t="s">
+      <c r="D391" s="21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -17081,10 +17058,10 @@
       <c r="B392" t="s">
         <v>400</v>
       </c>
-      <c r="C392" s="45">
+      <c r="C392" s="44">
         <v>1418</v>
       </c>
-      <c r="D392" s="22" t="s">
+      <c r="D392" s="21" t="s">
         <v>493</v>
       </c>
     </row>
@@ -17095,10 +17072,10 @@
       <c r="B393" t="s">
         <v>400</v>
       </c>
-      <c r="C393" s="45">
+      <c r="C393" s="44">
         <v>1419</v>
       </c>
-      <c r="D393" s="22" t="s">
+      <c r="D393" s="21" t="s">
         <v>494</v>
       </c>
     </row>
@@ -17109,10 +17086,10 @@
       <c r="B394" t="s">
         <v>400</v>
       </c>
-      <c r="C394" s="45">
+      <c r="C394" s="44">
         <v>1420</v>
       </c>
-      <c r="D394" s="22" t="s">
+      <c r="D394" s="21" t="s">
         <v>495</v>
       </c>
     </row>
@@ -17123,10 +17100,10 @@
       <c r="B395" t="s">
         <v>400</v>
       </c>
-      <c r="C395" s="45">
+      <c r="C395" s="44">
         <v>1421</v>
       </c>
-      <c r="D395" s="22" t="s">
+      <c r="D395" s="21" t="s">
         <v>496</v>
       </c>
     </row>
@@ -17137,10 +17114,10 @@
       <c r="B396" t="s">
         <v>400</v>
       </c>
-      <c r="C396" s="45">
+      <c r="C396" s="44">
         <v>1422</v>
       </c>
-      <c r="D396" s="22" t="s">
+      <c r="D396" s="21" t="s">
         <v>587</v>
       </c>
     </row>
@@ -17151,10 +17128,10 @@
       <c r="B397" t="s">
         <v>400</v>
       </c>
-      <c r="C397" s="45">
+      <c r="C397" s="44">
         <v>1423</v>
       </c>
-      <c r="D397" s="22" t="s">
+      <c r="D397" s="21" t="s">
         <v>588</v>
       </c>
     </row>
@@ -17165,10 +17142,10 @@
       <c r="B398" t="s">
         <v>400</v>
       </c>
-      <c r="C398" s="45">
+      <c r="C398" s="44">
         <v>1424</v>
       </c>
-      <c r="D398" s="22" t="s">
+      <c r="D398" s="21" t="s">
         <v>589</v>
       </c>
     </row>
@@ -17179,10 +17156,10 @@
       <c r="B399" t="s">
         <v>400</v>
       </c>
-      <c r="C399" s="45">
+      <c r="C399" s="44">
         <v>1425</v>
       </c>
-      <c r="D399" s="22" t="s">
+      <c r="D399" s="21" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -17193,10 +17170,10 @@
       <c r="B400" t="s">
         <v>400</v>
       </c>
-      <c r="C400" s="45">
+      <c r="C400" s="44">
         <v>1426</v>
       </c>
-      <c r="D400" s="22" t="s">
+      <c r="D400" s="21" t="s">
         <v>590</v>
       </c>
     </row>
@@ -17207,10 +17184,10 @@
       <c r="B401" t="s">
         <v>400</v>
       </c>
-      <c r="C401" s="45">
+      <c r="C401" s="44">
         <v>1427</v>
       </c>
-      <c r="D401" s="22" t="s">
+      <c r="D401" s="21" t="s">
         <v>591</v>
       </c>
     </row>
@@ -17221,10 +17198,10 @@
       <c r="B402" t="s">
         <v>400</v>
       </c>
-      <c r="C402" s="45">
+      <c r="C402" s="44">
         <v>1428</v>
       </c>
-      <c r="D402" s="22" t="s">
+      <c r="D402" s="21" t="s">
         <v>593</v>
       </c>
     </row>
@@ -17235,10 +17212,10 @@
       <c r="B403" t="s">
         <v>400</v>
       </c>
-      <c r="C403" s="45">
+      <c r="C403" s="44">
         <v>1429</v>
       </c>
-      <c r="D403" s="22" t="s">
+      <c r="D403" s="21" t="s">
         <v>592</v>
       </c>
     </row>
@@ -17249,10 +17226,10 @@
       <c r="B404" t="s">
         <v>400</v>
       </c>
-      <c r="C404" s="45">
+      <c r="C404" s="44">
         <v>1430</v>
       </c>
-      <c r="D404" s="22" t="s">
+      <c r="D404" s="21" t="s">
         <v>594</v>
       </c>
     </row>
@@ -17263,10 +17240,10 @@
       <c r="B405" t="s">
         <v>400</v>
       </c>
-      <c r="C405" s="45">
+      <c r="C405" s="44">
         <v>1431</v>
       </c>
-      <c r="D405" s="22" t="s">
+      <c r="D405" s="21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -17277,10 +17254,10 @@
       <c r="B406" t="s">
         <v>400</v>
       </c>
-      <c r="C406" s="45">
+      <c r="C406" s="44">
         <v>1432</v>
       </c>
-      <c r="D406" s="22" t="s">
+      <c r="D406" s="21" t="s">
         <v>595</v>
       </c>
     </row>
@@ -17291,10 +17268,10 @@
       <c r="B407" t="s">
         <v>400</v>
       </c>
-      <c r="C407" s="45">
+      <c r="C407" s="44">
         <v>1433</v>
       </c>
-      <c r="D407" s="22" t="s">
+      <c r="D407" s="21" t="s">
         <v>596</v>
       </c>
     </row>
@@ -17305,10 +17282,10 @@
       <c r="B408" t="s">
         <v>400</v>
       </c>
-      <c r="C408" s="45">
+      <c r="C408" s="44">
         <v>1434</v>
       </c>
-      <c r="D408" s="22" t="s">
+      <c r="D408" s="21" t="s">
         <v>504</v>
       </c>
     </row>
@@ -17319,10 +17296,10 @@
       <c r="B409" t="s">
         <v>400</v>
       </c>
-      <c r="C409" s="45">
+      <c r="C409" s="44">
         <v>1519</v>
       </c>
-      <c r="D409" s="22" t="s">
+      <c r="D409" s="21" t="s">
         <v>626</v>
       </c>
     </row>
@@ -17333,10 +17310,10 @@
       <c r="B410" t="s">
         <v>400</v>
       </c>
-      <c r="C410" s="45">
+      <c r="C410" s="44">
         <v>1520</v>
       </c>
-      <c r="D410" s="22" t="s">
+      <c r="D410" s="21" t="s">
         <v>627</v>
       </c>
     </row>
@@ -17347,10 +17324,10 @@
       <c r="B411" t="s">
         <v>400</v>
       </c>
-      <c r="C411" s="45">
+      <c r="C411" s="44">
         <v>1521</v>
       </c>
-      <c r="D411" s="22" t="s">
+      <c r="D411" s="21" t="s">
         <v>628</v>
       </c>
     </row>
@@ -17361,10 +17338,10 @@
       <c r="B412" t="s">
         <v>400</v>
       </c>
-      <c r="C412" s="45">
+      <c r="C412" s="44">
         <v>1522</v>
       </c>
-      <c r="D412" s="22" t="s">
+      <c r="D412" s="21" t="s">
         <v>629</v>
       </c>
     </row>
@@ -17375,10 +17352,10 @@
       <c r="B413" t="s">
         <v>400</v>
       </c>
-      <c r="C413" s="45">
+      <c r="C413" s="44">
         <v>1523</v>
       </c>
-      <c r="D413" s="22" t="s">
+      <c r="D413" s="21" t="s">
         <v>630</v>
       </c>
     </row>
@@ -17389,10 +17366,10 @@
       <c r="B414" t="s">
         <v>400</v>
       </c>
-      <c r="C414" s="45">
+      <c r="C414" s="44">
         <v>1524</v>
       </c>
-      <c r="D414" s="22" t="s">
+      <c r="D414" s="21" t="s">
         <v>631</v>
       </c>
     </row>
@@ -17403,10 +17380,10 @@
       <c r="B415" t="s">
         <v>400</v>
       </c>
-      <c r="C415" s="45">
+      <c r="C415" s="44">
         <v>1525</v>
       </c>
-      <c r="D415" s="22" t="s">
+      <c r="D415" s="21" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -17417,10 +17394,10 @@
       <c r="B416" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="45">
+      <c r="C416" s="44">
         <v>1526</v>
       </c>
-      <c r="D416" s="22" t="s">
+      <c r="D416" s="21" t="s">
         <v>632</v>
       </c>
     </row>
@@ -17431,10 +17408,10 @@
       <c r="B417" t="s">
         <v>400</v>
       </c>
-      <c r="C417" s="45">
+      <c r="C417" s="44">
         <v>1527</v>
       </c>
-      <c r="D417" s="22" t="s">
+      <c r="D417" s="21" t="s">
         <v>633</v>
       </c>
     </row>
@@ -17445,10 +17422,10 @@
       <c r="B418" t="s">
         <v>400</v>
       </c>
-      <c r="C418" s="45">
+      <c r="C418" s="44">
         <v>1528</v>
       </c>
-      <c r="D418" s="22" t="s">
+      <c r="D418" s="21" t="s">
         <v>635</v>
       </c>
     </row>
@@ -17459,10 +17436,10 @@
       <c r="B419" t="s">
         <v>400</v>
       </c>
-      <c r="C419" s="45">
+      <c r="C419" s="44">
         <v>1529</v>
       </c>
-      <c r="D419" s="22" t="s">
+      <c r="D419" s="21" t="s">
         <v>634</v>
       </c>
     </row>
@@ -17473,10 +17450,10 @@
       <c r="B420" t="s">
         <v>400</v>
       </c>
-      <c r="C420" s="45">
+      <c r="C420" s="44">
         <v>1530</v>
       </c>
-      <c r="D420" s="22" t="s">
+      <c r="D420" s="21" t="s">
         <v>636</v>
       </c>
     </row>
@@ -17487,10 +17464,10 @@
       <c r="B421" t="s">
         <v>400</v>
       </c>
-      <c r="C421" s="45">
+      <c r="C421" s="44">
         <v>1531</v>
       </c>
-      <c r="D421" s="22" t="s">
+      <c r="D421" s="21" t="s">
         <v>637</v>
       </c>
     </row>
@@ -17501,10 +17478,10 @@
       <c r="B422" t="s">
         <v>400</v>
       </c>
-      <c r="C422" s="45">
+      <c r="C422" s="44">
         <v>1532</v>
       </c>
-      <c r="D422" s="22" t="s">
+      <c r="D422" s="21" t="s">
         <v>638</v>
       </c>
     </row>
@@ -17515,10 +17492,10 @@
       <c r="B423" t="s">
         <v>400</v>
       </c>
-      <c r="C423" s="45">
+      <c r="C423" s="44">
         <v>1533</v>
       </c>
-      <c r="D423" s="22" t="s">
+      <c r="D423" s="21" t="s">
         <v>639</v>
       </c>
     </row>
@@ -17529,10 +17506,10 @@
       <c r="B424" t="s">
         <v>400</v>
       </c>
-      <c r="C424" s="45">
+      <c r="C424" s="44">
         <v>5053</v>
       </c>
-      <c r="D424" s="22" t="s">
+      <c r="D424" s="21" t="s">
         <v>641</v>
       </c>
     </row>
@@ -17543,10 +17520,10 @@
       <c r="B425" t="s">
         <v>400</v>
       </c>
-      <c r="C425" s="45">
+      <c r="C425" s="44">
         <v>5054</v>
       </c>
-      <c r="D425" s="22" t="s">
+      <c r="D425" s="21" t="s">
         <v>642</v>
       </c>
     </row>
@@ -17557,10 +17534,10 @@
       <c r="B426" t="s">
         <v>400</v>
       </c>
-      <c r="C426" s="45">
+      <c r="C426" s="44">
         <v>5055</v>
       </c>
-      <c r="D426" s="22" t="s">
+      <c r="D426" s="21" t="s">
         <v>509</v>
       </c>
     </row>
@@ -17571,10 +17548,10 @@
       <c r="B427" t="s">
         <v>400</v>
       </c>
-      <c r="C427" s="45">
+      <c r="C427" s="44">
         <v>5056</v>
       </c>
-      <c r="D427" s="22" t="s">
+      <c r="D427" s="21" t="s">
         <v>643</v>
       </c>
     </row>
@@ -17585,10 +17562,10 @@
       <c r="B428" t="s">
         <v>400</v>
       </c>
-      <c r="C428" s="45">
+      <c r="C428" s="44">
         <v>5057</v>
       </c>
-      <c r="D428" s="22" t="s">
+      <c r="D428" s="21" t="s">
         <v>644</v>
       </c>
     </row>
@@ -17599,10 +17576,10 @@
       <c r="B429" t="s">
         <v>400</v>
       </c>
-      <c r="C429" s="45">
+      <c r="C429" s="44">
         <v>5058</v>
       </c>
-      <c r="D429" s="22" t="s">
+      <c r="D429" s="21" t="s">
         <v>645</v>
       </c>
     </row>
@@ -17613,10 +17590,10 @@
       <c r="B430" t="s">
         <v>400</v>
       </c>
-      <c r="C430" s="45">
+      <c r="C430" s="44">
         <v>5059</v>
       </c>
-      <c r="D430" s="22" t="s">
+      <c r="D430" s="21" t="s">
         <v>646</v>
       </c>
     </row>
@@ -17627,10 +17604,10 @@
       <c r="B431" t="s">
         <v>400</v>
       </c>
-      <c r="C431" s="45">
+      <c r="C431" s="44">
         <v>5060</v>
       </c>
-      <c r="D431" s="22" t="s">
+      <c r="D431" s="21" t="s">
         <v>647</v>
       </c>
     </row>
@@ -17641,10 +17618,10 @@
       <c r="B432" t="s">
         <v>400</v>
       </c>
-      <c r="C432" s="45">
+      <c r="C432" s="44">
         <v>5061</v>
       </c>
-      <c r="D432" s="22" t="s">
+      <c r="D432" s="21" t="s">
         <v>649</v>
       </c>
     </row>
@@ -17655,10 +17632,10 @@
       <c r="B433" t="s">
         <v>400</v>
       </c>
-      <c r="C433" s="45">
+      <c r="C433" s="44">
         <v>5062</v>
       </c>
-      <c r="D433" s="22" t="s">
+      <c r="D433" s="21" t="s">
         <v>648</v>
       </c>
     </row>
@@ -17669,10 +17646,10 @@
       <c r="B434" t="s">
         <v>400</v>
       </c>
-      <c r="C434" s="45">
+      <c r="C434" s="44">
         <v>5063</v>
       </c>
-      <c r="D434" s="22" t="s">
+      <c r="D434" s="21" t="s">
         <v>650</v>
       </c>
     </row>
@@ -17683,10 +17660,10 @@
       <c r="B435" t="s">
         <v>400</v>
       </c>
-      <c r="C435" s="45">
+      <c r="C435" s="44">
         <v>5064</v>
       </c>
-      <c r="D435" s="22" t="s">
+      <c r="D435" s="21" t="s">
         <v>651</v>
       </c>
     </row>
@@ -17697,10 +17674,10 @@
       <c r="B436" t="s">
         <v>400</v>
       </c>
-      <c r="C436" s="45">
+      <c r="C436" s="44">
         <v>5065</v>
       </c>
-      <c r="D436" s="22" t="s">
+      <c r="D436" s="21" t="s">
         <v>652</v>
       </c>
     </row>
@@ -17711,10 +17688,10 @@
       <c r="B437" t="s">
         <v>400</v>
       </c>
-      <c r="C437" s="45">
+      <c r="C437" s="44">
         <v>5066</v>
       </c>
-      <c r="D437" s="22" t="s">
+      <c r="D437" s="21" t="s">
         <v>653</v>
       </c>
     </row>
@@ -17725,10 +17702,10 @@
       <c r="B438" t="s">
         <v>400</v>
       </c>
-      <c r="C438" s="45">
+      <c r="C438" s="44">
         <v>5067</v>
       </c>
-      <c r="D438" s="22" t="s">
+      <c r="D438" s="21" t="s">
         <v>505</v>
       </c>
     </row>
@@ -17739,10 +17716,10 @@
       <c r="B439" t="s">
         <v>400</v>
       </c>
-      <c r="C439" s="45">
+      <c r="C439" s="44">
         <v>5068</v>
       </c>
-      <c r="D439" s="22" t="s">
+      <c r="D439" s="21" t="s">
         <v>506</v>
       </c>
     </row>
@@ -17753,10 +17730,10 @@
       <c r="B440" t="s">
         <v>400</v>
       </c>
-      <c r="C440" s="45">
+      <c r="C440" s="44">
         <v>5069</v>
       </c>
-      <c r="D440" s="22" t="s">
+      <c r="D440" s="21" t="s">
         <v>507</v>
       </c>
     </row>
@@ -17767,10 +17744,10 @@
       <c r="B441" t="s">
         <v>400</v>
       </c>
-      <c r="C441" s="45">
+      <c r="C441" s="44">
         <v>5070</v>
       </c>
-      <c r="D441" s="22" t="s">
+      <c r="D441" s="21" t="s">
         <v>654</v>
       </c>
     </row>
@@ -17781,10 +17758,10 @@
       <c r="B442" t="s">
         <v>400</v>
       </c>
-      <c r="C442" s="45">
+      <c r="C442" s="44">
         <v>5071</v>
       </c>
-      <c r="D442" s="22" t="s">
+      <c r="D442" s="21" t="s">
         <v>655</v>
       </c>
     </row>
@@ -17795,10 +17772,10 @@
       <c r="B443" t="s">
         <v>400</v>
       </c>
-      <c r="C443" s="45">
+      <c r="C443" s="44">
         <v>5153</v>
       </c>
-      <c r="D443" s="22" t="s">
+      <c r="D443" s="21" t="s">
         <v>656</v>
       </c>
     </row>
@@ -17809,10 +17786,10 @@
       <c r="B444" t="s">
         <v>400</v>
       </c>
-      <c r="C444" s="45">
+      <c r="C444" s="44">
         <v>5154</v>
       </c>
-      <c r="D444" s="22" t="s">
+      <c r="D444" s="21" t="s">
         <v>657</v>
       </c>
     </row>
@@ -17823,10 +17800,10 @@
       <c r="B445" t="s">
         <v>400</v>
       </c>
-      <c r="C445" s="45">
+      <c r="C445" s="44">
         <v>5155</v>
       </c>
-      <c r="D445" s="22" t="s">
+      <c r="D445" s="21" t="s">
         <v>658</v>
       </c>
     </row>
@@ -17837,10 +17814,10 @@
       <c r="B446" t="s">
         <v>400</v>
       </c>
-      <c r="C446" s="45">
+      <c r="C446" s="44">
         <v>5156</v>
       </c>
-      <c r="D446" s="22" t="s">
+      <c r="D446" s="21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -17851,10 +17828,10 @@
       <c r="B447" t="s">
         <v>400</v>
       </c>
-      <c r="C447" s="45">
+      <c r="C447" s="44">
         <v>5157</v>
       </c>
-      <c r="D447" s="22" t="s">
+      <c r="D447" s="21" t="s">
         <v>660</v>
       </c>
     </row>
@@ -17865,10 +17842,10 @@
       <c r="B448" t="s">
         <v>400</v>
       </c>
-      <c r="C448" s="45">
+      <c r="C448" s="44">
         <v>5158</v>
       </c>
-      <c r="D448" s="22" t="s">
+      <c r="D448" s="21" t="s">
         <v>661</v>
       </c>
     </row>
@@ -17879,10 +17856,10 @@
       <c r="B449" t="s">
         <v>400</v>
       </c>
-      <c r="C449" s="45">
+      <c r="C449" s="44">
         <v>5159</v>
       </c>
-      <c r="D449" s="22" t="s">
+      <c r="D449" s="21" t="s">
         <v>662</v>
       </c>
     </row>
@@ -17893,10 +17870,10 @@
       <c r="B450" t="s">
         <v>400</v>
       </c>
-      <c r="C450" s="45">
+      <c r="C450" s="44">
         <v>5160</v>
       </c>
-      <c r="D450" s="22" t="s">
+      <c r="D450" s="21" t="s">
         <v>663</v>
       </c>
     </row>
@@ -17907,10 +17884,10 @@
       <c r="B451" t="s">
         <v>400</v>
       </c>
-      <c r="C451" s="45">
+      <c r="C451" s="44">
         <v>5161</v>
       </c>
-      <c r="D451" s="22" t="s">
+      <c r="D451" s="21" t="s">
         <v>665</v>
       </c>
     </row>
@@ -17921,10 +17898,10 @@
       <c r="B452" t="s">
         <v>400</v>
       </c>
-      <c r="C452" s="45">
+      <c r="C452" s="44">
         <v>5162</v>
       </c>
-      <c r="D452" s="22" t="s">
+      <c r="D452" s="21" t="s">
         <v>664</v>
       </c>
     </row>
@@ -17935,10 +17912,10 @@
       <c r="B453" t="s">
         <v>400</v>
       </c>
-      <c r="C453" s="45">
+      <c r="C453" s="44">
         <v>5163</v>
       </c>
-      <c r="D453" s="22" t="s">
+      <c r="D453" s="21" t="s">
         <v>666</v>
       </c>
     </row>
@@ -17949,10 +17926,10 @@
       <c r="B454" t="s">
         <v>400</v>
       </c>
-      <c r="C454" s="45">
+      <c r="C454" s="44">
         <v>5164</v>
       </c>
-      <c r="D454" s="22" t="s">
+      <c r="D454" s="21" t="s">
         <v>667</v>
       </c>
     </row>
@@ -17963,10 +17940,10 @@
       <c r="B455" t="s">
         <v>400</v>
       </c>
-      <c r="C455" s="45">
+      <c r="C455" s="44">
         <v>5165</v>
       </c>
-      <c r="D455" s="22" t="s">
+      <c r="D455" s="21" t="s">
         <v>668</v>
       </c>
     </row>
@@ -17977,10 +17954,10 @@
       <c r="B456" t="s">
         <v>400</v>
       </c>
-      <c r="C456" s="45">
+      <c r="C456" s="44">
         <v>5166</v>
       </c>
-      <c r="D456" s="22" t="s">
+      <c r="D456" s="21" t="s">
         <v>669</v>
       </c>
     </row>
@@ -17991,10 +17968,10 @@
       <c r="B457" t="s">
         <v>400</v>
       </c>
-      <c r="C457" s="45">
+      <c r="C457" s="44">
         <v>5167</v>
       </c>
-      <c r="D457" s="22" t="s">
+      <c r="D457" s="21" t="s">
         <v>670</v>
       </c>
     </row>
@@ -18005,10 +17982,10 @@
       <c r="B458" t="s">
         <v>400</v>
       </c>
-      <c r="C458" s="45">
+      <c r="C458" s="44">
         <v>5168</v>
       </c>
-      <c r="D458" s="22" t="s">
+      <c r="D458" s="21" t="s">
         <v>671</v>
       </c>
     </row>
@@ -18019,10 +17996,10 @@
       <c r="B459" t="s">
         <v>400</v>
       </c>
-      <c r="C459" s="45">
+      <c r="C459" s="44">
         <v>5169</v>
       </c>
-      <c r="D459" s="22" t="s">
+      <c r="D459" s="21" t="s">
         <v>672</v>
       </c>
     </row>
@@ -18033,10 +18010,10 @@
       <c r="B460" t="s">
         <v>400</v>
       </c>
-      <c r="C460" s="45">
+      <c r="C460" s="44">
         <v>5170</v>
       </c>
-      <c r="D460" s="22" t="s">
+      <c r="D460" s="21" t="s">
         <v>673</v>
       </c>
     </row>
@@ -18047,10 +18024,10 @@
       <c r="B461" t="s">
         <v>400</v>
       </c>
-      <c r="C461" s="45">
+      <c r="C461" s="44">
         <v>5171</v>
       </c>
-      <c r="D461" s="22" t="s">
+      <c r="D461" s="21" t="s">
         <v>674</v>
       </c>
     </row>
@@ -18061,10 +18038,10 @@
       <c r="B462" t="s">
         <v>400</v>
       </c>
-      <c r="C462" s="45">
+      <c r="C462" s="44">
         <v>5253</v>
       </c>
-      <c r="D462" s="22" t="s">
+      <c r="D462" s="21" t="s">
         <v>675</v>
       </c>
     </row>
@@ -18075,10 +18052,10 @@
       <c r="B463" t="s">
         <v>400</v>
       </c>
-      <c r="C463" s="45">
+      <c r="C463" s="44">
         <v>5254</v>
       </c>
-      <c r="D463" s="22" t="s">
+      <c r="D463" s="21" t="s">
         <v>676</v>
       </c>
     </row>
@@ -18089,10 +18066,10 @@
       <c r="B464" t="s">
         <v>400</v>
       </c>
-      <c r="C464" s="45">
+      <c r="C464" s="44">
         <v>5255</v>
       </c>
-      <c r="D464" s="22" t="s">
+      <c r="D464" s="21" t="s">
         <v>514</v>
       </c>
     </row>
@@ -18103,10 +18080,10 @@
       <c r="B465" t="s">
         <v>400</v>
       </c>
-      <c r="C465" s="45">
+      <c r="C465" s="44">
         <v>5256</v>
       </c>
-      <c r="D465" s="22" t="s">
+      <c r="D465" s="21" t="s">
         <v>677</v>
       </c>
     </row>
@@ -18117,10 +18094,10 @@
       <c r="B466" t="s">
         <v>400</v>
       </c>
-      <c r="C466" s="45">
+      <c r="C466" s="44">
         <v>5257</v>
       </c>
-      <c r="D466" s="22" t="s">
+      <c r="D466" s="21" t="s">
         <v>678</v>
       </c>
     </row>
@@ -18131,10 +18108,10 @@
       <c r="B467" t="s">
         <v>400</v>
       </c>
-      <c r="C467" s="45">
+      <c r="C467" s="44">
         <v>5258</v>
       </c>
-      <c r="D467" s="22" t="s">
+      <c r="D467" s="21" t="s">
         <v>679</v>
       </c>
     </row>
@@ -18145,10 +18122,10 @@
       <c r="B468" t="s">
         <v>400</v>
       </c>
-      <c r="C468" s="45">
+      <c r="C468" s="44">
         <v>5259</v>
       </c>
-      <c r="D468" s="22" t="s">
+      <c r="D468" s="21" t="s">
         <v>680</v>
       </c>
     </row>
@@ -18159,10 +18136,10 @@
       <c r="B469" t="s">
         <v>400</v>
       </c>
-      <c r="C469" s="45">
+      <c r="C469" s="44">
         <v>5260</v>
       </c>
-      <c r="D469" s="22" t="s">
+      <c r="D469" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -18173,10 +18150,10 @@
       <c r="B470" t="s">
         <v>400</v>
       </c>
-      <c r="C470" s="45">
+      <c r="C470" s="44">
         <v>5261</v>
       </c>
-      <c r="D470" s="22" t="s">
+      <c r="D470" s="21" t="s">
         <v>683</v>
       </c>
     </row>
@@ -18187,10 +18164,10 @@
       <c r="B471" t="s">
         <v>400</v>
       </c>
-      <c r="C471" s="45">
+      <c r="C471" s="44">
         <v>5262</v>
       </c>
-      <c r="D471" s="22" t="s">
+      <c r="D471" s="21" t="s">
         <v>682</v>
       </c>
     </row>
@@ -18201,10 +18178,10 @@
       <c r="B472" t="s">
         <v>400</v>
       </c>
-      <c r="C472" s="45">
+      <c r="C472" s="44">
         <v>5263</v>
       </c>
-      <c r="D472" s="22" t="s">
+      <c r="D472" s="21" t="s">
         <v>684</v>
       </c>
     </row>
@@ -18215,10 +18192,10 @@
       <c r="B473" t="s">
         <v>400</v>
       </c>
-      <c r="C473" s="45">
+      <c r="C473" s="44">
         <v>5264</v>
       </c>
-      <c r="D473" s="22" t="s">
+      <c r="D473" s="21" t="s">
         <v>685</v>
       </c>
     </row>
@@ -18229,10 +18206,10 @@
       <c r="B474" t="s">
         <v>400</v>
       </c>
-      <c r="C474" s="45">
+      <c r="C474" s="44">
         <v>5265</v>
       </c>
-      <c r="D474" s="22" t="s">
+      <c r="D474" s="21" t="s">
         <v>686</v>
       </c>
     </row>
@@ -18243,10 +18220,10 @@
       <c r="B475" t="s">
         <v>400</v>
       </c>
-      <c r="C475" s="45">
+      <c r="C475" s="44">
         <v>5266</v>
       </c>
-      <c r="D475" s="22" t="s">
+      <c r="D475" s="21" t="s">
         <v>687</v>
       </c>
     </row>
@@ -18257,10 +18234,10 @@
       <c r="B476" t="s">
         <v>400</v>
       </c>
-      <c r="C476" s="45">
+      <c r="C476" s="44">
         <v>5267</v>
       </c>
-      <c r="D476" s="22" t="s">
+      <c r="D476" s="21" t="s">
         <v>510</v>
       </c>
     </row>
@@ -18271,10 +18248,10 @@
       <c r="B477" t="s">
         <v>400</v>
       </c>
-      <c r="C477" s="45">
+      <c r="C477" s="44">
         <v>5268</v>
       </c>
-      <c r="D477" s="22" t="s">
+      <c r="D477" s="21" t="s">
         <v>511</v>
       </c>
     </row>
@@ -18285,10 +18262,10 @@
       <c r="B478" t="s">
         <v>400</v>
       </c>
-      <c r="C478" s="45">
+      <c r="C478" s="44">
         <v>5269</v>
       </c>
-      <c r="D478" s="22" t="s">
+      <c r="D478" s="21" t="s">
         <v>512</v>
       </c>
     </row>
@@ -18299,10 +18276,10 @@
       <c r="B479" t="s">
         <v>400</v>
       </c>
-      <c r="C479" s="45">
+      <c r="C479" s="44">
         <v>5270</v>
       </c>
-      <c r="D479" s="22" t="s">
+      <c r="D479" s="21" t="s">
         <v>688</v>
       </c>
     </row>
@@ -18313,10 +18290,10 @@
       <c r="B480" t="s">
         <v>400</v>
       </c>
-      <c r="C480" s="45">
+      <c r="C480" s="44">
         <v>5271</v>
       </c>
-      <c r="D480" s="22" t="s">
+      <c r="D480" s="21" t="s">
         <v>689</v>
       </c>
     </row>
@@ -20028,101 +20005,101 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="603" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A603" s="23">
+    <row r="603" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A603" s="22">
         <v>38</v>
       </c>
-      <c r="B603" s="23" t="s">
+      <c r="B603" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C603" s="23">
+      <c r="C603" s="22">
         <v>47</v>
       </c>
-      <c r="D603" s="23" t="s">
+      <c r="D603" s="22" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="604" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A604" s="23">
+    <row r="604" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A604" s="22">
         <v>38</v>
       </c>
-      <c r="B604" s="23" t="s">
+      <c r="B604" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C604" s="23">
+      <c r="C604" s="22">
         <v>48</v>
       </c>
-      <c r="D604" s="23" t="s">
+      <c r="D604" s="22" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="605" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A605" s="23">
+    <row r="605" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A605" s="22">
         <v>38</v>
       </c>
-      <c r="B605" s="22" t="s">
+      <c r="B605" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C605" s="22">
+      <c r="C605" s="21">
         <v>49</v>
       </c>
-      <c r="D605" s="22" t="s">
+      <c r="D605" s="21" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="606" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A606" s="23">
+    <row r="606" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A606" s="22">
         <v>38</v>
       </c>
-      <c r="B606" s="22" t="s">
+      <c r="B606" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C606" s="22">
+      <c r="C606" s="21">
         <v>50</v>
       </c>
-      <c r="D606" s="22" t="s">
+      <c r="D606" s="21" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="607" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A607" s="23">
+    <row r="607" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A607" s="22">
         <v>38</v>
       </c>
-      <c r="B607" s="22" t="s">
+      <c r="B607" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C607" s="22">
+      <c r="C607" s="21">
         <v>51</v>
       </c>
-      <c r="D607" s="22" t="s">
+      <c r="D607" s="21" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="608" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A608" s="23">
+    <row r="608" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A608" s="22">
         <v>38</v>
       </c>
-      <c r="B608" s="22" t="s">
+      <c r="B608" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C608" s="22">
+      <c r="C608" s="21">
         <v>52</v>
       </c>
-      <c r="D608" s="22" t="s">
+      <c r="D608" s="21" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="609" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A609" s="23">
+    <row r="609" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A609" s="22">
         <v>39</v>
       </c>
-      <c r="B609" s="23" t="s">
+      <c r="B609" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="C609" s="23">
+      <c r="C609" s="22">
         <v>1</v>
       </c>
-      <c r="D609" s="23" t="s">
+      <c r="D609" s="22" t="s">
         <v>781</v>
       </c>
     </row>
@@ -20298,13 +20275,13 @@
       <c r="A622">
         <v>43</v>
       </c>
-      <c r="B622" s="22" t="s">
+      <c r="B622" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C622" s="22">
-        <v>0</v>
-      </c>
-      <c r="D622" s="22" t="s">
+      <c r="C622" s="21">
+        <v>0</v>
+      </c>
+      <c r="D622" s="21" t="s">
         <v>753</v>
       </c>
     </row>
@@ -20312,13 +20289,13 @@
       <c r="A623">
         <v>43</v>
       </c>
-      <c r="B623" s="22" t="s">
+      <c r="B623" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C623" s="22">
+      <c r="C623" s="21">
         <v>1</v>
       </c>
-      <c r="D623" s="22" t="s">
+      <c r="D623" s="21" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -20326,13 +20303,13 @@
       <c r="A624">
         <v>43</v>
       </c>
-      <c r="B624" s="22" t="s">
+      <c r="B624" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C624" s="22">
+      <c r="C624" s="21">
         <v>2</v>
       </c>
-      <c r="D624" s="22" t="s">
+      <c r="D624" s="21" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -20340,14 +20317,56 @@
       <c r="A625">
         <v>43</v>
       </c>
-      <c r="B625" s="22" t="s">
+      <c r="B625" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C625" s="22">
+      <c r="C625" s="21">
         <v>3</v>
       </c>
-      <c r="D625" s="22" t="s">
+      <c r="D625" s="21" t="s">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>44</v>
+      </c>
+      <c r="B626" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C626" s="21">
+        <v>0</v>
+      </c>
+      <c r="D626" s="21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>44</v>
+      </c>
+      <c r="B627" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C627" s="21">
+        <v>1</v>
+      </c>
+      <c r="D627" s="21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>44</v>
+      </c>
+      <c r="B628" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C628" s="21">
+        <v>2</v>
+      </c>
+      <c r="D628" s="21" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -20362,7 +20381,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -20373,58 +20392,58 @@
     <col min="3" max="4" width="8.7265625" style="19"/>
     <col min="5" max="5" width="13.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>1133</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>1132</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>1106</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -20445,10 +20464,10 @@
       <c r="F4" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20471,10 +20490,10 @@
       <c r="F5" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20497,10 +20516,10 @@
       <c r="F6" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20523,10 +20542,10 @@
       <c r="F7" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20549,10 +20568,10 @@
       <c r="F8" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20575,10 +20594,10 @@
       <c r="F9" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20601,10 +20620,10 @@
       <c r="F10" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20627,10 +20646,10 @@
       <c r="F11" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -20653,24 +20672,24 @@
       <c r="F12" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>1107</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -20685,16 +20704,16 @@
       <c r="D14" s="19">
         <v>-1</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>1126</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20711,16 +20730,16 @@
       <c r="D15" s="19">
         <v>-1</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>1127</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20737,16 +20756,16 @@
       <c r="D16" s="19">
         <v>-1</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>1128</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20763,16 +20782,16 @@
       <c r="D17" s="19">
         <v>-1</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>1129</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20789,16 +20808,16 @@
       <c r="D18" s="19">
         <v>-1</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>1130</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20815,16 +20834,16 @@
       <c r="D19" s="19">
         <v>-1</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>1092</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20841,16 +20860,16 @@
       <c r="D20" s="19">
         <v>-1</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>1092</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20867,16 +20886,16 @@
       <c r="D21" s="19">
         <v>-1</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>1131</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20893,30 +20912,30 @@
       <c r="D22" s="19">
         <v>-1</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>1092</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>1108</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -20937,10 +20956,10 @@
       <c r="F24" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20963,10 +20982,10 @@
       <c r="F25" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20989,10 +21008,10 @@
       <c r="F26" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21015,10 +21034,10 @@
       <c r="F27" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21041,10 +21060,10 @@
       <c r="F28" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21067,10 +21086,10 @@
       <c r="F29" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21093,24 +21112,24 @@
       <c r="F30" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>1109</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -21131,10 +21150,10 @@
       <c r="F32" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21157,10 +21176,10 @@
       <c r="F33" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21183,10 +21202,10 @@
       <c r="F34" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21209,10 +21228,10 @@
       <c r="F35" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21235,10 +21254,10 @@
       <c r="F36" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21261,10 +21280,10 @@
       <c r="F37" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21287,24 +21306,24 @@
       <c r="F38" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>1110</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -21325,24 +21344,24 @@
       <c r="F40" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="26" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>1111</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -21363,10 +21382,10 @@
       <c r="F42" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21389,10 +21408,10 @@
       <c r="F43" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21415,10 +21434,10 @@
       <c r="F44" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21441,10 +21460,10 @@
       <c r="F45" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21467,10 +21486,10 @@
       <c r="F46" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21493,10 +21512,10 @@
       <c r="F47" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21519,10 +21538,10 @@
       <c r="F48" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21545,10 +21564,10 @@
       <c r="F49" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21571,10 +21590,10 @@
       <c r="F50" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21597,10 +21616,10 @@
       <c r="F51" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21623,10 +21642,10 @@
       <c r="F52" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21649,10 +21668,10 @@
       <c r="F53" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21675,24 +21694,24 @@
       <c r="F54" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>1112</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
@@ -21713,10 +21732,10 @@
       <c r="F56" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H56" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21739,10 +21758,10 @@
       <c r="F57" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21765,10 +21784,10 @@
       <c r="F58" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21791,10 +21810,10 @@
       <c r="F59" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21817,10 +21836,10 @@
       <c r="F60" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21843,10 +21862,10 @@
       <c r="F61" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21869,10 +21888,10 @@
       <c r="F62" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21895,10 +21914,10 @@
       <c r="F63" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H63" s="27" t="s">
+      <c r="H63" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21921,10 +21940,10 @@
       <c r="F64" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21947,10 +21966,10 @@
       <c r="F65" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H65" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21973,10 +21992,10 @@
       <c r="F66" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -21999,10 +22018,10 @@
       <c r="F67" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="H67" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -22025,10 +22044,10 @@
       <c r="F68" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -22051,10 +22070,10 @@
       <c r="F69" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="G69" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H69" s="27" t="s">
+      <c r="H69" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -22077,10 +22096,10 @@
       <c r="F70" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="G70" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -22103,24 +22122,24 @@
       <c r="F71" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G71" s="25" t="s">
+      <c r="G71" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H71" s="27" t="s">
+      <c r="H71" s="26" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>1114</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="32"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
@@ -22141,10 +22160,10 @@
       <c r="F73" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H73" s="27" t="s">
+      <c r="H73" s="26" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -22167,10 +22186,10 @@
       <c r="F74" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H74" s="27" t="s">
+      <c r="H74" s="26" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -22193,10 +22212,10 @@
       <c r="F75" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H75" s="27" t="s">
+      <c r="H75" s="26" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -22219,10 +22238,10 @@
       <c r="F76" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G76" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="26" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -22245,24 +22264,24 @@
       <c r="F77" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H77" s="27" t="s">
+      <c r="H77" s="26" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>1115</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
@@ -22274,7 +22293,7 @@
       <c r="C79" s="19" t="s">
         <v>1086</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="25" t="s">
         <v>1093</v>
       </c>
       <c r="E79" s="19">
@@ -22283,10 +22302,10 @@
       <c r="F79" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H79" s="27" t="s">
+      <c r="H79" s="26" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -22300,7 +22319,7 @@
       <c r="C80" s="19" t="s">
         <v>1086</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="25" t="s">
         <v>1093</v>
       </c>
       <c r="E80" s="19">
@@ -22309,10 +22328,10 @@
       <c r="F80" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H80" s="27" t="s">
+      <c r="H80" s="26" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -22326,7 +22345,7 @@
       <c r="C81" s="19" t="s">
         <v>1086</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="25" t="s">
         <v>1093</v>
       </c>
       <c r="E81" s="19">
@@ -22335,10 +22354,10 @@
       <c r="F81" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H81" s="27" t="s">
+      <c r="H81" s="26" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -22352,7 +22371,7 @@
       <c r="C82" s="19">
         <v>1</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="25" t="s">
         <v>1093</v>
       </c>
       <c r="E82" s="19">
@@ -22361,10 +22380,10 @@
       <c r="F82" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H82" s="27" t="s">
+      <c r="H82" s="26" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -22378,7 +22397,7 @@
       <c r="C83" s="19">
         <v>1</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="25" t="s">
         <v>1093</v>
       </c>
       <c r="E83" s="19">
@@ -22387,24 +22406,24 @@
       <c r="F83" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="24" t="s">
         <v>1089</v>
       </c>
-      <c r="H83" s="27" t="s">
+      <c r="H83" s="26" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>1113</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="33"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
@@ -22425,10 +22444,10 @@
       <c r="F85" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="G85" s="25">
-        <v>0</v>
-      </c>
-      <c r="H85" s="27">
+      <c r="G85" s="24">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22451,10 +22470,10 @@
       <c r="F86" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="G86" s="25">
-        <v>0</v>
-      </c>
-      <c r="H86" s="27">
+      <c r="G86" s="24">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22477,10 +22496,10 @@
       <c r="F87" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="G87" s="25">
-        <v>0</v>
-      </c>
-      <c r="H87" s="27">
+      <c r="G87" s="24">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22503,10 +22522,10 @@
       <c r="F88" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="G88" s="25">
-        <v>0</v>
-      </c>
-      <c r="H88" s="27">
+      <c r="G88" s="24">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22529,10 +22548,10 @@
       <c r="F89" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="H89" s="27">
+      <c r="G89" s="24">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26">
         <v>0</v>
       </c>
     </row>
@@ -22564,27 +22583,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>1138</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1143</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -22672,10 +22691,10 @@
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>16</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>522</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -22684,10 +22703,10 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>17</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>523</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -22784,25 +22803,25 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>25</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>17</v>
       </c>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>26</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>17</v>
       </c>
       <c r="I21" s="16"/>
@@ -22822,13 +22841,13 @@
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <v>28</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>19</v>
       </c>
       <c r="E23" s="16"/>
@@ -22836,13 +22855,13 @@
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="37">
+      <c r="A24" s="36">
         <v>29</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19</v>
       </c>
       <c r="I24" s="16"/>
@@ -22936,7 +22955,7 @@
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
+      <c r="A32" s="23">
         <v>1018</v>
       </c>
       <c r="B32" t="s">
@@ -22948,7 +22967,7 @@
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="24">
+      <c r="A33" s="23">
         <v>1019</v>
       </c>
       <c r="B33" t="s">
@@ -22960,7 +22979,7 @@
       <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="24">
+      <c r="A34" s="23">
         <v>1020</v>
       </c>
       <c r="B34" t="s">
@@ -22972,7 +22991,7 @@
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="24">
+      <c r="A35" s="23">
         <v>1021</v>
       </c>
       <c r="B35" t="s">
@@ -22984,7 +23003,7 @@
       <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="24">
+      <c r="A36" s="23">
         <v>1022</v>
       </c>
       <c r="B36" t="s">
@@ -22996,7 +23015,7 @@
       <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="24">
+      <c r="A37" s="23">
         <v>1023</v>
       </c>
       <c r="B37" t="s">
@@ -23008,7 +23027,7 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="24">
+      <c r="A38" s="23">
         <v>1024</v>
       </c>
       <c r="B38" t="s">
@@ -23020,25 +23039,25 @@
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="40">
+      <c r="A39" s="39">
         <v>1025</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>1058</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="41">
         <v>46</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="40">
+      <c r="A40" s="39">
         <v>1026</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>46</v>
       </c>
       <c r="I40" s="16"/>
@@ -23056,25 +23075,25 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>1028</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>48</v>
       </c>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="40">
+      <c r="A43" s="39">
         <v>1029</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="41">
         <v>48</v>
       </c>
       <c r="E43" s="16"/>
@@ -23082,7 +23101,7 @@
       <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="24">
+      <c r="A44" s="23">
         <v>1030</v>
       </c>
       <c r="B44" t="s">
@@ -23096,7 +23115,7 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="24">
+      <c r="A45" s="23">
         <v>1031</v>
       </c>
       <c r="B45" t="s">
@@ -23108,7 +23127,7 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="24">
+      <c r="A46" s="23">
         <v>1032</v>
       </c>
       <c r="B46" t="s">
@@ -23120,7 +23139,7 @@
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="24">
+      <c r="A47" s="23">
         <v>1033</v>
       </c>
       <c r="B47" t="s">
@@ -23134,7 +23153,7 @@
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="24">
+      <c r="A48" s="23">
         <v>1118</v>
       </c>
       <c r="B48" t="s">
@@ -23148,7 +23167,7 @@
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="24">
+      <c r="A49" s="23">
         <v>1119</v>
       </c>
       <c r="B49" t="s">
@@ -23160,7 +23179,7 @@
       <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="24">
+      <c r="A50" s="23">
         <v>1120</v>
       </c>
       <c r="B50" t="s">
@@ -23172,7 +23191,7 @@
       <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="24">
+      <c r="A51" s="23">
         <v>1121</v>
       </c>
       <c r="B51" t="s">
@@ -23184,7 +23203,7 @@
       <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="24">
+      <c r="A52" s="23">
         <v>1122</v>
       </c>
       <c r="B52" t="s">
@@ -23196,7 +23215,7 @@
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="24">
+      <c r="A53" s="23">
         <v>1123</v>
       </c>
       <c r="B53" t="s">
@@ -23208,7 +23227,7 @@
       <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="24">
+      <c r="A54" s="23">
         <v>1124</v>
       </c>
       <c r="B54" t="s">
@@ -23220,31 +23239,31 @@
       <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="40">
+      <c r="A55" s="39">
         <v>1125</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="37" t="s">
         <v>1059</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="41">
         <v>60</v>
       </c>
       <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="40">
+      <c r="A56" s="39">
         <v>1126</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="41">
         <v>60</v>
       </c>
       <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="24">
+      <c r="A57" s="23">
         <v>1127</v>
       </c>
       <c r="B57" t="s">
@@ -23256,31 +23275,31 @@
       <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="40">
+      <c r="A58" s="39">
         <v>1128</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>62</v>
       </c>
       <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="40">
+      <c r="A59" s="39">
         <v>1129</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="C59" s="42">
+      <c r="C59" s="41">
         <v>62</v>
       </c>
       <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="24">
+      <c r="A60" s="23">
         <v>1130</v>
       </c>
       <c r="B60" t="s">
@@ -23292,7 +23311,7 @@
       <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="24">
+      <c r="A61" s="23">
         <v>1131</v>
       </c>
       <c r="B61" t="s">
@@ -23306,7 +23325,7 @@
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="24">
+      <c r="A62" s="23">
         <v>1132</v>
       </c>
       <c r="B62" t="s">
@@ -23320,7 +23339,7 @@
       <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="24">
+      <c r="A63" s="23">
         <v>1133</v>
       </c>
       <c r="B63" t="s">
@@ -23332,7 +23351,7 @@
       <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="24">
+      <c r="A64" s="23">
         <v>1318</v>
       </c>
       <c r="B64" t="s">
@@ -23344,7 +23363,7 @@
       <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="24">
+      <c r="A65" s="23">
         <v>1319</v>
       </c>
       <c r="B65" t="s">
@@ -23358,7 +23377,7 @@
       <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="24">
+      <c r="A66" s="23">
         <v>1320</v>
       </c>
       <c r="B66" t="s">
@@ -23372,7 +23391,7 @@
       <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="24">
+      <c r="A67" s="23">
         <v>1321</v>
       </c>
       <c r="B67" t="s">
@@ -23384,7 +23403,7 @@
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="24">
+      <c r="A68" s="23">
         <v>1322</v>
       </c>
       <c r="B68" t="s">
@@ -23396,7 +23415,7 @@
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="24">
+      <c r="A69" s="23">
         <v>1323</v>
       </c>
       <c r="B69" t="s">
@@ -23408,7 +23427,7 @@
       <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="24">
+      <c r="A70" s="23">
         <v>1324</v>
       </c>
       <c r="B70" t="s">
@@ -23420,31 +23439,31 @@
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="40">
+      <c r="A71" s="39">
         <v>1325</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="37" t="s">
         <v>1061</v>
       </c>
-      <c r="C71" s="42">
+      <c r="C71" s="41">
         <v>88</v>
       </c>
       <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="40">
+      <c r="A72" s="39">
         <v>1326</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>88</v>
       </c>
       <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="24">
+      <c r="A73" s="23">
         <v>1327</v>
       </c>
       <c r="B73" t="s">
@@ -23456,31 +23475,31 @@
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="40">
+      <c r="A74" s="39">
         <v>1328</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="41">
         <v>90</v>
       </c>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="40">
+      <c r="A75" s="39">
         <v>1329</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>90</v>
       </c>
       <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="24">
+      <c r="A76" s="23">
         <v>1330</v>
       </c>
       <c r="B76" t="s">
@@ -23492,7 +23511,7 @@
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="24">
+      <c r="A77" s="23">
         <v>1331</v>
       </c>
       <c r="B77" t="s">
@@ -23504,7 +23523,7 @@
       <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="24">
+      <c r="A78" s="23">
         <v>1332</v>
       </c>
       <c r="B78" t="s">
@@ -23516,7 +23535,7 @@
       <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="24">
+      <c r="A79" s="23">
         <v>1333</v>
       </c>
       <c r="B79" t="s">
@@ -23530,7 +23549,7 @@
       <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="24">
+      <c r="A80" s="23">
         <v>1334</v>
       </c>
       <c r="B80" t="s">
@@ -23544,7 +23563,7 @@
       <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="24">
+      <c r="A81" s="23">
         <v>1418</v>
       </c>
       <c r="B81" t="s">
@@ -23556,7 +23575,7 @@
       <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="24">
+      <c r="A82" s="23">
         <v>1419</v>
       </c>
       <c r="B82" t="s">
@@ -23568,7 +23587,7 @@
       <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="24">
+      <c r="A83" s="23">
         <v>1420</v>
       </c>
       <c r="B83" t="s">
@@ -23582,7 +23601,7 @@
       <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="24">
+      <c r="A84" s="23">
         <v>1421</v>
       </c>
       <c r="B84" t="s">
@@ -23596,7 +23615,7 @@
       <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="24">
+      <c r="A85" s="23">
         <v>1422</v>
       </c>
       <c r="B85" t="s">
@@ -23608,7 +23627,7 @@
       <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="24">
+      <c r="A86" s="23">
         <v>1423</v>
       </c>
       <c r="B86" t="s">
@@ -23620,7 +23639,7 @@
       <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="24">
+      <c r="A87" s="23">
         <v>1424</v>
       </c>
       <c r="B87" t="s">
@@ -23632,31 +23651,31 @@
       <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="40">
+      <c r="A88" s="39">
         <v>1425</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>1062</v>
       </c>
-      <c r="C88" s="42">
+      <c r="C88" s="41">
         <v>74</v>
       </c>
       <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="40">
+      <c r="A89" s="39">
         <v>1426</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C89" s="41">
         <v>74</v>
       </c>
       <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="24">
+      <c r="A90" s="23">
         <v>1427</v>
       </c>
       <c r="B90" t="s">
@@ -23668,31 +23687,31 @@
       <c r="I90" s="16"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="40">
+      <c r="A91" s="39">
         <v>1428</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="C91" s="42">
+      <c r="C91" s="41">
         <v>76</v>
       </c>
       <c r="I91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="40">
+      <c r="A92" s="39">
         <v>1429</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="C92" s="42">
+      <c r="C92" s="41">
         <v>76</v>
       </c>
       <c r="I92" s="16"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="24">
+      <c r="A93" s="23">
         <v>1430</v>
       </c>
       <c r="B93" t="s">
@@ -23704,7 +23723,7 @@
       <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="24">
+      <c r="A94" s="23">
         <v>1431</v>
       </c>
       <c r="B94" t="s">
@@ -23716,7 +23735,7 @@
       <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="24">
+      <c r="A95" s="23">
         <v>1432</v>
       </c>
       <c r="B95" t="s">
@@ -23728,7 +23747,7 @@
       <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="24">
+      <c r="A96" s="23">
         <v>1433</v>
       </c>
       <c r="B96" t="s">
@@ -23740,7 +23759,7 @@
       <c r="I96" s="16"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="24">
+      <c r="A97" s="23">
         <v>1434</v>
       </c>
       <c r="B97" t="s">
@@ -23754,27 +23773,27 @@
       <c r="I97" s="16"/>
     </row>
     <row r="98" spans="1:9" ht="17" x14ac:dyDescent="0.4">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="45" t="s">
         <v>1141</v>
       </c>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
     </row>
     <row r="99" spans="1:9" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="46" t="s">
         <v>1142</v>
       </c>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>1139</v>
       </c>
       <c r="I100" s="16"/>
@@ -23888,13 +23907,13 @@
       <c r="I108" s="16"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="37">
+      <c r="A109" s="36">
         <v>58</v>
       </c>
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="C109" s="42">
+      <c r="C109" s="41">
         <v>17</v>
       </c>
       <c r="D109" s="16"/>
@@ -23903,13 +23922,13 @@
       <c r="I109" s="16"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="37">
+      <c r="A110" s="36">
         <v>59</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="C110" s="42">
+      <c r="C110" s="41">
         <v>17</v>
       </c>
       <c r="D110" s="16"/>
@@ -23930,13 +23949,13 @@
       <c r="I111" s="16"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="37">
+      <c r="A112" s="36">
         <v>61</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="C112" s="42">
+      <c r="C112" s="41">
         <v>19</v>
       </c>
       <c r="D112" s="16"/>
@@ -23945,13 +23964,13 @@
       <c r="I112" s="16"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="37">
+      <c r="A113" s="36">
         <v>62</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="C113" s="42">
+      <c r="C113" s="41">
         <v>19</v>
       </c>
       <c r="D113" s="16"/>
@@ -24056,10 +24075,10 @@
       <c r="I121" s="16"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="43">
+      <c r="A122" s="42">
         <v>71</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="37" t="s">
         <v>536</v>
       </c>
       <c r="C122" s="16" t="s">
@@ -24248,10 +24267,10 @@
       <c r="I137" s="16"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138" s="43">
+      <c r="A138" s="42">
         <v>5071</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="37" t="s">
         <v>655</v>
       </c>
       <c r="C138" s="16" t="s">
@@ -24286,13 +24305,13 @@
       <c r="L140" s="16"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141" s="37">
+      <c r="A141" s="36">
         <v>5058</v>
       </c>
-      <c r="B141" s="42" t="s">
+      <c r="B141" s="41" t="s">
         <v>645</v>
       </c>
-      <c r="C141" s="42">
+      <c r="C141" s="41">
         <v>103</v>
       </c>
       <c r="D141" s="16"/>
@@ -24302,13 +24321,13 @@
       <c r="L141" s="16"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142" s="37">
+      <c r="A142" s="36">
         <v>5058</v>
       </c>
-      <c r="B142" s="42" t="s">
+      <c r="B142" s="41" t="s">
         <v>646</v>
       </c>
-      <c r="C142" s="42">
+      <c r="C142" s="41">
         <v>103</v>
       </c>
       <c r="D142" s="16"/>
@@ -24331,13 +24350,13 @@
       <c r="L143" s="16"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144" s="37">
+      <c r="A144" s="36">
         <v>5058</v>
       </c>
-      <c r="B144" s="42" t="s">
+      <c r="B144" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="C144" s="42">
+      <c r="C144" s="41">
         <v>105</v>
       </c>
       <c r="D144" s="16"/>
@@ -24347,13 +24366,13 @@
       <c r="L144" s="16"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A145" s="37">
+      <c r="A145" s="36">
         <v>5058</v>
       </c>
-      <c r="B145" s="42" t="s">
+      <c r="B145" s="41" t="s">
         <v>648</v>
       </c>
-      <c r="C145" s="42">
+      <c r="C145" s="41">
         <v>105</v>
       </c>
       <c r="D145" s="16"/>
@@ -24499,10 +24518,10 @@
       <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="43">
+      <c r="A157" s="42">
         <v>5058</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
         <v>674</v>
       </c>
       <c r="C157" s="16" t="s">
@@ -24540,7 +24559,7 @@
       <c r="A160" s="17">
         <v>5058</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="38" t="s">
         <v>1134</v>
       </c>
       <c r="C160">
@@ -24551,13 +24570,13 @@
       <c r="L160" s="16"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="37">
+      <c r="A161" s="36">
         <v>5058</v>
       </c>
-      <c r="B161" s="42" t="s">
+      <c r="B161" s="41" t="s">
         <v>661</v>
       </c>
-      <c r="C161" s="42">
+      <c r="C161" s="41">
         <v>119</v>
       </c>
       <c r="D161" s="16"/>
@@ -24567,13 +24586,13 @@
       <c r="L161" s="16"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="37">
+      <c r="A162" s="36">
         <v>5058</v>
       </c>
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="C162" s="42">
+      <c r="C162" s="41">
         <v>119</v>
       </c>
       <c r="D162" s="16"/>
@@ -24599,7 +24618,7 @@
       <c r="A164" s="17">
         <v>5058</v>
       </c>
-      <c r="B164" s="39" t="s">
+      <c r="B164" s="38" t="s">
         <v>1135</v>
       </c>
       <c r="C164">
@@ -24610,13 +24629,13 @@
       <c r="L164" s="16"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="37">
+      <c r="A165" s="36">
         <v>5058</v>
       </c>
-      <c r="B165" s="42" t="s">
+      <c r="B165" s="41" t="s">
         <v>665</v>
       </c>
-      <c r="C165" s="42">
+      <c r="C165" s="41">
         <v>121</v>
       </c>
       <c r="D165" s="16"/>
@@ -24626,13 +24645,13 @@
       <c r="L165" s="16"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="37">
+      <c r="A166" s="36">
         <v>5058</v>
       </c>
-      <c r="B166" s="42" t="s">
+      <c r="B166" s="41" t="s">
         <v>664</v>
       </c>
-      <c r="C166" s="42">
+      <c r="C166" s="41">
         <v>121</v>
       </c>
       <c r="D166" s="16"/>
@@ -24778,10 +24797,10 @@
       <c r="I177" s="16"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="43">
+      <c r="A178" s="42">
         <v>5058</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="37" t="s">
         <v>689</v>
       </c>
       <c r="C178" s="16" t="s">
@@ -24819,7 +24838,7 @@
       <c r="A181" s="17">
         <v>5058</v>
       </c>
-      <c r="B181" s="39" t="s">
+      <c r="B181" s="38" t="s">
         <v>1136</v>
       </c>
       <c r="C181">
@@ -24830,13 +24849,13 @@
       <c r="L181" s="16"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="37">
+      <c r="A182" s="36">
         <v>5058</v>
       </c>
-      <c r="B182" s="42" t="s">
+      <c r="B182" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="C182" s="42">
+      <c r="C182" s="41">
         <v>135</v>
       </c>
       <c r="D182" s="16"/>
@@ -24846,13 +24865,13 @@
       <c r="L182" s="16"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="37">
+      <c r="A183" s="36">
         <v>5058</v>
       </c>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="41" t="s">
         <v>680</v>
       </c>
-      <c r="C183" s="42">
+      <c r="C183" s="41">
         <v>135</v>
       </c>
       <c r="D183" s="16"/>
@@ -24878,7 +24897,7 @@
       <c r="A185" s="17">
         <v>5058</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="38" t="s">
         <v>1137</v>
       </c>
       <c r="C185">
@@ -24889,13 +24908,13 @@
       <c r="L185" s="16"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="37">
+      <c r="A186" s="36">
         <v>5058</v>
       </c>
-      <c r="B186" s="42" t="s">
+      <c r="B186" s="41" t="s">
         <v>683</v>
       </c>
-      <c r="C186" s="42">
+      <c r="C186" s="41">
         <v>137</v>
       </c>
       <c r="D186" s="16"/>
@@ -24905,13 +24924,13 @@
       <c r="L186" s="16"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="37">
+      <c r="A187" s="36">
         <v>5058</v>
       </c>
-      <c r="B187" s="42" t="s">
+      <c r="B187" s="41" t="s">
         <v>682</v>
       </c>
-      <c r="C187" s="42">
+      <c r="C187" s="41">
         <v>137</v>
       </c>
       <c r="D187" s="16"/>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDA8B10-51D4-44E3-9624-AD037FFF950F}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D86911-1C96-4E31-BE45-22247B328F4F}"/>
   <bookViews>
     <workbookView xWindow="24990" yWindow="-16470" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
@@ -4275,6 +4275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEB091-1C47-49A4-9436-DD6048088BD1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4481,12 +4482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C558DEBD-79BE-47F9-B6C2-E444BD5D5EBE}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J167" sqref="J167"/>
+      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10650,8 +10652,8 @@
       <c r="D216" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="E216" s="12" t="s">
-        <v>54</v>
+      <c r="E216" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F216" s="49">
         <v>5</v>
@@ -12542,9 +12544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFC636"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A601" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29655,6 +29658,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D332EFA4-E23B-4D94-98E3-5948C1BA3438}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31844,6 +31848,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC4D7B-F345-49DF-A673-D9D6EB0CFE79}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4992FFE2-16BE-4CCB-9EE6-C1ACBBB01D98}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5FDD97B-E9B2-4018-AE49-A30AB3815B49}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$I$291</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$629</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$632</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="1171">
   <si>
     <t>File ID</t>
   </si>
@@ -3684,6 +3684,15 @@
   </si>
   <si>
     <t>Identifies ethnicity for head of household as reported in LSAPerson. (Note that although this uses the same list as LSAPerson.Ethnicity, the value cannot be -1 since -1 is never a valid value for a head of household.)</t>
+  </si>
+  <si>
+    <t>Veteran Household - 3+ Children</t>
+  </si>
+  <si>
+    <t>Chronically Homeless Household 55+</t>
+  </si>
+  <si>
+    <t>Chronically Homeless Household - 3+ Children</t>
   </si>
 </sst>
 </file>
@@ -4488,8 +4497,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
@@ -12548,10 +12557,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XFC638"/>
+  <dimension ref="A1:XFC641"/>
   <sheetViews>
-    <sheetView topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="A636" sqref="A636:B638"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26259,10 +26268,10 @@
       <c r="B394" t="s">
         <v>395</v>
       </c>
-      <c r="C394" s="44">
+      <c r="C394" s="46">
         <v>1334</v>
       </c>
-      <c r="D394" s="21" t="s">
+      <c r="D394" s="47" t="s">
         <v>498</v>
       </c>
     </row>
@@ -26273,11 +26282,11 @@
       <c r="B395" t="s">
         <v>395</v>
       </c>
-      <c r="C395" s="46">
-        <v>1415</v>
-      </c>
-      <c r="D395" s="47" t="s">
-        <v>1157</v>
+      <c r="C395" s="44">
+        <v>1336</v>
+      </c>
+      <c r="D395" s="21" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -26287,11 +26296,11 @@
       <c r="B396" t="s">
         <v>395</v>
       </c>
-      <c r="C396" s="44">
-        <v>1418</v>
-      </c>
-      <c r="D396" s="21" t="s">
-        <v>488</v>
+      <c r="C396" s="46">
+        <v>1415</v>
+      </c>
+      <c r="D396" s="47" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
@@ -26302,10 +26311,10 @@
         <v>395</v>
       </c>
       <c r="C397" s="44">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D397" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
@@ -26316,10 +26325,10 @@
         <v>395</v>
       </c>
       <c r="C398" s="44">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D398" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
@@ -26330,10 +26339,10 @@
         <v>395</v>
       </c>
       <c r="C399" s="44">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D399" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
@@ -26344,10 +26353,10 @@
         <v>395</v>
       </c>
       <c r="C400" s="44">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D400" s="21" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
@@ -26358,10 +26367,10 @@
         <v>395</v>
       </c>
       <c r="C401" s="44">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D401" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
@@ -26372,10 +26381,10 @@
         <v>395</v>
       </c>
       <c r="C402" s="44">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D402" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
@@ -26386,10 +26395,10 @@
         <v>395</v>
       </c>
       <c r="C403" s="44">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D403" s="21" t="s">
-        <v>1055</v>
+        <v>583</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
@@ -26400,10 +26409,10 @@
         <v>395</v>
       </c>
       <c r="C404" s="44">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D404" s="21" t="s">
-        <v>584</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
@@ -26414,10 +26423,10 @@
         <v>395</v>
       </c>
       <c r="C405" s="44">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D405" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
@@ -26428,10 +26437,10 @@
         <v>395</v>
       </c>
       <c r="C406" s="44">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D406" s="21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
@@ -26442,10 +26451,10 @@
         <v>395</v>
       </c>
       <c r="C407" s="44">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D407" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
@@ -26456,10 +26465,10 @@
         <v>395</v>
       </c>
       <c r="C408" s="44">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D408" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
@@ -26470,10 +26479,10 @@
         <v>395</v>
       </c>
       <c r="C409" s="44">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>492</v>
+        <v>588</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
@@ -26484,10 +26493,10 @@
         <v>395</v>
       </c>
       <c r="C410" s="44">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D410" s="21" t="s">
-        <v>589</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
@@ -26498,10 +26507,10 @@
         <v>395</v>
       </c>
       <c r="C411" s="44">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D411" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
@@ -26512,10 +26521,10 @@
         <v>395</v>
       </c>
       <c r="C412" s="44">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D412" s="21" t="s">
-        <v>499</v>
+        <v>590</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
@@ -26526,10 +26535,10 @@
         <v>395</v>
       </c>
       <c r="C413" s="44">
-        <v>1519</v>
+        <v>1434</v>
       </c>
       <c r="D413" s="21" t="s">
-        <v>620</v>
+        <v>499</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
@@ -26540,10 +26549,10 @@
         <v>395</v>
       </c>
       <c r="C414" s="44">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D414" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
@@ -26554,10 +26563,10 @@
         <v>395</v>
       </c>
       <c r="C415" s="44">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D415" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
@@ -26568,10 +26577,10 @@
         <v>395</v>
       </c>
       <c r="C416" s="44">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D416" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
@@ -26582,10 +26591,10 @@
         <v>395</v>
       </c>
       <c r="C417" s="44">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D417" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.45">
@@ -26596,10 +26605,10 @@
         <v>395</v>
       </c>
       <c r="C418" s="44">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D418" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
@@ -26610,10 +26619,10 @@
         <v>395</v>
       </c>
       <c r="C419" s="44">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
@@ -26624,10 +26633,10 @@
         <v>395</v>
       </c>
       <c r="C420" s="44">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D420" s="21" t="s">
-        <v>626</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
@@ -26638,10 +26647,10 @@
         <v>395</v>
       </c>
       <c r="C421" s="44">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D421" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
@@ -26652,10 +26661,10 @@
         <v>395</v>
       </c>
       <c r="C422" s="44">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D422" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
@@ -26666,10 +26675,10 @@
         <v>395</v>
       </c>
       <c r="C423" s="44">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D423" s="21" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
@@ -26680,10 +26689,10 @@
         <v>395</v>
       </c>
       <c r="C424" s="44">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D424" s="21" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
@@ -26694,10 +26703,10 @@
         <v>395</v>
       </c>
       <c r="C425" s="44">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D425" s="21" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
@@ -26708,10 +26717,10 @@
         <v>395</v>
       </c>
       <c r="C426" s="44">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D426" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
@@ -26722,10 +26731,10 @@
         <v>395</v>
       </c>
       <c r="C427" s="44">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D427" s="21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
@@ -26736,10 +26745,10 @@
         <v>395</v>
       </c>
       <c r="C428" s="44">
-        <v>5053</v>
+        <v>1533</v>
       </c>
       <c r="D428" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.45">
@@ -26749,11 +26758,11 @@
       <c r="B429" t="s">
         <v>395</v>
       </c>
-      <c r="C429" s="44">
-        <v>5054</v>
-      </c>
-      <c r="D429" s="21" t="s">
-        <v>636</v>
+      <c r="C429" s="46">
+        <v>1534</v>
+      </c>
+      <c r="D429" s="47" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
@@ -26763,11 +26772,11 @@
       <c r="B430" t="s">
         <v>395</v>
       </c>
-      <c r="C430" s="44">
-        <v>5055</v>
-      </c>
-      <c r="D430" s="21" t="s">
-        <v>504</v>
+      <c r="C430" s="46">
+        <v>1536</v>
+      </c>
+      <c r="D430" s="47" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -26778,10 +26787,10 @@
         <v>395</v>
       </c>
       <c r="C431" s="44">
-        <v>5056</v>
+        <v>5053</v>
       </c>
       <c r="D431" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
@@ -26792,10 +26801,10 @@
         <v>395</v>
       </c>
       <c r="C432" s="44">
-        <v>5057</v>
+        <v>5054</v>
       </c>
       <c r="D432" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
@@ -26806,10 +26815,10 @@
         <v>395</v>
       </c>
       <c r="C433" s="44">
-        <v>5058</v>
+        <v>5055</v>
       </c>
       <c r="D433" s="21" t="s">
-        <v>639</v>
+        <v>504</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
@@ -26820,10 +26829,10 @@
         <v>395</v>
       </c>
       <c r="C434" s="44">
-        <v>5059</v>
+        <v>5056</v>
       </c>
       <c r="D434" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
@@ -26834,10 +26843,10 @@
         <v>395</v>
       </c>
       <c r="C435" s="44">
-        <v>5060</v>
+        <v>5057</v>
       </c>
       <c r="D435" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
@@ -26848,10 +26857,10 @@
         <v>395</v>
       </c>
       <c r="C436" s="44">
-        <v>5061</v>
+        <v>5058</v>
       </c>
       <c r="D436" s="21" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
@@ -26862,10 +26871,10 @@
         <v>395</v>
       </c>
       <c r="C437" s="44">
-        <v>5062</v>
+        <v>5059</v>
       </c>
       <c r="D437" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
@@ -26876,10 +26885,10 @@
         <v>395</v>
       </c>
       <c r="C438" s="44">
-        <v>5063</v>
+        <v>5060</v>
       </c>
       <c r="D438" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
@@ -26890,10 +26899,10 @@
         <v>395</v>
       </c>
       <c r="C439" s="44">
-        <v>5064</v>
+        <v>5061</v>
       </c>
       <c r="D439" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -26904,10 +26913,10 @@
         <v>395</v>
       </c>
       <c r="C440" s="44">
-        <v>5065</v>
+        <v>5062</v>
       </c>
       <c r="D440" s="21" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -26918,10 +26927,10 @@
         <v>395</v>
       </c>
       <c r="C441" s="44">
-        <v>5066</v>
+        <v>5063</v>
       </c>
       <c r="D441" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -26932,10 +26941,10 @@
         <v>395</v>
       </c>
       <c r="C442" s="44">
-        <v>5067</v>
+        <v>5064</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>500</v>
+        <v>645</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -26946,10 +26955,10 @@
         <v>395</v>
       </c>
       <c r="C443" s="44">
-        <v>5068</v>
+        <v>5065</v>
       </c>
       <c r="D443" s="21" t="s">
-        <v>501</v>
+        <v>646</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
@@ -26960,10 +26969,10 @@
         <v>395</v>
       </c>
       <c r="C444" s="44">
-        <v>5069</v>
+        <v>5066</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>502</v>
+        <v>647</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
@@ -26974,10 +26983,10 @@
         <v>395</v>
       </c>
       <c r="C445" s="44">
-        <v>5070</v>
+        <v>5067</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>648</v>
+        <v>500</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
@@ -26988,10 +26997,10 @@
         <v>395</v>
       </c>
       <c r="C446" s="44">
-        <v>5071</v>
+        <v>5068</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>649</v>
+        <v>501</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
@@ -27002,10 +27011,10 @@
         <v>395</v>
       </c>
       <c r="C447" s="44">
-        <v>5153</v>
+        <v>5069</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>650</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
@@ -27016,10 +27025,10 @@
         <v>395</v>
       </c>
       <c r="C448" s="44">
-        <v>5154</v>
+        <v>5070</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
@@ -27030,10 +27039,10 @@
         <v>395</v>
       </c>
       <c r="C449" s="44">
-        <v>5155</v>
+        <v>5071</v>
       </c>
       <c r="D449" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
@@ -27044,10 +27053,10 @@
         <v>395</v>
       </c>
       <c r="C450" s="44">
-        <v>5156</v>
+        <v>5153</v>
       </c>
       <c r="D450" s="21" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
@@ -27058,10 +27067,10 @@
         <v>395</v>
       </c>
       <c r="C451" s="44">
-        <v>5157</v>
+        <v>5154</v>
       </c>
       <c r="D451" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
@@ -27072,10 +27081,10 @@
         <v>395</v>
       </c>
       <c r="C452" s="44">
-        <v>5158</v>
+        <v>5155</v>
       </c>
       <c r="D452" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
@@ -27086,10 +27095,10 @@
         <v>395</v>
       </c>
       <c r="C453" s="44">
-        <v>5159</v>
+        <v>5156</v>
       </c>
       <c r="D453" s="21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
@@ -27100,10 +27109,10 @@
         <v>395</v>
       </c>
       <c r="C454" s="44">
-        <v>5160</v>
+        <v>5157</v>
       </c>
       <c r="D454" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
@@ -27114,10 +27123,10 @@
         <v>395</v>
       </c>
       <c r="C455" s="44">
-        <v>5161</v>
+        <v>5158</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
@@ -27128,10 +27137,10 @@
         <v>395</v>
       </c>
       <c r="C456" s="44">
-        <v>5162</v>
+        <v>5159</v>
       </c>
       <c r="D456" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
@@ -27142,10 +27151,10 @@
         <v>395</v>
       </c>
       <c r="C457" s="44">
-        <v>5163</v>
+        <v>5160</v>
       </c>
       <c r="D457" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
@@ -27156,10 +27165,10 @@
         <v>395</v>
       </c>
       <c r="C458" s="44">
-        <v>5164</v>
+        <v>5161</v>
       </c>
       <c r="D458" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
@@ -27170,10 +27179,10 @@
         <v>395</v>
       </c>
       <c r="C459" s="44">
-        <v>5165</v>
+        <v>5162</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
@@ -27184,10 +27193,10 @@
         <v>395</v>
       </c>
       <c r="C460" s="44">
-        <v>5166</v>
+        <v>5163</v>
       </c>
       <c r="D460" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
@@ -27198,10 +27207,10 @@
         <v>395</v>
       </c>
       <c r="C461" s="44">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="D461" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
@@ -27212,10 +27221,10 @@
         <v>395</v>
       </c>
       <c r="C462" s="44">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="D462" s="21" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
@@ -27226,10 +27235,10 @@
         <v>395</v>
       </c>
       <c r="C463" s="44">
-        <v>5169</v>
+        <v>5166</v>
       </c>
       <c r="D463" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
@@ -27240,10 +27249,10 @@
         <v>395</v>
       </c>
       <c r="C464" s="44">
-        <v>5170</v>
+        <v>5167</v>
       </c>
       <c r="D464" s="21" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
@@ -27254,10 +27263,10 @@
         <v>395</v>
       </c>
       <c r="C465" s="44">
-        <v>5171</v>
+        <v>5168</v>
       </c>
       <c r="D465" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
@@ -27268,10 +27277,10 @@
         <v>395</v>
       </c>
       <c r="C466" s="44">
-        <v>5253</v>
+        <v>5169</v>
       </c>
       <c r="D466" s="21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
@@ -27282,10 +27291,10 @@
         <v>395</v>
       </c>
       <c r="C467" s="44">
-        <v>5254</v>
+        <v>5170</v>
       </c>
       <c r="D467" s="21" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
@@ -27296,10 +27305,10 @@
         <v>395</v>
       </c>
       <c r="C468" s="44">
-        <v>5255</v>
+        <v>5171</v>
       </c>
       <c r="D468" s="21" t="s">
-        <v>509</v>
+        <v>668</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
@@ -27310,10 +27319,10 @@
         <v>395</v>
       </c>
       <c r="C469" s="44">
-        <v>5256</v>
+        <v>5253</v>
       </c>
       <c r="D469" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
@@ -27324,10 +27333,10 @@
         <v>395</v>
       </c>
       <c r="C470" s="44">
-        <v>5257</v>
+        <v>5254</v>
       </c>
       <c r="D470" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
@@ -27338,10 +27347,10 @@
         <v>395</v>
       </c>
       <c r="C471" s="44">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="D471" s="21" t="s">
-        <v>673</v>
+        <v>509</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
@@ -27352,10 +27361,10 @@
         <v>395</v>
       </c>
       <c r="C472" s="44">
-        <v>5259</v>
+        <v>5256</v>
       </c>
       <c r="D472" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.45">
@@ -27366,10 +27375,10 @@
         <v>395</v>
       </c>
       <c r="C473" s="44">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="D473" s="21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
@@ -27380,10 +27389,10 @@
         <v>395</v>
       </c>
       <c r="C474" s="44">
-        <v>5261</v>
+        <v>5258</v>
       </c>
       <c r="D474" s="21" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
@@ -27394,10 +27403,10 @@
         <v>395</v>
       </c>
       <c r="C475" s="44">
-        <v>5262</v>
+        <v>5259</v>
       </c>
       <c r="D475" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
@@ -27408,10 +27417,10 @@
         <v>395</v>
       </c>
       <c r="C476" s="44">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="D476" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
@@ -27422,10 +27431,10 @@
         <v>395</v>
       </c>
       <c r="C477" s="44">
-        <v>5264</v>
+        <v>5261</v>
       </c>
       <c r="D477" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
@@ -27436,10 +27445,10 @@
         <v>395</v>
       </c>
       <c r="C478" s="44">
-        <v>5265</v>
+        <v>5262</v>
       </c>
       <c r="D478" s="21" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
@@ -27450,10 +27459,10 @@
         <v>395</v>
       </c>
       <c r="C479" s="44">
-        <v>5266</v>
+        <v>5263</v>
       </c>
       <c r="D479" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
@@ -27464,10 +27473,10 @@
         <v>395</v>
       </c>
       <c r="C480" s="44">
-        <v>5267</v>
+        <v>5264</v>
       </c>
       <c r="D480" s="21" t="s">
-        <v>505</v>
+        <v>679</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -27478,10 +27487,10 @@
         <v>395</v>
       </c>
       <c r="C481" s="44">
-        <v>5268</v>
+        <v>5265</v>
       </c>
       <c r="D481" s="21" t="s">
-        <v>506</v>
+        <v>680</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
@@ -27492,10 +27501,10 @@
         <v>395</v>
       </c>
       <c r="C482" s="44">
-        <v>5269</v>
+        <v>5266</v>
       </c>
       <c r="D482" s="21" t="s">
-        <v>507</v>
+        <v>681</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
@@ -27506,10 +27515,10 @@
         <v>395</v>
       </c>
       <c r="C483" s="44">
-        <v>5270</v>
+        <v>5267</v>
       </c>
       <c r="D483" s="21" t="s">
-        <v>682</v>
+        <v>505</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.45">
@@ -27520,52 +27529,52 @@
         <v>395</v>
       </c>
       <c r="C484" s="44">
-        <v>5271</v>
+        <v>5268</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>683</v>
+        <v>506</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B485" t="s">
-        <v>398</v>
-      </c>
-      <c r="C485">
-        <v>1</v>
-      </c>
-      <c r="D485" t="s">
-        <v>684</v>
+        <v>395</v>
+      </c>
+      <c r="C485" s="44">
+        <v>5269</v>
+      </c>
+      <c r="D485" s="21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B486" t="s">
-        <v>398</v>
-      </c>
-      <c r="C486">
-        <v>2</v>
-      </c>
-      <c r="D486" t="s">
-        <v>685</v>
+        <v>395</v>
+      </c>
+      <c r="C486" s="44">
+        <v>5270</v>
+      </c>
+      <c r="D486" s="21" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B487" t="s">
-        <v>398</v>
-      </c>
-      <c r="C487">
-        <v>3</v>
-      </c>
-      <c r="D487" t="s">
-        <v>686</v>
+        <v>395</v>
+      </c>
+      <c r="C487" s="44">
+        <v>5271</v>
+      </c>
+      <c r="D487" s="21" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
@@ -27576,10 +27585,10 @@
         <v>398</v>
       </c>
       <c r="C488">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D488" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
@@ -27590,10 +27599,10 @@
         <v>398</v>
       </c>
       <c r="C489">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D489" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
@@ -27604,10 +27613,10 @@
         <v>398</v>
       </c>
       <c r="C490">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D490" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
@@ -27618,10 +27627,10 @@
         <v>398</v>
       </c>
       <c r="C491">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D491" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.45">
@@ -27632,10 +27641,10 @@
         <v>398</v>
       </c>
       <c r="C492">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D492" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.45">
@@ -27646,10 +27655,10 @@
         <v>398</v>
       </c>
       <c r="C493">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D493" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.45">
@@ -27660,10 +27669,10 @@
         <v>398</v>
       </c>
       <c r="C494">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D494" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
@@ -27674,10 +27683,10 @@
         <v>398</v>
       </c>
       <c r="C495">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D495" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
@@ -27688,10 +27697,10 @@
         <v>398</v>
       </c>
       <c r="C496">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D496" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
@@ -27702,10 +27711,10 @@
         <v>398</v>
       </c>
       <c r="C497">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D497" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
@@ -27716,10 +27725,10 @@
         <v>398</v>
       </c>
       <c r="C498">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D498" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
@@ -27730,10 +27739,10 @@
         <v>398</v>
       </c>
       <c r="C499">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D499" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
@@ -27744,10 +27753,10 @@
         <v>398</v>
       </c>
       <c r="C500">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D500" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
@@ -27758,10 +27767,10 @@
         <v>398</v>
       </c>
       <c r="C501">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D501" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
@@ -27772,10 +27781,10 @@
         <v>398</v>
       </c>
       <c r="C502">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D502" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
@@ -27786,10 +27795,10 @@
         <v>398</v>
       </c>
       <c r="C503">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D503" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
@@ -27800,10 +27809,10 @@
         <v>398</v>
       </c>
       <c r="C504">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D504" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
@@ -27814,10 +27823,10 @@
         <v>398</v>
       </c>
       <c r="C505">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D505" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
@@ -27828,10 +27837,10 @@
         <v>398</v>
       </c>
       <c r="C506">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D506" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
@@ -27842,10 +27851,10 @@
         <v>398</v>
       </c>
       <c r="C507">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D507" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.45">
@@ -27856,10 +27865,10 @@
         <v>398</v>
       </c>
       <c r="C508">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D508" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.45">
@@ -27870,10 +27879,10 @@
         <v>398</v>
       </c>
       <c r="C509">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D509" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.45">
@@ -27884,10 +27893,10 @@
         <v>398</v>
       </c>
       <c r="C510">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D510" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.45">
@@ -27898,10 +27907,10 @@
         <v>398</v>
       </c>
       <c r="C511">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D511" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
@@ -27912,10 +27921,10 @@
         <v>398</v>
       </c>
       <c r="C512">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D512" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
@@ -27926,10 +27935,10 @@
         <v>398</v>
       </c>
       <c r="C513">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D513" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
@@ -27940,10 +27949,10 @@
         <v>398</v>
       </c>
       <c r="C514">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D514" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
@@ -27954,10 +27963,10 @@
         <v>398</v>
       </c>
       <c r="C515">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D515" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
@@ -27968,10 +27977,10 @@
         <v>398</v>
       </c>
       <c r="C516">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D516" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.45">
@@ -27982,10 +27991,10 @@
         <v>398</v>
       </c>
       <c r="C517">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D517" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.45">
@@ -27996,10 +28005,10 @@
         <v>398</v>
       </c>
       <c r="C518">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D518" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.45">
@@ -28010,10 +28019,10 @@
         <v>398</v>
       </c>
       <c r="C519">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D519" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.45">
@@ -28024,10 +28033,10 @@
         <v>398</v>
       </c>
       <c r="C520">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D520" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.45">
@@ -28038,10 +28047,10 @@
         <v>398</v>
       </c>
       <c r="C521">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D521" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -28052,10 +28061,10 @@
         <v>398</v>
       </c>
       <c r="C522">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D522" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -28066,10 +28075,10 @@
         <v>398</v>
       </c>
       <c r="C523">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D523" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -28080,10 +28089,10 @@
         <v>398</v>
       </c>
       <c r="C524">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D524" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -28094,10 +28103,10 @@
         <v>398</v>
       </c>
       <c r="C525">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D525" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -28108,10 +28117,10 @@
         <v>398</v>
       </c>
       <c r="C526">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D526" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -28122,10 +28131,10 @@
         <v>398</v>
       </c>
       <c r="C527">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D527" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -28136,10 +28145,10 @@
         <v>398</v>
       </c>
       <c r="C528">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D528" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -28150,10 +28159,10 @@
         <v>398</v>
       </c>
       <c r="C529">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D529" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -28164,10 +28173,10 @@
         <v>398</v>
       </c>
       <c r="C530">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D530" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -28178,10 +28187,10 @@
         <v>398</v>
       </c>
       <c r="C531">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D531" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -28192,10 +28201,10 @@
         <v>398</v>
       </c>
       <c r="C532">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D532" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -28206,10 +28215,10 @@
         <v>398</v>
       </c>
       <c r="C533">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D533" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -28220,10 +28229,10 @@
         <v>398</v>
       </c>
       <c r="C534">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D534" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -28234,10 +28243,10 @@
         <v>398</v>
       </c>
       <c r="C535">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D535" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -28248,10 +28257,10 @@
         <v>398</v>
       </c>
       <c r="C536">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D536" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -28262,10 +28271,10 @@
         <v>398</v>
       </c>
       <c r="C537">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D537" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -28276,10 +28285,10 @@
         <v>398</v>
       </c>
       <c r="C538">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D538" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -28290,10 +28299,10 @@
         <v>398</v>
       </c>
       <c r="C539">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D539" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -28304,10 +28313,10 @@
         <v>398</v>
       </c>
       <c r="C540">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D540" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -28318,10 +28327,10 @@
         <v>398</v>
       </c>
       <c r="C541">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D541" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -28332,10 +28341,10 @@
         <v>398</v>
       </c>
       <c r="C542">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D542" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -28346,10 +28355,10 @@
         <v>398</v>
       </c>
       <c r="C543">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D543" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
@@ -28360,10 +28369,10 @@
         <v>398</v>
       </c>
       <c r="C544">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D544" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.45">
@@ -28374,10 +28383,10 @@
         <v>398</v>
       </c>
       <c r="C545">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D545" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
@@ -28388,10 +28397,10 @@
         <v>398</v>
       </c>
       <c r="C546">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D546" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -28402,10 +28411,10 @@
         <v>398</v>
       </c>
       <c r="C547">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D547" t="s">
-        <v>1017</v>
+        <v>743</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
@@ -28416,52 +28425,52 @@
         <v>398</v>
       </c>
       <c r="C548">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D548" t="s">
-        <v>1018</v>
+        <v>744</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B549" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D549" t="s">
-        <v>970</v>
+        <v>745</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B550" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C550">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D550" t="s">
-        <v>971</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B551" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C551">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D551" t="s">
-        <v>885</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
@@ -28472,10 +28481,10 @@
         <v>412</v>
       </c>
       <c r="C552">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.45">
@@ -28486,10 +28495,10 @@
         <v>412</v>
       </c>
       <c r="C553">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D553" t="s">
-        <v>1019</v>
+        <v>971</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -28500,10 +28509,10 @@
         <v>412</v>
       </c>
       <c r="C554">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D554" t="s">
-        <v>1020</v>
+        <v>885</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
@@ -28514,164 +28523,164 @@
         <v>412</v>
       </c>
       <c r="C555">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D555" t="s">
-        <v>1021</v>
+        <v>972</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B556" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C556">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D556" t="s">
-        <v>753</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B557" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C557">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D557" t="s">
-        <v>754</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B558" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D558" t="s">
-        <v>784</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B559" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C559">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D559" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B560" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C560">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D560" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B561" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C561">
         <v>1</v>
       </c>
       <c r="D561" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B562" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C562">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D562" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B563" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C563">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D563" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B564" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="C564">
         <v>1</v>
       </c>
       <c r="D564" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B565" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="C565">
         <v>2</v>
       </c>
       <c r="D565" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B566" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="C566">
         <v>3</v>
       </c>
       <c r="D566" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
@@ -28682,10 +28691,10 @@
         <v>21</v>
       </c>
       <c r="C567">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>1022</v>
+        <v>755</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
@@ -28696,10 +28705,10 @@
         <v>21</v>
       </c>
       <c r="C568">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D568" t="s">
-        <v>1023</v>
+        <v>756</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
@@ -28710,10 +28719,10 @@
         <v>21</v>
       </c>
       <c r="C569">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D569" t="s">
-        <v>1024</v>
+        <v>757</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
@@ -28724,10 +28733,10 @@
         <v>21</v>
       </c>
       <c r="C570">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D570" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
@@ -28738,10 +28747,10 @@
         <v>21</v>
       </c>
       <c r="C571">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D571" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
@@ -28752,10 +28761,10 @@
         <v>21</v>
       </c>
       <c r="C572">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D572" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
@@ -28766,10 +28775,10 @@
         <v>21</v>
       </c>
       <c r="C573">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D573" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
@@ -28780,10 +28789,10 @@
         <v>21</v>
       </c>
       <c r="C574">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D574" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
@@ -28794,10 +28803,10 @@
         <v>21</v>
       </c>
       <c r="C575">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D575" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
@@ -28808,10 +28817,10 @@
         <v>21</v>
       </c>
       <c r="C576">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D576" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
@@ -28822,10 +28831,10 @@
         <v>21</v>
       </c>
       <c r="C577">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D577" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
@@ -28836,10 +28845,10 @@
         <v>21</v>
       </c>
       <c r="C578">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D578" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
@@ -28850,10 +28859,10 @@
         <v>21</v>
       </c>
       <c r="C579">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D579" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.45">
@@ -28864,10 +28873,10 @@
         <v>21</v>
       </c>
       <c r="C580">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D580" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.45">
@@ -28878,10 +28887,10 @@
         <v>21</v>
       </c>
       <c r="C581">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D581" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.45">
@@ -28892,10 +28901,10 @@
         <v>21</v>
       </c>
       <c r="C582">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D582" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.45">
@@ -28906,10 +28915,10 @@
         <v>21</v>
       </c>
       <c r="C583">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D583" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.45">
@@ -28920,10 +28929,10 @@
         <v>21</v>
       </c>
       <c r="C584">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D584" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
@@ -28934,10 +28943,10 @@
         <v>21</v>
       </c>
       <c r="C585">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D585" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
@@ -28948,10 +28957,10 @@
         <v>21</v>
       </c>
       <c r="C586">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D586" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
@@ -28962,10 +28971,10 @@
         <v>21</v>
       </c>
       <c r="C587">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D587" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
@@ -28976,10 +28985,10 @@
         <v>21</v>
       </c>
       <c r="C588">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D588" t="s">
-        <v>758</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.45">
@@ -28990,10 +28999,10 @@
         <v>21</v>
       </c>
       <c r="C589">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D589" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.45">
@@ -29004,10 +29013,10 @@
         <v>21</v>
       </c>
       <c r="C590">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D590" t="s">
-        <v>759</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.45">
@@ -29018,10 +29027,10 @@
         <v>21</v>
       </c>
       <c r="C591">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D591" t="s">
-        <v>1044</v>
+        <v>758</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.45">
@@ -29032,10 +29041,10 @@
         <v>21</v>
       </c>
       <c r="C592">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D592" t="s">
-        <v>760</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.45">
@@ -29046,10 +29055,10 @@
         <v>21</v>
       </c>
       <c r="C593">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D593" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
@@ -29060,10 +29069,10 @@
         <v>21</v>
       </c>
       <c r="C594">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D594" t="s">
-        <v>786</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -29074,10 +29083,10 @@
         <v>21</v>
       </c>
       <c r="C595">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D595" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -29088,10 +29097,10 @@
         <v>21</v>
       </c>
       <c r="C596">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D596" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -29102,10 +29111,10 @@
         <v>21</v>
       </c>
       <c r="C597">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D597" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -29116,10 +29125,10 @@
         <v>21</v>
       </c>
       <c r="C598">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D598" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -29130,10 +29139,10 @@
         <v>21</v>
       </c>
       <c r="C599">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D599" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -29144,10 +29153,10 @@
         <v>21</v>
       </c>
       <c r="C600">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D600" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -29158,10 +29167,10 @@
         <v>21</v>
       </c>
       <c r="C601">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D601" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -29172,10 +29181,10 @@
         <v>21</v>
       </c>
       <c r="C602">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D602" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -29186,10 +29195,10 @@
         <v>21</v>
       </c>
       <c r="C603">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D603" t="s">
-        <v>1045</v>
+        <v>767</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -29200,10 +29209,10 @@
         <v>21</v>
       </c>
       <c r="C604">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D604" t="s">
-        <v>1046</v>
+        <v>768</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -29214,10 +29223,10 @@
         <v>21</v>
       </c>
       <c r="C605">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D605" t="s">
-        <v>1047</v>
+        <v>769</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -29228,80 +29237,80 @@
         <v>21</v>
       </c>
       <c r="C606">
+        <v>43</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A607">
+        <v>38</v>
+      </c>
+      <c r="B607" t="s">
+        <v>21</v>
+      </c>
+      <c r="C607">
+        <v>44</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A608">
+        <v>38</v>
+      </c>
+      <c r="B608" t="s">
+        <v>21</v>
+      </c>
+      <c r="C608">
+        <v>45</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A609">
+        <v>38</v>
+      </c>
+      <c r="B609" t="s">
+        <v>21</v>
+      </c>
+      <c r="C609">
         <v>46</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D609" t="s">
         <v>1048</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A607" s="22">
-        <v>38</v>
-      </c>
-      <c r="B607" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C607" s="22">
-        <v>47</v>
-      </c>
-      <c r="D607" s="22" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A608" s="22">
-        <v>38</v>
-      </c>
-      <c r="B608" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C608" s="22">
-        <v>48</v>
-      </c>
-      <c r="D608" s="22" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A609" s="22">
-        <v>38</v>
-      </c>
-      <c r="B609" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C609" s="21">
-        <v>49</v>
-      </c>
-      <c r="D609" s="21" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="610" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A610" s="22">
         <v>38</v>
       </c>
-      <c r="B610" s="21" t="s">
+      <c r="B610" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C610" s="21">
-        <v>50</v>
-      </c>
-      <c r="D610" s="21" t="s">
-        <v>771</v>
+      <c r="C610" s="22">
+        <v>47</v>
+      </c>
+      <c r="D610" s="22" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="611" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A611" s="22">
         <v>38</v>
       </c>
-      <c r="B611" s="21" t="s">
+      <c r="B611" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C611" s="21">
-        <v>51</v>
-      </c>
-      <c r="D611" s="21" t="s">
-        <v>772</v>
+      <c r="C611" s="22">
+        <v>48</v>
+      </c>
+      <c r="D611" s="22" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="612" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -29312,178 +29321,178 @@
         <v>21</v>
       </c>
       <c r="C612" s="21">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D612" s="21" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="613" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A613" s="22">
+        <v>38</v>
+      </c>
+      <c r="B613" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C613" s="21">
+        <v>50</v>
+      </c>
+      <c r="D613" s="21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A614" s="22">
+        <v>38</v>
+      </c>
+      <c r="B614" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C614" s="21">
+        <v>51</v>
+      </c>
+      <c r="D614" s="21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A615" s="22">
+        <v>38</v>
+      </c>
+      <c r="B615" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C615" s="21">
+        <v>52</v>
+      </c>
+      <c r="D615" s="21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A616" s="22">
         <v>39</v>
       </c>
-      <c r="B613" s="22" t="s">
+      <c r="B616" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="C613" s="22">
+      <c r="C616" s="22">
         <v>1</v>
       </c>
-      <c r="D613" s="22" t="s">
+      <c r="D616" s="22" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A614">
-        <v>39</v>
-      </c>
-      <c r="B614" t="s">
-        <v>774</v>
-      </c>
-      <c r="C614">
-        <v>3</v>
-      </c>
-      <c r="D614" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A615">
-        <v>39</v>
-      </c>
-      <c r="B615" t="s">
-        <v>774</v>
-      </c>
-      <c r="C615">
-        <v>4</v>
-      </c>
-      <c r="D615" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A616">
-        <v>40</v>
-      </c>
-      <c r="B616" t="s">
-        <v>435</v>
-      </c>
-      <c r="C616">
-        <v>1</v>
-      </c>
-      <c r="D616" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B617" t="s">
-        <v>435</v>
+        <v>774</v>
       </c>
       <c r="C617">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D617" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B618" t="s">
-        <v>435</v>
+        <v>774</v>
       </c>
       <c r="C618">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D618" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B619" t="s">
-        <v>778</v>
+        <v>435</v>
       </c>
       <c r="C619">
         <v>1</v>
       </c>
       <c r="D619" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B620" t="s">
-        <v>778</v>
+        <v>435</v>
       </c>
       <c r="C620">
         <v>2</v>
       </c>
       <c r="D620" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B621" t="s">
-        <v>778</v>
+        <v>435</v>
       </c>
       <c r="C621">
         <v>3</v>
       </c>
       <c r="D621" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B622" t="s">
-        <v>432</v>
+        <v>778</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B623" t="s">
-        <v>432</v>
+        <v>778</v>
       </c>
       <c r="C623">
         <v>2</v>
       </c>
       <c r="D623" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B624" t="s">
-        <v>432</v>
+        <v>778</v>
       </c>
       <c r="C624">
         <v>3</v>
       </c>
       <c r="D624" t="s">
-        <v>790</v>
+        <v>749</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.45">
@@ -29494,52 +29503,52 @@
         <v>432</v>
       </c>
       <c r="C625">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D625" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626">
-        <v>43</v>
-      </c>
-      <c r="B626" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C626" s="21">
-        <v>0</v>
-      </c>
-      <c r="D626" s="21" t="s">
-        <v>747</v>
+        <v>42</v>
+      </c>
+      <c r="B626" t="s">
+        <v>432</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+      <c r="D626" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627">
-        <v>43</v>
-      </c>
-      <c r="B627" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C627" s="21">
-        <v>1</v>
-      </c>
-      <c r="D627" s="21" t="s">
-        <v>1057</v>
+        <v>42</v>
+      </c>
+      <c r="B627" t="s">
+        <v>432</v>
+      </c>
+      <c r="C627">
+        <v>3</v>
+      </c>
+      <c r="D627" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628">
-        <v>43</v>
-      </c>
-      <c r="B628" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C628" s="21">
-        <v>2</v>
-      </c>
-      <c r="D628" s="21" t="s">
-        <v>1066</v>
+        <v>42</v>
+      </c>
+      <c r="B628" t="s">
+        <v>432</v>
+      </c>
+      <c r="C628">
+        <v>99</v>
+      </c>
+      <c r="D628" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.45">
@@ -29550,60 +29559,60 @@
         <v>152</v>
       </c>
       <c r="C629" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D629" s="21" t="s">
-        <v>1067</v>
+        <v>747</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B630" s="21" t="s">
-        <v>1136</v>
+        <v>152</v>
       </c>
       <c r="C630" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D630" s="21" t="s">
-        <v>747</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B631" s="21" t="s">
-        <v>1136</v>
+        <v>152</v>
       </c>
       <c r="C631" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D631" s="21" t="s">
-        <v>748</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A632" s="45">
-        <v>44</v>
-      </c>
-      <c r="B632" s="45" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C632" s="45">
-        <v>-1</v>
-      </c>
-      <c r="D632" s="45" t="s">
-        <v>786</v>
+      <c r="A632">
+        <v>43</v>
+      </c>
+      <c r="B632" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C632" s="21">
+        <v>3</v>
+      </c>
+      <c r="D632" s="21" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B633" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C633" s="21">
         <v>0</v>
@@ -29614,10 +29623,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B634" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C634" s="21">
         <v>1</v>
@@ -29627,63 +29636,105 @@
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A635">
-        <v>45</v>
-      </c>
-      <c r="B635" s="21" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C635" s="21">
-        <v>2</v>
-      </c>
-      <c r="D635" s="21" t="s">
-        <v>1139</v>
+      <c r="A635" s="45">
+        <v>44</v>
+      </c>
+      <c r="B635" s="45" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C635" s="45">
+        <v>-1</v>
+      </c>
+      <c r="D635" s="45" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B636" s="21" t="s">
-        <v>281</v>
+        <v>1138</v>
       </c>
       <c r="C636" s="21">
         <v>0</v>
       </c>
       <c r="D636" s="21" t="s">
-        <v>1162</v>
+        <v>747</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B637" s="21" t="s">
-        <v>281</v>
+        <v>1138</v>
       </c>
       <c r="C637" s="21">
         <v>1</v>
       </c>
       <c r="D637" s="21" t="s">
-        <v>1163</v>
+        <v>748</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638">
+        <v>45</v>
+      </c>
+      <c r="B638" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C638" s="21">
+        <v>2</v>
+      </c>
+      <c r="D638" s="21" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A639">
         <v>46</v>
       </c>
-      <c r="B638" s="21" t="s">
+      <c r="B639" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C638" s="21">
+      <c r="C639" s="21">
+        <v>0</v>
+      </c>
+      <c r="D639" s="21" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A640">
+        <v>46</v>
+      </c>
+      <c r="B640" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C640" s="21">
+        <v>1</v>
+      </c>
+      <c r="D640" s="21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A641">
+        <v>46</v>
+      </c>
+      <c r="B641" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C641" s="21">
         <v>99</v>
       </c>
-      <c r="D638" s="21" t="s">
+      <c r="D641" s="21" t="s">
         <v>875</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D629" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:D632" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5FDD97B-E9B2-4018-AE49-A30AB3815B49}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9389CD7C-6251-40FD-8A23-8AD948A283C7}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1171">
   <si>
     <t>File ID</t>
   </si>
@@ -4290,7 +4290,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4498,9 +4498,9 @@
   <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12559,9 +12559,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFC641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="D430" sqref="D430"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29746,8 +29744,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31933,10 +31931,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC4D7B-F345-49DF-A673-D9D6EB0CFE79}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L238"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:D82"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33269,8 +33267,6 @@
       <c r="C105">
         <v>70</v>
       </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
       <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -33427,1342 +33423,1676 @@
       <c r="C118">
         <v>96</v>
       </c>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A119" s="50" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="37">
+        <v>1519</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="37">
+        <v>1520</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="37">
+        <v>1521</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="37">
+        <v>1522</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="37">
+        <v>1523</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>624</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" s="37">
+        <v>1524</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" s="37">
+        <v>1525</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" s="37">
+        <v>1526</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="37">
+        <v>1527</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="37">
+        <v>1528</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="37">
+        <v>1529</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" s="37">
+        <v>1530</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="37">
+        <v>1531</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="37">
+        <v>1532</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="37">
+        <v>1533</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="37">
+        <v>1534</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I134" s="16"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="37">
+        <v>1536</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="23"/>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="23"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="23"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="23"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="23"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141" s="23"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="23"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143" s="23"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144" s="23"/>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A145" s="23"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A146" s="23"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A147" s="23"/>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148" s="23"/>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A149" s="23"/>
+      <c r="I149" s="16"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150" s="23"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151" s="23"/>
+      <c r="I151" s="16"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152" s="23"/>
+      <c r="I152" s="16"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153" s="23"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154" s="23"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155" s="23"/>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="23"/>
+      <c r="I156" s="16"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157" s="23"/>
+      <c r="I157" s="16"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158" s="23"/>
+      <c r="I158" s="16"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159" s="23"/>
+      <c r="I159" s="16"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A160" s="23"/>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161" s="23"/>
+      <c r="I161" s="16"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162" s="23"/>
+      <c r="I162" s="16"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A163" s="23"/>
+      <c r="I163" s="16"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A164" s="23"/>
+      <c r="I164" s="16"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A165" s="23"/>
+      <c r="I165" s="16"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A166" s="23"/>
+      <c r="I166" s="16"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A167" s="23"/>
+      <c r="I167" s="16"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A168" s="23"/>
+      <c r="I168" s="16"/>
+    </row>
+    <row r="169" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="A169" s="50" t="s">
         <v>1133</v>
       </c>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-    </row>
-    <row r="120" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A120" s="51" t="s">
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+    </row>
+    <row r="170" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="51" t="s">
         <v>1134</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-    </row>
-    <row r="121" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="40" t="s">
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+    </row>
+    <row r="171" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A171" s="40" t="s">
         <v>1132</v>
       </c>
-      <c r="B121" s="40" t="s">
+      <c r="B171" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C171" s="20" t="s">
         <v>1131</v>
       </c>
-      <c r="I121" s="16"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A122" s="18">
+      <c r="I171" s="16"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A172" s="18">
         <v>50</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B172" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C122">
+      <c r="C172">
         <v>3</v>
       </c>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="I122" s="16"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A123" s="18">
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="I172" s="16"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A173" s="18">
         <v>51</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B173" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="C123">
+      <c r="C173">
         <v>9</v>
       </c>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A124" s="18">
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="I173" s="16"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A174" s="18">
         <v>52</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B174" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C124">
+      <c r="C174">
         <v>10</v>
       </c>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A125" s="18">
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="I174" s="16"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A175" s="18">
         <v>53</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B175" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C125">
+      <c r="C175">
         <v>6</v>
       </c>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="I125" s="16"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A126" s="18">
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="I175" s="16"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A176" s="18">
         <v>54</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B176" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C126">
+      <c r="C176">
         <v>5</v>
       </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="I126" s="16"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A127" s="18">
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A177" s="18">
         <v>55</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B177" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C127">
+      <c r="C177">
         <v>7</v>
       </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="I127" s="16"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A128" s="18">
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="I177" s="16"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A178" s="18">
         <v>56</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B178" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="C128">
+      <c r="C178">
         <v>15</v>
       </c>
-      <c r="I128" s="16"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A129" s="18">
+      <c r="I178" s="16"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A179" s="18">
         <v>57</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B179" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C129">
+      <c r="C179">
         <v>16</v>
       </c>
-      <c r="I129" s="16"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A130" s="36">
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A180" s="36">
         <v>58</v>
       </c>
-      <c r="B130" s="41" t="s">
+      <c r="B180" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="C130" s="41">
+      <c r="C180" s="41">
         <v>17</v>
       </c>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="I130" s="16"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A131" s="36">
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A181" s="36">
         <v>59</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B181" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="C131" s="41">
+      <c r="C181" s="41">
         <v>17</v>
       </c>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="I131" s="16"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A132" s="18">
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="I181" s="16"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A182" s="18">
         <v>60</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B182" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="C132">
+      <c r="C182">
         <v>18</v>
       </c>
-      <c r="I132" s="16"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A133" s="36">
+      <c r="I182" s="16"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A183" s="36">
         <v>61</v>
       </c>
-      <c r="B133" s="41" t="s">
+      <c r="B183" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="C133" s="41">
+      <c r="C183" s="41">
         <v>19</v>
-      </c>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="I133" s="16"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A134" s="36">
-        <v>62</v>
-      </c>
-      <c r="B134" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="C134" s="41">
-        <v>19</v>
-      </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="I134" s="16"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A135" s="18">
-        <v>63</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C135">
-        <v>20</v>
-      </c>
-      <c r="I135" s="16"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136" s="18">
-        <v>64</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="C136">
-        <v>21</v>
-      </c>
-      <c r="I136" s="16"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="18">
-        <v>65</v>
-      </c>
-      <c r="B137" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="C137">
-        <v>22</v>
-      </c>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="18">
-        <v>66</v>
-      </c>
-      <c r="B138" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C138">
-        <v>23</v>
-      </c>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139" s="18">
-        <v>67</v>
-      </c>
-      <c r="B139" t="s">
-        <v>475</v>
-      </c>
-      <c r="C139">
-        <v>35</v>
-      </c>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="18">
-        <v>68</v>
-      </c>
-      <c r="B140" t="s">
-        <v>476</v>
-      </c>
-      <c r="C140">
-        <v>36</v>
-      </c>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="18">
-        <v>69</v>
-      </c>
-      <c r="B141" t="s">
-        <v>477</v>
-      </c>
-      <c r="C141">
-        <v>37</v>
-      </c>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="18">
-        <v>70</v>
-      </c>
-      <c r="B142" t="s">
-        <v>530</v>
-      </c>
-      <c r="C142">
-        <v>38</v>
-      </c>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143" s="42">
-        <v>71</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A144" s="18">
-        <v>72</v>
-      </c>
-      <c r="B144" t="s">
-        <v>464</v>
-      </c>
-      <c r="C144">
-        <v>24</v>
-      </c>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A145" s="18">
-        <v>73</v>
-      </c>
-      <c r="B145" t="s">
-        <v>465</v>
-      </c>
-      <c r="C145">
-        <v>25</v>
-      </c>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A146" s="18">
-        <v>74</v>
-      </c>
-      <c r="B146" t="s">
-        <v>466</v>
-      </c>
-      <c r="C146">
-        <v>26</v>
-      </c>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A147" s="18">
-        <v>75</v>
-      </c>
-      <c r="B147" t="s">
-        <v>467</v>
-      </c>
-      <c r="C147">
-        <v>27</v>
-      </c>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A148" s="18">
-        <v>76</v>
-      </c>
-      <c r="B148" t="s">
-        <v>468</v>
-      </c>
-      <c r="C148">
-        <v>28</v>
-      </c>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A149" s="18">
-        <v>77</v>
-      </c>
-      <c r="B149" t="s">
-        <v>469</v>
-      </c>
-      <c r="C149">
-        <v>29</v>
-      </c>
-      <c r="I149" s="16"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A150" s="18">
-        <v>78</v>
-      </c>
-      <c r="B150" t="s">
-        <v>470</v>
-      </c>
-      <c r="C150">
-        <v>30</v>
-      </c>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A151" s="18">
-        <v>79</v>
-      </c>
-      <c r="B151" t="s">
-        <v>471</v>
-      </c>
-      <c r="C151">
-        <v>31</v>
-      </c>
-      <c r="I151" s="16"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A152" s="18">
-        <v>80</v>
-      </c>
-      <c r="B152" t="s">
-        <v>472</v>
-      </c>
-      <c r="C152">
-        <v>32</v>
-      </c>
-      <c r="I152" s="16"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A153" s="18">
-        <v>81</v>
-      </c>
-      <c r="B153" t="s">
-        <v>473</v>
-      </c>
-      <c r="C153">
-        <v>33</v>
-      </c>
-      <c r="I153" s="16"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A154" s="18">
-        <v>82</v>
-      </c>
-      <c r="B154" t="s">
-        <v>474</v>
-      </c>
-      <c r="C154">
-        <v>34</v>
-      </c>
-      <c r="I154" s="16"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A155" s="17">
-        <v>5067</v>
-      </c>
-      <c r="B155" t="s">
-        <v>500</v>
-      </c>
-      <c r="C155">
-        <v>97</v>
-      </c>
-      <c r="I155" s="16"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A156" s="17">
-        <v>5068</v>
-      </c>
-      <c r="B156" t="s">
-        <v>501</v>
-      </c>
-      <c r="C156">
-        <v>98</v>
-      </c>
-      <c r="I156" s="16"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A157" s="17">
-        <v>5069</v>
-      </c>
-      <c r="B157" t="s">
-        <v>502</v>
-      </c>
-      <c r="C157">
-        <v>99</v>
-      </c>
-      <c r="I157" s="16"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A158" s="17">
-        <v>5070</v>
-      </c>
-      <c r="B158" t="s">
-        <v>648</v>
-      </c>
-      <c r="C158">
-        <v>100</v>
-      </c>
-      <c r="I158" s="16"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A159" s="42">
-        <v>5071</v>
-      </c>
-      <c r="B159" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I159" s="16"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A160" s="17">
-        <v>5056</v>
-      </c>
-      <c r="B160" t="s">
-        <v>637</v>
-      </c>
-      <c r="C160">
-        <v>101</v>
-      </c>
-      <c r="I160" s="16"/>
-      <c r="L160" s="16"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A161" s="17">
-        <v>5057</v>
-      </c>
-      <c r="B161" t="s">
-        <v>638</v>
-      </c>
-      <c r="C161">
-        <v>102</v>
-      </c>
-      <c r="I161" s="16"/>
-      <c r="L161" s="16"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A162" s="36">
-        <v>5058</v>
-      </c>
-      <c r="B162" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="C162" s="41">
-        <v>103</v>
-      </c>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="I162" s="16"/>
-      <c r="L162" s="16"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A163" s="36">
-        <v>5059</v>
-      </c>
-      <c r="B163" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="C163" s="41">
-        <v>103</v>
-      </c>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="I163" s="16"/>
-      <c r="L163" s="16"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A164" s="17">
-        <v>5060</v>
-      </c>
-      <c r="B164" t="s">
-        <v>641</v>
-      </c>
-      <c r="C164">
-        <v>104</v>
-      </c>
-      <c r="I164" s="16"/>
-      <c r="L164" s="16"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A165" s="36">
-        <v>5061</v>
-      </c>
-      <c r="B165" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="C165" s="41">
-        <v>105</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="I165" s="16"/>
-      <c r="L165" s="16"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A166" s="36">
-        <v>5062</v>
-      </c>
-      <c r="B166" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C166" s="41">
-        <v>105</v>
-      </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="I166" s="16"/>
-      <c r="L166" s="16"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A167" s="17">
-        <v>5063</v>
-      </c>
-      <c r="B167" t="s">
-        <v>644</v>
-      </c>
-      <c r="C167">
-        <v>106</v>
-      </c>
-      <c r="I167" s="16"/>
-      <c r="L167" s="16"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A168" s="17">
-        <v>5064</v>
-      </c>
-      <c r="B168" t="s">
-        <v>645</v>
-      </c>
-      <c r="C168">
-        <v>107</v>
-      </c>
-      <c r="I168" s="16"/>
-      <c r="L168" s="16"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A169" s="17">
-        <v>5065</v>
-      </c>
-      <c r="B169" t="s">
-        <v>646</v>
-      </c>
-      <c r="C169">
-        <v>108</v>
-      </c>
-      <c r="I169" s="16"/>
-      <c r="L169" s="16"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A170" s="17">
-        <v>5066</v>
-      </c>
-      <c r="B170" t="s">
-        <v>647</v>
-      </c>
-      <c r="C170">
-        <v>109</v>
-      </c>
-      <c r="I170" s="16"/>
-      <c r="L170" s="16"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A171" s="17">
-        <v>5053</v>
-      </c>
-      <c r="B171" t="s">
-        <v>503</v>
-      </c>
-      <c r="C171">
-        <v>110</v>
-      </c>
-      <c r="I171" s="16"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A172" s="17">
-        <v>5054</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C172">
-        <v>111</v>
-      </c>
-      <c r="I172" s="16"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A173" s="17">
-        <v>5055</v>
-      </c>
-      <c r="B173" t="s">
-        <v>504</v>
-      </c>
-      <c r="C173">
-        <v>112</v>
-      </c>
-      <c r="I173" s="16"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A174" s="17">
-        <v>5167</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C174">
-        <v>113</v>
-      </c>
-      <c r="I174" s="16"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A175" s="17">
-        <v>5168</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C175">
-        <v>114</v>
-      </c>
-      <c r="I175" s="16"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A176" s="17">
-        <v>5169</v>
-      </c>
-      <c r="B176" t="s">
-        <v>666</v>
-      </c>
-      <c r="C176">
-        <v>115</v>
-      </c>
-      <c r="I176" s="16"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A177" s="17">
-        <v>5170</v>
-      </c>
-      <c r="B177" t="s">
-        <v>667</v>
-      </c>
-      <c r="C177">
-        <v>116</v>
-      </c>
-      <c r="I177" s="16"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A178" s="42">
-        <v>5171</v>
-      </c>
-      <c r="B178" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I178" s="16"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A179" s="17">
-        <v>5156</v>
-      </c>
-      <c r="B179" t="s">
-        <v>653</v>
-      </c>
-      <c r="C179">
-        <v>117</v>
-      </c>
-      <c r="I179" s="16"/>
-      <c r="L179" s="16"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A180" s="17">
-        <v>5157</v>
-      </c>
-      <c r="B180" t="s">
-        <v>654</v>
-      </c>
-      <c r="C180">
-        <v>118</v>
-      </c>
-      <c r="I180" s="16"/>
-      <c r="L180" s="16"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A181" s="17"/>
-      <c r="B181" s="38" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C181">
-        <v>119</v>
-      </c>
-      <c r="I181" s="16"/>
-      <c r="K181" s="16"/>
-      <c r="L181" s="16"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A182" s="36">
-        <v>5158</v>
-      </c>
-      <c r="B182" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="C182" s="41">
-        <v>119</v>
-      </c>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="I182" s="16"/>
-      <c r="L182" s="16"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A183" s="36">
-        <v>5159</v>
-      </c>
-      <c r="B183" s="41" t="s">
-        <v>656</v>
-      </c>
-      <c r="C183" s="41">
-        <v>119</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
       <c r="I183" s="16"/>
-      <c r="L183" s="16"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A184" s="17">
-        <v>5160</v>
-      </c>
-      <c r="B184" t="s">
-        <v>657</v>
-      </c>
-      <c r="C184">
-        <v>120</v>
-      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A184" s="36">
+        <v>62</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C184" s="41">
+        <v>19</v>
+      </c>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
       <c r="I184" s="16"/>
-      <c r="L184" s="16"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A185" s="17"/>
-      <c r="B185" s="38" t="s">
-        <v>1127</v>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A185" s="18">
+        <v>63</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="C185">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="I185" s="16"/>
-      <c r="K185" s="16"/>
-      <c r="L185" s="16"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A186" s="36">
-        <v>5161</v>
-      </c>
-      <c r="B186" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="C186" s="41">
-        <v>121</v>
-      </c>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A186" s="18">
+        <v>64</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C186">
+        <v>21</v>
+      </c>
       <c r="I186" s="16"/>
-      <c r="L186" s="16"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A187" s="36">
-        <v>5162</v>
-      </c>
-      <c r="B187" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="C187" s="41">
-        <v>121</v>
-      </c>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A187" s="18">
+        <v>65</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C187">
+        <v>22</v>
+      </c>
       <c r="I187" s="16"/>
-      <c r="L187" s="16"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A188" s="17">
-        <v>5163</v>
-      </c>
-      <c r="B188" t="s">
-        <v>660</v>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A188" s="18">
+        <v>66</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="C188">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I188" s="16"/>
-      <c r="L188" s="16"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A189" s="17">
-        <v>5164</v>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A189" s="18">
+        <v>67</v>
       </c>
       <c r="B189" t="s">
-        <v>661</v>
+        <v>475</v>
       </c>
       <c r="C189">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I189" s="16"/>
-      <c r="L189" s="16"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A190" s="17">
-        <v>5165</v>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A190" s="18">
+        <v>68</v>
       </c>
       <c r="B190" t="s">
-        <v>662</v>
+        <v>476</v>
       </c>
       <c r="C190">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I190" s="16"/>
-      <c r="L190" s="16"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A191" s="17">
-        <v>5166</v>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A191" s="18">
+        <v>69</v>
       </c>
       <c r="B191" t="s">
-        <v>663</v>
+        <v>477</v>
       </c>
       <c r="C191">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="I191" s="16"/>
-      <c r="L191" s="16"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A192" s="17">
-        <v>5153</v>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A192" s="18">
+        <v>70</v>
       </c>
       <c r="B192" t="s">
-        <v>1061</v>
+        <v>530</v>
       </c>
       <c r="C192">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A193" s="17">
-        <v>5154</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C193">
-        <v>127</v>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="42">
+        <v>71</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>555</v>
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A194" s="17">
-        <v>5155</v>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="18">
+        <v>72</v>
       </c>
       <c r="B194" t="s">
-        <v>652</v>
+        <v>464</v>
       </c>
       <c r="C194">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A195" s="17">
-        <v>5267</v>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A195" s="18">
+        <v>73</v>
       </c>
       <c r="B195" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="C195">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A196" s="17">
-        <v>5268</v>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A196" s="18">
+        <v>74</v>
       </c>
       <c r="B196" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="C196">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A197" s="17">
-        <v>5269</v>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A197" s="18">
+        <v>75</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="C197">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A198" s="17">
-        <v>5270</v>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A198" s="18">
+        <v>76</v>
       </c>
       <c r="B198" t="s">
-        <v>682</v>
+        <v>468</v>
       </c>
       <c r="C198">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A199" s="42">
-        <v>5271</v>
-      </c>
-      <c r="B199" s="37" t="s">
-        <v>683</v>
-      </c>
-      <c r="C199" s="16" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A199" s="18">
+        <v>77</v>
+      </c>
+      <c r="B199" t="s">
+        <v>469</v>
+      </c>
+      <c r="C199">
+        <v>29</v>
+      </c>
+      <c r="I199" s="16"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A200" s="18">
+        <v>78</v>
+      </c>
+      <c r="B200" t="s">
+        <v>470</v>
+      </c>
+      <c r="C200">
+        <v>30</v>
+      </c>
+      <c r="I200" s="16"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A201" s="18">
+        <v>79</v>
+      </c>
+      <c r="B201" t="s">
+        <v>471</v>
+      </c>
+      <c r="C201">
+        <v>31</v>
+      </c>
+      <c r="I201" s="16"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A202" s="18">
+        <v>80</v>
+      </c>
+      <c r="B202" t="s">
+        <v>472</v>
+      </c>
+      <c r="C202">
+        <v>32</v>
+      </c>
+      <c r="I202" s="16"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A203" s="18">
+        <v>81</v>
+      </c>
+      <c r="B203" t="s">
+        <v>473</v>
+      </c>
+      <c r="C203">
+        <v>33</v>
+      </c>
+      <c r="I203" s="16"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A204" s="18">
+        <v>82</v>
+      </c>
+      <c r="B204" t="s">
+        <v>474</v>
+      </c>
+      <c r="C204">
+        <v>34</v>
+      </c>
+      <c r="I204" s="16"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A205" s="17">
+        <v>5067</v>
+      </c>
+      <c r="B205" t="s">
+        <v>500</v>
+      </c>
+      <c r="C205">
+        <v>97</v>
+      </c>
+      <c r="I205" s="16"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A206" s="17">
+        <v>5068</v>
+      </c>
+      <c r="B206" t="s">
+        <v>501</v>
+      </c>
+      <c r="C206">
+        <v>98</v>
+      </c>
+      <c r="I206" s="16"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A207" s="17">
+        <v>5069</v>
+      </c>
+      <c r="B207" t="s">
+        <v>502</v>
+      </c>
+      <c r="C207">
+        <v>99</v>
+      </c>
+      <c r="I207" s="16"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208" s="17">
+        <v>5070</v>
+      </c>
+      <c r="B208" t="s">
+        <v>648</v>
+      </c>
+      <c r="C208">
+        <v>100</v>
+      </c>
+      <c r="I208" s="16"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A209" s="42">
+        <v>5071</v>
+      </c>
+      <c r="B209" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C209" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="I199" s="16"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A200" s="17">
-        <v>5256</v>
-      </c>
-      <c r="B200" t="s">
-        <v>671</v>
-      </c>
-      <c r="C200">
-        <v>133</v>
-      </c>
-      <c r="I200" s="16"/>
-      <c r="L200" s="16"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A201" s="17">
-        <v>5257</v>
-      </c>
-      <c r="B201" t="s">
-        <v>672</v>
-      </c>
-      <c r="C201">
-        <v>134</v>
-      </c>
-      <c r="I201" s="16"/>
-      <c r="L201" s="16"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A202" s="17"/>
-      <c r="B202" s="38" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C202">
-        <v>135</v>
-      </c>
-      <c r="I202" s="16"/>
-      <c r="K202" s="16"/>
-      <c r="L202" s="16"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A203" s="36">
-        <v>5258</v>
-      </c>
-      <c r="B203" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="C203" s="41">
-        <v>135</v>
-      </c>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="I203" s="16"/>
-      <c r="L203" s="16"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A204" s="36">
-        <v>5259</v>
-      </c>
-      <c r="B204" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="C204" s="41">
-        <v>135</v>
-      </c>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="16"/>
-      <c r="I204" s="16"/>
-      <c r="L204" s="16"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A205" s="17">
-        <v>5260</v>
-      </c>
-      <c r="B205" t="s">
-        <v>675</v>
-      </c>
-      <c r="C205">
-        <v>136</v>
-      </c>
-      <c r="I205" s="16"/>
-      <c r="L205" s="16"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A206" s="17"/>
-      <c r="B206" s="38" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C206">
-        <v>137</v>
-      </c>
-      <c r="I206" s="16"/>
-      <c r="K206" s="16"/>
-      <c r="L206" s="16"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A207" s="36">
-        <v>5261</v>
-      </c>
-      <c r="B207" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="C207" s="41">
-        <v>137</v>
-      </c>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="I207" s="16"/>
-      <c r="L207" s="16"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A208" s="36">
-        <v>5262</v>
-      </c>
-      <c r="B208" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="C208" s="41">
-        <v>137</v>
-      </c>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="16"/>
-      <c r="I208" s="16"/>
-      <c r="L208" s="16"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A209" s="17">
-        <v>5263</v>
-      </c>
-      <c r="B209" t="s">
-        <v>678</v>
-      </c>
-      <c r="C209">
-        <v>138</v>
-      </c>
       <c r="I209" s="16"/>
-      <c r="L209" s="16"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="17">
-        <v>5264</v>
+        <v>5056</v>
       </c>
       <c r="B210" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="C210">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="I210" s="16"/>
       <c r="L210" s="16"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="17">
-        <v>5265</v>
+        <v>5057</v>
       </c>
       <c r="B211" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="C211">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="I211" s="16"/>
       <c r="L211" s="16"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A212" s="17">
-        <v>5266</v>
-      </c>
-      <c r="B212" t="s">
-        <v>681</v>
-      </c>
-      <c r="C212">
-        <v>141</v>
-      </c>
+      <c r="A212" s="36">
+        <v>5058</v>
+      </c>
+      <c r="B212" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="C212" s="41">
+        <v>103</v>
+      </c>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
       <c r="I212" s="16"/>
       <c r="L212" s="16"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A213" s="17">
-        <v>5253</v>
-      </c>
-      <c r="B213" t="s">
-        <v>508</v>
-      </c>
-      <c r="C213">
-        <v>142</v>
-      </c>
+      <c r="A213" s="36">
+        <v>5059</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="C213" s="41">
+        <v>103</v>
+      </c>
+      <c r="D213" s="16"/>
+      <c r="E213" s="16"/>
+      <c r="F213" s="16"/>
       <c r="I213" s="16"/>
+      <c r="L213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="17">
-        <v>5254</v>
+        <v>5060</v>
       </c>
       <c r="B214" t="s">
-        <v>1063</v>
+        <v>641</v>
       </c>
       <c r="C214">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="I214" s="16"/>
+      <c r="L214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A215" s="17">
-        <v>5255</v>
-      </c>
-      <c r="B215" t="s">
-        <v>509</v>
-      </c>
-      <c r="C215">
-        <v>144</v>
-      </c>
+      <c r="A215" s="36">
+        <v>5061</v>
+      </c>
+      <c r="B215" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="C215" s="41">
+        <v>105</v>
+      </c>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
       <c r="I215" s="16"/>
+      <c r="L215" s="16"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A216" s="17">
-        <v>1176</v>
-      </c>
-      <c r="B216" t="s">
-        <v>510</v>
-      </c>
-      <c r="C216">
-        <v>145</v>
-      </c>
+      <c r="A216" s="36">
+        <v>5062</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="C216" s="41">
+        <v>105</v>
+      </c>
+      <c r="D216" s="16"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
       <c r="I216" s="16"/>
+      <c r="L216" s="16"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="17">
-        <v>1177</v>
+        <v>5063</v>
       </c>
       <c r="B217" t="s">
-        <v>511</v>
+        <v>644</v>
       </c>
       <c r="C217">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="I217" s="16"/>
+      <c r="L217" s="16"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="17">
-        <v>1276</v>
+        <v>5064</v>
       </c>
       <c r="B218" t="s">
-        <v>512</v>
+        <v>645</v>
       </c>
       <c r="C218">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="I218" s="16"/>
+      <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="17">
+        <v>5065</v>
+      </c>
+      <c r="B219" t="s">
+        <v>646</v>
+      </c>
+      <c r="C219">
+        <v>108</v>
+      </c>
+      <c r="I219" s="16"/>
+      <c r="L219" s="16"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A220" s="17">
+        <v>5066</v>
+      </c>
+      <c r="B220" t="s">
+        <v>647</v>
+      </c>
+      <c r="C220">
+        <v>109</v>
+      </c>
+      <c r="I220" s="16"/>
+      <c r="L220" s="16"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A221" s="17">
+        <v>5053</v>
+      </c>
+      <c r="B221" t="s">
+        <v>503</v>
+      </c>
+      <c r="C221">
+        <v>110</v>
+      </c>
+      <c r="I221" s="16"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A222" s="17">
+        <v>5054</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C222">
+        <v>111</v>
+      </c>
+      <c r="I222" s="16"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A223" s="17">
+        <v>5055</v>
+      </c>
+      <c r="B223" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223">
+        <v>112</v>
+      </c>
+      <c r="I223" s="16"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A224" s="17">
+        <v>5167</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C224">
+        <v>113</v>
+      </c>
+      <c r="I224" s="16"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A225" s="17">
+        <v>5168</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C225">
+        <v>114</v>
+      </c>
+      <c r="I225" s="16"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A226" s="17">
+        <v>5169</v>
+      </c>
+      <c r="B226" t="s">
+        <v>666</v>
+      </c>
+      <c r="C226">
+        <v>115</v>
+      </c>
+      <c r="I226" s="16"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A227" s="17">
+        <v>5170</v>
+      </c>
+      <c r="B227" t="s">
+        <v>667</v>
+      </c>
+      <c r="C227">
+        <v>116</v>
+      </c>
+      <c r="I227" s="16"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A228" s="42">
+        <v>5171</v>
+      </c>
+      <c r="B228" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I228" s="16"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A229" s="17">
+        <v>5156</v>
+      </c>
+      <c r="B229" t="s">
+        <v>653</v>
+      </c>
+      <c r="C229">
+        <v>117</v>
+      </c>
+      <c r="I229" s="16"/>
+      <c r="L229" s="16"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A230" s="17">
+        <v>5157</v>
+      </c>
+      <c r="B230" t="s">
+        <v>654</v>
+      </c>
+      <c r="C230">
+        <v>118</v>
+      </c>
+      <c r="I230" s="16"/>
+      <c r="L230" s="16"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A231" s="17"/>
+      <c r="B231" s="38" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C231">
+        <v>119</v>
+      </c>
+      <c r="I231" s="16"/>
+      <c r="K231" s="16"/>
+      <c r="L231" s="16"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A232" s="36">
+        <v>5158</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="C232" s="41">
+        <v>119</v>
+      </c>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
+      <c r="I232" s="16"/>
+      <c r="L232" s="16"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A233" s="36">
+        <v>5159</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="C233" s="41">
+        <v>119</v>
+      </c>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="L233" s="16"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A234" s="17">
+        <v>5160</v>
+      </c>
+      <c r="B234" t="s">
+        <v>657</v>
+      </c>
+      <c r="C234">
+        <v>120</v>
+      </c>
+      <c r="I234" s="16"/>
+      <c r="L234" s="16"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A235" s="17"/>
+      <c r="B235" s="38" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C235">
+        <v>121</v>
+      </c>
+      <c r="I235" s="16"/>
+      <c r="K235" s="16"/>
+      <c r="L235" s="16"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A236" s="36">
+        <v>5161</v>
+      </c>
+      <c r="B236" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C236" s="41">
+        <v>121</v>
+      </c>
+      <c r="D236" s="16"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16"/>
+      <c r="I236" s="16"/>
+      <c r="L236" s="16"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A237" s="36">
+        <v>5162</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C237" s="41">
+        <v>121</v>
+      </c>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="I237" s="16"/>
+      <c r="L237" s="16"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A238" s="17">
+        <v>5163</v>
+      </c>
+      <c r="B238" t="s">
+        <v>660</v>
+      </c>
+      <c r="C238">
+        <v>122</v>
+      </c>
+      <c r="I238" s="16"/>
+      <c r="L238" s="16"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A239" s="17">
+        <v>5164</v>
+      </c>
+      <c r="B239" t="s">
+        <v>661</v>
+      </c>
+      <c r="C239">
+        <v>123</v>
+      </c>
+      <c r="I239" s="16"/>
+      <c r="L239" s="16"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A240" s="17">
+        <v>5165</v>
+      </c>
+      <c r="B240" t="s">
+        <v>662</v>
+      </c>
+      <c r="C240">
+        <v>124</v>
+      </c>
+      <c r="I240" s="16"/>
+      <c r="L240" s="16"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A241" s="17">
+        <v>5166</v>
+      </c>
+      <c r="B241" t="s">
+        <v>663</v>
+      </c>
+      <c r="C241">
+        <v>125</v>
+      </c>
+      <c r="I241" s="16"/>
+      <c r="L241" s="16"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A242" s="17">
+        <v>5153</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C242">
+        <v>126</v>
+      </c>
+      <c r="I242" s="16"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A243" s="17">
+        <v>5154</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C243">
+        <v>127</v>
+      </c>
+      <c r="I243" s="16"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A244" s="17">
+        <v>5155</v>
+      </c>
+      <c r="B244" t="s">
+        <v>652</v>
+      </c>
+      <c r="C244">
+        <v>128</v>
+      </c>
+      <c r="I244" s="16"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A245" s="17">
+        <v>5267</v>
+      </c>
+      <c r="B245" t="s">
+        <v>505</v>
+      </c>
+      <c r="C245">
+        <v>129</v>
+      </c>
+      <c r="I245" s="16"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A246" s="17">
+        <v>5268</v>
+      </c>
+      <c r="B246" t="s">
+        <v>506</v>
+      </c>
+      <c r="C246">
+        <v>130</v>
+      </c>
+      <c r="I246" s="16"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A247" s="17">
+        <v>5269</v>
+      </c>
+      <c r="B247" t="s">
+        <v>507</v>
+      </c>
+      <c r="C247">
+        <v>131</v>
+      </c>
+      <c r="I247" s="16"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A248" s="17">
+        <v>5270</v>
+      </c>
+      <c r="B248" t="s">
+        <v>682</v>
+      </c>
+      <c r="C248">
+        <v>132</v>
+      </c>
+      <c r="I248" s="16"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A249" s="42">
+        <v>5271</v>
+      </c>
+      <c r="B249" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="I249" s="16"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A250" s="17">
+        <v>5256</v>
+      </c>
+      <c r="B250" t="s">
+        <v>671</v>
+      </c>
+      <c r="C250">
+        <v>133</v>
+      </c>
+      <c r="I250" s="16"/>
+      <c r="L250" s="16"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A251" s="17">
+        <v>5257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>672</v>
+      </c>
+      <c r="C251">
+        <v>134</v>
+      </c>
+      <c r="I251" s="16"/>
+      <c r="L251" s="16"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A252" s="17"/>
+      <c r="B252" s="38" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C252">
+        <v>135</v>
+      </c>
+      <c r="I252" s="16"/>
+      <c r="K252" s="16"/>
+      <c r="L252" s="16"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A253" s="36">
+        <v>5258</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C253" s="41">
+        <v>135</v>
+      </c>
+      <c r="D253" s="16"/>
+      <c r="E253" s="16"/>
+      <c r="F253" s="16"/>
+      <c r="I253" s="16"/>
+      <c r="L253" s="16"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A254" s="36">
+        <v>5259</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="C254" s="41">
+        <v>135</v>
+      </c>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
+      <c r="I254" s="16"/>
+      <c r="L254" s="16"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A255" s="17">
+        <v>5260</v>
+      </c>
+      <c r="B255" t="s">
+        <v>675</v>
+      </c>
+      <c r="C255">
+        <v>136</v>
+      </c>
+      <c r="I255" s="16"/>
+      <c r="L255" s="16"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A256" s="17"/>
+      <c r="B256" s="38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C256">
+        <v>137</v>
+      </c>
+      <c r="I256" s="16"/>
+      <c r="K256" s="16"/>
+      <c r="L256" s="16"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A257" s="36">
+        <v>5261</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="C257" s="41">
+        <v>137</v>
+      </c>
+      <c r="D257" s="16"/>
+      <c r="E257" s="16"/>
+      <c r="F257" s="16"/>
+      <c r="I257" s="16"/>
+      <c r="L257" s="16"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A258" s="36">
+        <v>5262</v>
+      </c>
+      <c r="B258" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="C258" s="41">
+        <v>137</v>
+      </c>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
+      <c r="I258" s="16"/>
+      <c r="L258" s="16"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A259" s="17">
+        <v>5263</v>
+      </c>
+      <c r="B259" t="s">
+        <v>678</v>
+      </c>
+      <c r="C259">
+        <v>138</v>
+      </c>
+      <c r="I259" s="16"/>
+      <c r="L259" s="16"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A260" s="17">
+        <v>5264</v>
+      </c>
+      <c r="B260" t="s">
+        <v>679</v>
+      </c>
+      <c r="C260">
+        <v>139</v>
+      </c>
+      <c r="I260" s="16"/>
+      <c r="L260" s="16"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A261" s="17">
+        <v>5265</v>
+      </c>
+      <c r="B261" t="s">
+        <v>680</v>
+      </c>
+      <c r="C261">
+        <v>140</v>
+      </c>
+      <c r="I261" s="16"/>
+      <c r="L261" s="16"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A262" s="17">
+        <v>5266</v>
+      </c>
+      <c r="B262" t="s">
+        <v>681</v>
+      </c>
+      <c r="C262">
+        <v>141</v>
+      </c>
+      <c r="I262" s="16"/>
+      <c r="L262" s="16"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A263" s="17">
+        <v>5253</v>
+      </c>
+      <c r="B263" t="s">
+        <v>508</v>
+      </c>
+      <c r="C263">
+        <v>142</v>
+      </c>
+      <c r="I263" s="16"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A264" s="17">
+        <v>5254</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C264">
+        <v>143</v>
+      </c>
+      <c r="I264" s="16"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A265" s="17">
+        <v>5255</v>
+      </c>
+      <c r="B265" t="s">
+        <v>509</v>
+      </c>
+      <c r="C265">
+        <v>144</v>
+      </c>
+      <c r="I265" s="16"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A266" s="17">
+        <v>1176</v>
+      </c>
+      <c r="B266" t="s">
+        <v>510</v>
+      </c>
+      <c r="C266">
+        <v>145</v>
+      </c>
+      <c r="I266" s="16"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A267" s="17">
+        <v>1177</v>
+      </c>
+      <c r="B267" t="s">
+        <v>511</v>
+      </c>
+      <c r="C267">
+        <v>146</v>
+      </c>
+      <c r="I267" s="16"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A268" s="17">
+        <v>1276</v>
+      </c>
+      <c r="B268" t="s">
+        <v>512</v>
+      </c>
+      <c r="C268">
+        <v>147</v>
+      </c>
+      <c r="I268" s="16"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A269" s="17">
         <v>1277</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B269" t="s">
         <v>513</v>
       </c>
-      <c r="C219">
+      <c r="C269">
         <v>148</v>
       </c>
-      <c r="I219" s="16"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G221" s="16"/>
-      <c r="H221" s="16"/>
-    </row>
-    <row r="232" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I232" s="16"/>
-      <c r="J232" s="16"/>
-    </row>
-    <row r="233" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G233" s="16"/>
-      <c r="H233" s="16"/>
-    </row>
-    <row r="234" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-    </row>
-    <row r="236" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I236" s="16"/>
-      <c r="J236" s="16"/>
-    </row>
-    <row r="237" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-    </row>
-    <row r="238" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
+      <c r="I269" s="16"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G271" s="16"/>
+      <c r="H271" s="16"/>
+    </row>
+    <row r="282" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+    </row>
+    <row r="283" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G283" s="16"/>
+      <c r="H283" s="16"/>
+    </row>
+    <row r="284" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+    </row>
+    <row r="286" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+    </row>
+    <row r="287" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+    </row>
+    <row r="288" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D121">
-    <sortCondition ref="A4:A121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D171">
+    <sortCondition ref="A4:A171"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9389CD7C-6251-40FD-8A23-8AD948A283C7}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FD5746-68F8-4BAE-B6B8-391890CF26D2}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="24990" yWindow="-16470" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -4290,7 +4290,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -31931,10 +31931,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC4D7B-F345-49DF-A673-D9D6EB0CFE79}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L288"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33630,1469 +33630,1342 @@
       <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136" s="23"/>
+      <c r="A136"/>
+      <c r="C136" s="16"/>
       <c r="I136" s="16"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A137" s="23"/>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A138" s="23"/>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A139" s="23"/>
+    <row r="137" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="A137" s="50" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B137" s="50"/>
+      <c r="C137" s="50"/>
+    </row>
+    <row r="138" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="51" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+    </row>
+    <row r="139" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>1131</v>
+      </c>
       <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="23"/>
+      <c r="A140" s="18">
+        <v>50</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
       <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="23"/>
+      <c r="A141" s="18">
+        <v>51</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
       <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="23"/>
+      <c r="A142" s="18">
+        <v>52</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
       <c r="I142" s="16"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143" s="23"/>
+      <c r="A143" s="18">
+        <v>53</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
       <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A144" s="23"/>
+      <c r="A144" s="18">
+        <v>54</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
       <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A145" s="23"/>
+      <c r="A145" s="18">
+        <v>55</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
       <c r="I145" s="16"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A146" s="23"/>
+      <c r="A146" s="18">
+        <v>56</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146">
+        <v>15</v>
+      </c>
       <c r="I146" s="16"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A147" s="23"/>
+      <c r="A147" s="18">
+        <v>57</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C147">
+        <v>16</v>
+      </c>
       <c r="I147" s="16"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148" s="23"/>
+      <c r="A148" s="36">
+        <v>58</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="41">
+        <v>17</v>
+      </c>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
       <c r="I148" s="16"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A149" s="23"/>
+      <c r="A149" s="36">
+        <v>59</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="C149" s="41">
+        <v>17</v>
+      </c>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
       <c r="I149" s="16"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A150" s="23"/>
+      <c r="A150" s="18">
+        <v>60</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C150">
+        <v>18</v>
+      </c>
       <c r="I150" s="16"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151" s="23"/>
+      <c r="A151" s="36">
+        <v>61</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="C151" s="41">
+        <v>19</v>
+      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
       <c r="I151" s="16"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A152" s="23"/>
+      <c r="A152" s="36">
+        <v>62</v>
+      </c>
+      <c r="B152" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C152" s="41">
+        <v>19</v>
+      </c>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
       <c r="I152" s="16"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A153" s="23"/>
+      <c r="A153" s="18">
+        <v>63</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
       <c r="I153" s="16"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A154" s="23"/>
+      <c r="A154" s="18">
+        <v>64</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
       <c r="I154" s="16"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A155" s="23"/>
+      <c r="A155" s="18">
+        <v>65</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
       <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A156" s="23"/>
+      <c r="A156" s="18">
+        <v>66</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
       <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A157" s="23"/>
+      <c r="A157" s="18">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>475</v>
+      </c>
+      <c r="C157">
+        <v>35</v>
+      </c>
       <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A158" s="23"/>
+      <c r="A158" s="18">
+        <v>68</v>
+      </c>
+      <c r="B158" t="s">
+        <v>476</v>
+      </c>
+      <c r="C158">
+        <v>36</v>
+      </c>
       <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A159" s="23"/>
+      <c r="A159" s="18">
+        <v>69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>477</v>
+      </c>
+      <c r="C159">
+        <v>37</v>
+      </c>
       <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A160" s="23"/>
+      <c r="A160" s="18">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>530</v>
+      </c>
+      <c r="C160">
+        <v>38</v>
+      </c>
       <c r="I160" s="16"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A161" s="23"/>
+      <c r="A161" s="42">
+        <v>71</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>555</v>
+      </c>
       <c r="I161" s="16"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A162" s="23"/>
+      <c r="A162" s="18">
+        <v>72</v>
+      </c>
+      <c r="B162" t="s">
+        <v>464</v>
+      </c>
+      <c r="C162">
+        <v>24</v>
+      </c>
       <c r="I162" s="16"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A163" s="23"/>
+      <c r="A163" s="18">
+        <v>73</v>
+      </c>
+      <c r="B163" t="s">
+        <v>465</v>
+      </c>
+      <c r="C163">
+        <v>25</v>
+      </c>
       <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A164" s="23"/>
+      <c r="A164" s="18">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>466</v>
+      </c>
+      <c r="C164">
+        <v>26</v>
+      </c>
       <c r="I164" s="16"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A165" s="23"/>
+      <c r="A165" s="18">
+        <v>75</v>
+      </c>
+      <c r="B165" t="s">
+        <v>467</v>
+      </c>
+      <c r="C165">
+        <v>27</v>
+      </c>
       <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A166" s="23"/>
+      <c r="A166" s="18">
+        <v>76</v>
+      </c>
+      <c r="B166" t="s">
+        <v>468</v>
+      </c>
+      <c r="C166">
+        <v>28</v>
+      </c>
       <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A167" s="23"/>
+      <c r="A167" s="18">
+        <v>77</v>
+      </c>
+      <c r="B167" t="s">
+        <v>469</v>
+      </c>
+      <c r="C167">
+        <v>29</v>
+      </c>
       <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A168" s="23"/>
+      <c r="A168" s="18">
+        <v>78</v>
+      </c>
+      <c r="B168" t="s">
+        <v>470</v>
+      </c>
+      <c r="C168">
+        <v>30</v>
+      </c>
       <c r="I168" s="16"/>
     </row>
-    <row r="169" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A169" s="50" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B169" s="50"/>
-      <c r="C169" s="50"/>
-    </row>
-    <row r="170" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A170" s="51" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B170" s="51"/>
-      <c r="C170" s="51"/>
-    </row>
-    <row r="171" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A171" s="40" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B171" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>1131</v>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A169" s="18">
+        <v>79</v>
+      </c>
+      <c r="B169" t="s">
+        <v>471</v>
+      </c>
+      <c r="C169">
+        <v>31</v>
+      </c>
+      <c r="I169" s="16"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A170" s="18">
+        <v>80</v>
+      </c>
+      <c r="B170" t="s">
+        <v>472</v>
+      </c>
+      <c r="C170">
+        <v>32</v>
+      </c>
+      <c r="I170" s="16"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A171" s="18">
+        <v>81</v>
+      </c>
+      <c r="B171" t="s">
+        <v>473</v>
+      </c>
+      <c r="C171">
+        <v>33</v>
       </c>
       <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" s="18">
-        <v>50</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>515</v>
+        <v>82</v>
+      </c>
+      <c r="B172" t="s">
+        <v>474</v>
       </c>
       <c r="C172">
-        <v>3</v>
-      </c>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
+        <v>34</v>
+      </c>
       <c r="I172" s="16"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A173" s="18">
-        <v>51</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>556</v>
+      <c r="A173" s="17">
+        <v>5067</v>
+      </c>
+      <c r="B173" t="s">
+        <v>500</v>
       </c>
       <c r="C173">
-        <v>9</v>
-      </c>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
+        <v>97</v>
+      </c>
       <c r="I173" s="16"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A174" s="18">
-        <v>52</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>557</v>
+      <c r="A174" s="17">
+        <v>5068</v>
+      </c>
+      <c r="B174" t="s">
+        <v>501</v>
       </c>
       <c r="C174">
-        <v>10</v>
-      </c>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
+        <v>98</v>
+      </c>
       <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A175" s="18">
-        <v>53</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>516</v>
+      <c r="A175" s="17">
+        <v>5069</v>
+      </c>
+      <c r="B175" t="s">
+        <v>502</v>
       </c>
       <c r="C175">
-        <v>6</v>
-      </c>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
+        <v>99</v>
+      </c>
       <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A176" s="18">
-        <v>54</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>560</v>
+      <c r="A176" s="17">
+        <v>5070</v>
+      </c>
+      <c r="B176" t="s">
+        <v>648</v>
       </c>
       <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
+        <v>100</v>
+      </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A177" s="18">
-        <v>55</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="C177">
-        <v>7</v>
-      </c>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A177" s="42">
+        <v>5071</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>555</v>
+      </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A178" s="18">
-        <v>56</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>519</v>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A178" s="17">
+        <v>5056</v>
+      </c>
+      <c r="B178" t="s">
+        <v>637</v>
       </c>
       <c r="C178">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="I178" s="16"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A179" s="18">
-        <v>57</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>520</v>
+      <c r="L178" s="16"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A179" s="17">
+        <v>5057</v>
+      </c>
+      <c r="B179" t="s">
+        <v>638</v>
       </c>
       <c r="C179">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I179" s="16"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L179" s="16"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="36">
-        <v>58</v>
+        <v>5058</v>
       </c>
       <c r="B180" s="41" t="s">
-        <v>521</v>
+        <v>639</v>
       </c>
       <c r="C180" s="41">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
       <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L180" s="16"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="36">
-        <v>59</v>
+        <v>5059</v>
       </c>
       <c r="B181" s="41" t="s">
-        <v>522</v>
+        <v>640</v>
       </c>
       <c r="C181" s="41">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
       <c r="I181" s="16"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A182" s="18">
-        <v>60</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>523</v>
+      <c r="L181" s="16"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A182" s="17">
+        <v>5060</v>
+      </c>
+      <c r="B182" t="s">
+        <v>641</v>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I182" s="16"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L182" s="16"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="36">
-        <v>61</v>
+        <v>5061</v>
       </c>
       <c r="B183" s="41" t="s">
-        <v>525</v>
+        <v>643</v>
       </c>
       <c r="C183" s="41">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
       <c r="I183" s="16"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L183" s="16"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="36">
-        <v>62</v>
+        <v>5062</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>524</v>
+        <v>642</v>
       </c>
       <c r="C184" s="41">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
       <c r="I184" s="16"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A185" s="18">
-        <v>63</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>526</v>
+      <c r="L184" s="16"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A185" s="17">
+        <v>5063</v>
+      </c>
+      <c r="B185" t="s">
+        <v>644</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="I185" s="16"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A186" s="18">
-        <v>64</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>527</v>
+      <c r="L185" s="16"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A186" s="17">
+        <v>5064</v>
+      </c>
+      <c r="B186" t="s">
+        <v>645</v>
       </c>
       <c r="C186">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I186" s="16"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A187" s="18">
-        <v>65</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>528</v>
+      <c r="L186" s="16"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A187" s="17">
+        <v>5065</v>
+      </c>
+      <c r="B187" t="s">
+        <v>646</v>
       </c>
       <c r="C187">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="I187" s="16"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A188" s="18">
-        <v>66</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>529</v>
+      <c r="L187" s="16"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A188" s="17">
+        <v>5066</v>
+      </c>
+      <c r="B188" t="s">
+        <v>647</v>
       </c>
       <c r="C188">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I188" s="16"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A189" s="18">
-        <v>67</v>
+      <c r="L188" s="16"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A189" s="17">
+        <v>5053</v>
       </c>
       <c r="B189" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="C189">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A190" s="18">
-        <v>68</v>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A190" s="17">
+        <v>5054</v>
       </c>
       <c r="B190" t="s">
-        <v>476</v>
+        <v>1058</v>
       </c>
       <c r="C190">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A191" s="18">
-        <v>69</v>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A191" s="17">
+        <v>5055</v>
       </c>
       <c r="B191" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="C191">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A192" s="18">
-        <v>70</v>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A192" s="17">
+        <v>5167</v>
       </c>
       <c r="B192" t="s">
-        <v>530</v>
+        <v>1059</v>
       </c>
       <c r="C192">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A193" s="42">
-        <v>71</v>
-      </c>
-      <c r="B193" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C193" s="16" t="s">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A193" s="17">
+        <v>5168</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C193">
+        <v>114</v>
+      </c>
+      <c r="I193" s="16"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A194" s="17">
+        <v>5169</v>
+      </c>
+      <c r="B194" t="s">
+        <v>666</v>
+      </c>
+      <c r="C194">
+        <v>115</v>
+      </c>
+      <c r="I194" s="16"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A195" s="17">
+        <v>5170</v>
+      </c>
+      <c r="B195" t="s">
+        <v>667</v>
+      </c>
+      <c r="C195">
+        <v>116</v>
+      </c>
+      <c r="I195" s="16"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A196" s="42">
+        <v>5171</v>
+      </c>
+      <c r="B196" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="C196" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="I193" s="16"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A194" s="18">
-        <v>72</v>
-      </c>
-      <c r="B194" t="s">
-        <v>464</v>
-      </c>
-      <c r="C194">
-        <v>24</v>
-      </c>
-      <c r="I194" s="16"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A195" s="18">
-        <v>73</v>
-      </c>
-      <c r="B195" t="s">
-        <v>465</v>
-      </c>
-      <c r="C195">
-        <v>25</v>
-      </c>
-      <c r="I195" s="16"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A196" s="18">
-        <v>74</v>
-      </c>
-      <c r="B196" t="s">
-        <v>466</v>
-      </c>
-      <c r="C196">
-        <v>26</v>
-      </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A197" s="18">
-        <v>75</v>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A197" s="17">
+        <v>5156</v>
       </c>
       <c r="B197" t="s">
-        <v>467</v>
+        <v>653</v>
       </c>
       <c r="C197">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="I197" s="16"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A198" s="18">
-        <v>76</v>
+      <c r="L197" s="16"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A198" s="17">
+        <v>5157</v>
       </c>
       <c r="B198" t="s">
-        <v>468</v>
+        <v>654</v>
       </c>
       <c r="C198">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="I198" s="16"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A199" s="18">
-        <v>77</v>
-      </c>
-      <c r="B199" t="s">
-        <v>469</v>
+      <c r="L198" s="16"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A199" s="17"/>
+      <c r="B199" s="38" t="s">
+        <v>1126</v>
       </c>
       <c r="C199">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I199" s="16"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A200" s="18">
-        <v>78</v>
-      </c>
-      <c r="B200" t="s">
-        <v>470</v>
-      </c>
-      <c r="C200">
-        <v>30</v>
-      </c>
+      <c r="K199" s="16"/>
+      <c r="L199" s="16"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A200" s="36">
+        <v>5158</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="C200" s="41">
+        <v>119</v>
+      </c>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
       <c r="I200" s="16"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A201" s="18">
-        <v>79</v>
-      </c>
-      <c r="B201" t="s">
-        <v>471</v>
-      </c>
-      <c r="C201">
-        <v>31</v>
-      </c>
+      <c r="L200" s="16"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A201" s="36">
+        <v>5159</v>
+      </c>
+      <c r="B201" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="C201" s="41">
+        <v>119</v>
+      </c>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
       <c r="I201" s="16"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A202" s="18">
-        <v>80</v>
+      <c r="L201" s="16"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A202" s="17">
+        <v>5160</v>
       </c>
       <c r="B202" t="s">
-        <v>472</v>
+        <v>657</v>
       </c>
       <c r="C202">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I202" s="16"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A203" s="18">
-        <v>81</v>
-      </c>
-      <c r="B203" t="s">
-        <v>473</v>
+      <c r="L202" s="16"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A203" s="17"/>
+      <c r="B203" s="38" t="s">
+        <v>1127</v>
       </c>
       <c r="C203">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I203" s="16"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A204" s="18">
-        <v>82</v>
-      </c>
-      <c r="B204" t="s">
-        <v>474</v>
-      </c>
-      <c r="C204">
-        <v>34</v>
-      </c>
+      <c r="K203" s="16"/>
+      <c r="L203" s="16"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A204" s="36">
+        <v>5161</v>
+      </c>
+      <c r="B204" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C204" s="41">
+        <v>121</v>
+      </c>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
       <c r="I204" s="16"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A205" s="17">
-        <v>5067</v>
-      </c>
-      <c r="B205" t="s">
-        <v>500</v>
-      </c>
-      <c r="C205">
-        <v>97</v>
-      </c>
+      <c r="L204" s="16"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A205" s="36">
+        <v>5162</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C205" s="41">
+        <v>121</v>
+      </c>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
       <c r="I205" s="16"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L205" s="16"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="17">
-        <v>5068</v>
+        <v>5163</v>
       </c>
       <c r="B206" t="s">
-        <v>501</v>
+        <v>660</v>
       </c>
       <c r="C206">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="I206" s="16"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L206" s="16"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="17">
-        <v>5069</v>
+        <v>5164</v>
       </c>
       <c r="B207" t="s">
-        <v>502</v>
+        <v>661</v>
       </c>
       <c r="C207">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="I207" s="16"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L207" s="16"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="17">
-        <v>5070</v>
+        <v>5165</v>
       </c>
       <c r="B208" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="C208">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I208" s="16"/>
+      <c r="L208" s="16"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A209" s="42">
-        <v>5071</v>
-      </c>
-      <c r="B209" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>555</v>
+      <c r="A209" s="17">
+        <v>5166</v>
+      </c>
+      <c r="B209" t="s">
+        <v>663</v>
+      </c>
+      <c r="C209">
+        <v>125</v>
       </c>
       <c r="I209" s="16"/>
+      <c r="L209" s="16"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="17">
-        <v>5056</v>
+        <v>5153</v>
       </c>
       <c r="B210" t="s">
-        <v>637</v>
+        <v>1061</v>
       </c>
       <c r="C210">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I210" s="16"/>
-      <c r="L210" s="16"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="17">
-        <v>5057</v>
+        <v>5154</v>
       </c>
       <c r="B211" t="s">
-        <v>638</v>
+        <v>1062</v>
       </c>
       <c r="C211">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I211" s="16"/>
-      <c r="L211" s="16"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A212" s="36">
-        <v>5058</v>
-      </c>
-      <c r="B212" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="C212" s="41">
-        <v>103</v>
-      </c>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="16"/>
+      <c r="A212" s="17">
+        <v>5155</v>
+      </c>
+      <c r="B212" t="s">
+        <v>652</v>
+      </c>
+      <c r="C212">
+        <v>128</v>
+      </c>
       <c r="I212" s="16"/>
-      <c r="L212" s="16"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A213" s="36">
-        <v>5059</v>
-      </c>
-      <c r="B213" s="41" t="s">
-        <v>640</v>
-      </c>
-      <c r="C213" s="41">
-        <v>103</v>
-      </c>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="16"/>
+      <c r="A213" s="17">
+        <v>5267</v>
+      </c>
+      <c r="B213" t="s">
+        <v>505</v>
+      </c>
+      <c r="C213">
+        <v>129</v>
+      </c>
       <c r="I213" s="16"/>
-      <c r="L213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="17">
-        <v>5060</v>
+        <v>5268</v>
       </c>
       <c r="B214" t="s">
-        <v>641</v>
+        <v>506</v>
       </c>
       <c r="C214">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="I214" s="16"/>
-      <c r="L214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A215" s="36">
-        <v>5061</v>
-      </c>
-      <c r="B215" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="C215" s="41">
-        <v>105</v>
-      </c>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="16"/>
+      <c r="A215" s="17">
+        <v>5269</v>
+      </c>
+      <c r="B215" t="s">
+        <v>507</v>
+      </c>
+      <c r="C215">
+        <v>131</v>
+      </c>
       <c r="I215" s="16"/>
-      <c r="L215" s="16"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A216" s="36">
-        <v>5062</v>
-      </c>
-      <c r="B216" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C216" s="41">
-        <v>105</v>
-      </c>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="16"/>
+      <c r="A216" s="17">
+        <v>5270</v>
+      </c>
+      <c r="B216" t="s">
+        <v>682</v>
+      </c>
+      <c r="C216">
+        <v>132</v>
+      </c>
       <c r="I216" s="16"/>
-      <c r="L216" s="16"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A217" s="17">
-        <v>5063</v>
-      </c>
-      <c r="B217" t="s">
-        <v>644</v>
-      </c>
-      <c r="C217">
-        <v>106</v>
+      <c r="A217" s="42">
+        <v>5271</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>555</v>
       </c>
       <c r="I217" s="16"/>
-      <c r="L217" s="16"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="17">
-        <v>5064</v>
+        <v>5256</v>
       </c>
       <c r="B218" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="C218">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="I218" s="16"/>
       <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="17">
-        <v>5065</v>
+        <v>5257</v>
       </c>
       <c r="B219" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="C219">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I219" s="16"/>
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A220" s="17">
-        <v>5066</v>
-      </c>
-      <c r="B220" t="s">
-        <v>647</v>
+      <c r="A220" s="17"/>
+      <c r="B220" s="38" t="s">
+        <v>1128</v>
       </c>
       <c r="C220">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="I220" s="16"/>
+      <c r="K220" s="16"/>
       <c r="L220" s="16"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A221" s="17">
-        <v>5053</v>
-      </c>
-      <c r="B221" t="s">
-        <v>503</v>
-      </c>
-      <c r="C221">
-        <v>110</v>
-      </c>
+      <c r="A221" s="36">
+        <v>5258</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C221" s="41">
+        <v>135</v>
+      </c>
+      <c r="D221" s="16"/>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
       <c r="I221" s="16"/>
+      <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A222" s="17">
-        <v>5054</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C222">
-        <v>111</v>
-      </c>
+      <c r="A222" s="36">
+        <v>5259</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="C222" s="41">
+        <v>135</v>
+      </c>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
       <c r="I222" s="16"/>
+      <c r="L222" s="16"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="17">
-        <v>5055</v>
+        <v>5260</v>
       </c>
       <c r="B223" t="s">
-        <v>504</v>
+        <v>675</v>
       </c>
       <c r="C223">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="I223" s="16"/>
+      <c r="L223" s="16"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A224" s="17">
-        <v>5167</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1059</v>
+      <c r="A224" s="17"/>
+      <c r="B224" s="38" t="s">
+        <v>1129</v>
       </c>
       <c r="C224">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="I224" s="16"/>
+      <c r="K224" s="16"/>
+      <c r="L224" s="16"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A225" s="17">
-        <v>5168</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C225">
-        <v>114</v>
-      </c>
+      <c r="A225" s="36">
+        <v>5261</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="C225" s="41">
+        <v>137</v>
+      </c>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
       <c r="I225" s="16"/>
+      <c r="L225" s="16"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A226" s="17">
-        <v>5169</v>
-      </c>
-      <c r="B226" t="s">
-        <v>666</v>
-      </c>
-      <c r="C226">
-        <v>115</v>
-      </c>
+      <c r="A226" s="36">
+        <v>5262</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="C226" s="41">
+        <v>137</v>
+      </c>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
       <c r="I226" s="16"/>
+      <c r="L226" s="16"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="17">
-        <v>5170</v>
+        <v>5263</v>
       </c>
       <c r="B227" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="C227">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="I227" s="16"/>
+      <c r="L227" s="16"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A228" s="42">
-        <v>5171</v>
-      </c>
-      <c r="B228" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>555</v>
+      <c r="A228" s="17">
+        <v>5264</v>
+      </c>
+      <c r="B228" t="s">
+        <v>679</v>
+      </c>
+      <c r="C228">
+        <v>139</v>
       </c>
       <c r="I228" s="16"/>
+      <c r="L228" s="16"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="17">
-        <v>5156</v>
+        <v>5265</v>
       </c>
       <c r="B229" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="C229">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="I229" s="16"/>
       <c r="L229" s="16"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="17">
-        <v>5157</v>
+        <v>5266</v>
       </c>
       <c r="B230" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="C230">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="16"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A231" s="17"/>
-      <c r="B231" s="38" t="s">
-        <v>1126</v>
+      <c r="A231" s="17">
+        <v>5253</v>
+      </c>
+      <c r="B231" t="s">
+        <v>508</v>
       </c>
       <c r="C231">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="I231" s="16"/>
-      <c r="K231" s="16"/>
-      <c r="L231" s="16"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A232" s="36">
-        <v>5158</v>
-      </c>
-      <c r="B232" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="C232" s="41">
-        <v>119</v>
-      </c>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
+      <c r="A232" s="17">
+        <v>5254</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C232">
+        <v>143</v>
+      </c>
       <c r="I232" s="16"/>
-      <c r="L232" s="16"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A233" s="36">
-        <v>5159</v>
-      </c>
-      <c r="B233" s="41" t="s">
-        <v>656</v>
-      </c>
-      <c r="C233" s="41">
-        <v>119</v>
-      </c>
-      <c r="D233" s="16"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="16"/>
+      <c r="A233" s="17">
+        <v>5255</v>
+      </c>
+      <c r="B233" t="s">
+        <v>509</v>
+      </c>
+      <c r="C233">
+        <v>144</v>
+      </c>
       <c r="I233" s="16"/>
-      <c r="L233" s="16"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="17">
-        <v>5160</v>
+        <v>1176</v>
       </c>
       <c r="B234" t="s">
-        <v>657</v>
+        <v>510</v>
       </c>
       <c r="C234">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="I234" s="16"/>
-      <c r="L234" s="16"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A235" s="17"/>
-      <c r="B235" s="38" t="s">
-        <v>1127</v>
+      <c r="A235" s="17">
+        <v>1177</v>
+      </c>
+      <c r="B235" t="s">
+        <v>511</v>
       </c>
       <c r="C235">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="I235" s="16"/>
-      <c r="K235" s="16"/>
-      <c r="L235" s="16"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A236" s="36">
-        <v>5161</v>
-      </c>
-      <c r="B236" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="C236" s="41">
-        <v>121</v>
-      </c>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
+      <c r="A236" s="17">
+        <v>1276</v>
+      </c>
+      <c r="B236" t="s">
+        <v>512</v>
+      </c>
+      <c r="C236">
+        <v>147</v>
+      </c>
       <c r="I236" s="16"/>
-      <c r="L236" s="16"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A237" s="36">
-        <v>5162</v>
-      </c>
-      <c r="B237" s="41" t="s">
-        <v>658</v>
-      </c>
-      <c r="C237" s="41">
-        <v>121</v>
-      </c>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
+      <c r="A237" s="17">
+        <v>1277</v>
+      </c>
+      <c r="B237" t="s">
+        <v>513</v>
+      </c>
+      <c r="C237">
+        <v>148</v>
+      </c>
       <c r="I237" s="16"/>
-      <c r="L237" s="16"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A238" s="17">
-        <v>5163</v>
-      </c>
-      <c r="B238" t="s">
-        <v>660</v>
-      </c>
-      <c r="C238">
-        <v>122</v>
-      </c>
-      <c r="I238" s="16"/>
-      <c r="L238" s="16"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A239" s="17">
-        <v>5164</v>
-      </c>
-      <c r="B239" t="s">
-        <v>661</v>
-      </c>
-      <c r="C239">
-        <v>123</v>
-      </c>
-      <c r="I239" s="16"/>
-      <c r="L239" s="16"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A240" s="17">
-        <v>5165</v>
-      </c>
-      <c r="B240" t="s">
-        <v>662</v>
-      </c>
-      <c r="C240">
-        <v>124</v>
-      </c>
-      <c r="I240" s="16"/>
-      <c r="L240" s="16"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A241" s="17">
-        <v>5166</v>
-      </c>
-      <c r="B241" t="s">
-        <v>663</v>
-      </c>
-      <c r="C241">
-        <v>125</v>
-      </c>
-      <c r="I241" s="16"/>
-      <c r="L241" s="16"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A242" s="17">
-        <v>5153</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C242">
-        <v>126</v>
-      </c>
-      <c r="I242" s="16"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A243" s="17">
-        <v>5154</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C243">
-        <v>127</v>
-      </c>
-      <c r="I243" s="16"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A244" s="17">
-        <v>5155</v>
-      </c>
-      <c r="B244" t="s">
-        <v>652</v>
-      </c>
-      <c r="C244">
-        <v>128</v>
-      </c>
-      <c r="I244" s="16"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A245" s="17">
-        <v>5267</v>
-      </c>
-      <c r="B245" t="s">
-        <v>505</v>
-      </c>
-      <c r="C245">
-        <v>129</v>
-      </c>
-      <c r="I245" s="16"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A246" s="17">
-        <v>5268</v>
-      </c>
-      <c r="B246" t="s">
-        <v>506</v>
-      </c>
-      <c r="C246">
-        <v>130</v>
-      </c>
-      <c r="I246" s="16"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A247" s="17">
-        <v>5269</v>
-      </c>
-      <c r="B247" t="s">
-        <v>507</v>
-      </c>
-      <c r="C247">
-        <v>131</v>
-      </c>
-      <c r="I247" s="16"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A248" s="17">
-        <v>5270</v>
-      </c>
-      <c r="B248" t="s">
-        <v>682</v>
-      </c>
-      <c r="C248">
-        <v>132</v>
-      </c>
-      <c r="I248" s="16"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A249" s="42">
-        <v>5271</v>
-      </c>
-      <c r="B249" s="37" t="s">
-        <v>683</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="I249" s="16"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A250" s="17">
-        <v>5256</v>
-      </c>
-      <c r="B250" t="s">
-        <v>671</v>
-      </c>
-      <c r="C250">
-        <v>133</v>
-      </c>
+      <c r="G239" s="16"/>
+      <c r="H239" s="16"/>
+    </row>
+    <row r="250" spans="7:10" x14ac:dyDescent="0.45">
       <c r="I250" s="16"/>
-      <c r="L250" s="16"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A251" s="17">
-        <v>5257</v>
-      </c>
-      <c r="B251" t="s">
-        <v>672</v>
-      </c>
-      <c r="C251">
-        <v>134</v>
-      </c>
-      <c r="I251" s="16"/>
-      <c r="L251" s="16"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A252" s="17"/>
-      <c r="B252" s="38" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C252">
-        <v>135</v>
-      </c>
-      <c r="I252" s="16"/>
-      <c r="K252" s="16"/>
-      <c r="L252" s="16"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A253" s="36">
-        <v>5258</v>
-      </c>
-      <c r="B253" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="C253" s="41">
-        <v>135</v>
-      </c>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="I253" s="16"/>
-      <c r="L253" s="16"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A254" s="36">
-        <v>5259</v>
-      </c>
-      <c r="B254" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="C254" s="41">
-        <v>135</v>
-      </c>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
+      <c r="J250" s="16"/>
+    </row>
+    <row r="251" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G251" s="16"/>
+      <c r="H251" s="16"/>
+    </row>
+    <row r="252" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G252" s="16"/>
+      <c r="H252" s="16"/>
+    </row>
+    <row r="254" spans="7:10" x14ac:dyDescent="0.45">
       <c r="I254" s="16"/>
-      <c r="L254" s="16"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A255" s="17">
-        <v>5260</v>
-      </c>
-      <c r="B255" t="s">
-        <v>675</v>
-      </c>
-      <c r="C255">
-        <v>136</v>
-      </c>
-      <c r="I255" s="16"/>
-      <c r="L255" s="16"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A256" s="17"/>
-      <c r="B256" s="38" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C256">
-        <v>137</v>
-      </c>
-      <c r="I256" s="16"/>
-      <c r="K256" s="16"/>
-      <c r="L256" s="16"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A257" s="36">
-        <v>5261</v>
-      </c>
-      <c r="B257" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="C257" s="41">
-        <v>137</v>
-      </c>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="16"/>
-      <c r="I257" s="16"/>
-      <c r="L257" s="16"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A258" s="36">
-        <v>5262</v>
-      </c>
-      <c r="B258" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="C258" s="41">
-        <v>137</v>
-      </c>
-      <c r="D258" s="16"/>
-      <c r="E258" s="16"/>
-      <c r="F258" s="16"/>
-      <c r="I258" s="16"/>
-      <c r="L258" s="16"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A259" s="17">
-        <v>5263</v>
-      </c>
-      <c r="B259" t="s">
-        <v>678</v>
-      </c>
-      <c r="C259">
-        <v>138</v>
-      </c>
-      <c r="I259" s="16"/>
-      <c r="L259" s="16"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A260" s="17">
-        <v>5264</v>
-      </c>
-      <c r="B260" t="s">
-        <v>679</v>
-      </c>
-      <c r="C260">
-        <v>139</v>
-      </c>
-      <c r="I260" s="16"/>
-      <c r="L260" s="16"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A261" s="17">
-        <v>5265</v>
-      </c>
-      <c r="B261" t="s">
-        <v>680</v>
-      </c>
-      <c r="C261">
-        <v>140</v>
-      </c>
-      <c r="I261" s="16"/>
-      <c r="L261" s="16"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A262" s="17">
-        <v>5266</v>
-      </c>
-      <c r="B262" t="s">
-        <v>681</v>
-      </c>
-      <c r="C262">
-        <v>141</v>
-      </c>
-      <c r="I262" s="16"/>
-      <c r="L262" s="16"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A263" s="17">
-        <v>5253</v>
-      </c>
-      <c r="B263" t="s">
-        <v>508</v>
-      </c>
-      <c r="C263">
-        <v>142</v>
-      </c>
-      <c r="I263" s="16"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A264" s="17">
-        <v>5254</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C264">
-        <v>143</v>
-      </c>
-      <c r="I264" s="16"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A265" s="17">
-        <v>5255</v>
-      </c>
-      <c r="B265" t="s">
-        <v>509</v>
-      </c>
-      <c r="C265">
-        <v>144</v>
-      </c>
-      <c r="I265" s="16"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A266" s="17">
-        <v>1176</v>
-      </c>
-      <c r="B266" t="s">
-        <v>510</v>
-      </c>
-      <c r="C266">
-        <v>145</v>
-      </c>
-      <c r="I266" s="16"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A267" s="17">
-        <v>1177</v>
-      </c>
-      <c r="B267" t="s">
-        <v>511</v>
-      </c>
-      <c r="C267">
-        <v>146</v>
-      </c>
-      <c r="I267" s="16"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A268" s="17">
-        <v>1276</v>
-      </c>
-      <c r="B268" t="s">
-        <v>512</v>
-      </c>
-      <c r="C268">
-        <v>147</v>
-      </c>
-      <c r="I268" s="16"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A269" s="17">
-        <v>1277</v>
-      </c>
-      <c r="B269" t="s">
-        <v>513</v>
-      </c>
-      <c r="C269">
-        <v>148</v>
-      </c>
-      <c r="I269" s="16"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G271" s="16"/>
-      <c r="H271" s="16"/>
-    </row>
-    <row r="282" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I282" s="16"/>
-      <c r="J282" s="16"/>
-    </row>
-    <row r="283" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G283" s="16"/>
-      <c r="H283" s="16"/>
-    </row>
-    <row r="284" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G284" s="16"/>
-      <c r="H284" s="16"/>
-    </row>
-    <row r="286" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I286" s="16"/>
-      <c r="J286" s="16"/>
-    </row>
-    <row r="287" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G287" s="16"/>
-      <c r="H287" s="16"/>
-    </row>
-    <row r="288" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G288" s="16"/>
-      <c r="H288" s="16"/>
+      <c r="J254" s="16"/>
+    </row>
+    <row r="255" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G255" s="16"/>
+      <c r="H255" s="16"/>
+    </row>
+    <row r="256" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D171">
-    <sortCondition ref="A4:A171"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D139">
+    <sortCondition ref="A4:A139"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A138:C138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FD5746-68F8-4BAE-B6B8-391890CF26D2}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99375053-B872-456E-B2BE-CC980E49FDAB}"/>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="-16470" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -3381,9 +3381,6 @@
     <t>0, 10-15, 18, 19, 34, 35</t>
   </si>
   <si>
-    <t>50-82, subpops 53-71 of pops 50-52</t>
-  </si>
-  <si>
     <t>Average days in ES/SH (by system path)</t>
   </si>
   <si>
@@ -3457,9 +3454,6 @@
   </si>
   <si>
     <t>Count people by personal characteristics</t>
-  </si>
-  <si>
-    <t>0, 1, 2</t>
   </si>
   <si>
     <t>Count of bed nights by household characteristics</t>
@@ -3693,6 +3687,12 @@
   </si>
   <si>
     <t>Chronically Homeless Household - 3+ Children</t>
+  </si>
+  <si>
+    <t>0, 10, 11</t>
+  </si>
+  <si>
+    <t>50-82, 1176, 1177, 1276, 1277, subpops 53-71 of pops 50-52</t>
   </si>
 </sst>
 </file>
@@ -4547,7 +4547,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>1068</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="3">
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J134" s="3">
         <v>2</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I198" s="7" t="s">
         <v>1007</v>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I199" s="15"/>
       <c r="J199" s="3">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I216" s="14" t="s">
         <v>1009</v>
@@ -17072,7 +17072,7 @@
         <v>1015</v>
       </c>
       <c r="D322" s="47" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
@@ -17310,7 +17310,7 @@
         <v>1115</v>
       </c>
       <c r="D339" s="47" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
@@ -26032,7 +26032,7 @@
         <v>1315</v>
       </c>
       <c r="D377" s="47" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
@@ -26284,7 +26284,7 @@
         <v>1336</v>
       </c>
       <c r="D395" s="21" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
@@ -26298,7 +26298,7 @@
         <v>1415</v>
       </c>
       <c r="D396" s="47" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
@@ -26760,7 +26760,7 @@
         <v>1534</v>
       </c>
       <c r="D429" s="47" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
@@ -26774,7 +26774,7 @@
         <v>1536</v>
       </c>
       <c r="D430" s="47" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -29610,7 +29610,7 @@
         <v>44</v>
       </c>
       <c r="B633" s="21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C633" s="21">
         <v>0</v>
@@ -29624,7 +29624,7 @@
         <v>44</v>
       </c>
       <c r="B634" s="21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C634" s="21">
         <v>1</v>
@@ -29638,7 +29638,7 @@
         <v>44</v>
       </c>
       <c r="B635" s="45" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C635" s="45">
         <v>-1</v>
@@ -29652,7 +29652,7 @@
         <v>45</v>
       </c>
       <c r="B636" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C636" s="21">
         <v>0</v>
@@ -29666,7 +29666,7 @@
         <v>45</v>
       </c>
       <c r="B637" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C637" s="21">
         <v>1</v>
@@ -29680,13 +29680,13 @@
         <v>45</v>
       </c>
       <c r="B638" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C638" s="21">
         <v>2</v>
       </c>
       <c r="D638" s="21" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="D639" s="21" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
@@ -29714,7 +29714,7 @@
         <v>1</v>
       </c>
       <c r="D640" s="21" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
@@ -29743,9 +29743,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29760,7 +29760,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.899999999999999" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="33" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="34"/>
@@ -29775,7 +29775,7 @@
         <v>398</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>379</v>
@@ -29798,7 +29798,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="30" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
@@ -30044,7 +30044,7 @@
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="30" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
@@ -30059,7 +30059,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C14" s="19">
         <v>1</v>
@@ -30068,7 +30068,7 @@
         <v>-1</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>1077</v>
@@ -30085,7 +30085,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="19">
         <v>1</v>
@@ -30094,7 +30094,7 @@
         <v>-1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>1077</v>
@@ -30111,7 +30111,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C16" s="19">
         <v>1</v>
@@ -30120,7 +30120,7 @@
         <v>-1</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>1077</v>
@@ -30137,7 +30137,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C17" s="19">
         <v>1</v>
@@ -30146,7 +30146,7 @@
         <v>-1</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>1077</v>
@@ -30163,7 +30163,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C18" s="19">
         <v>1</v>
@@ -30172,7 +30172,7 @@
         <v>-1</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>1077</v>
@@ -30189,7 +30189,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C19" s="19">
         <v>1</v>
@@ -30215,7 +30215,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C20" s="19">
         <v>1</v>
@@ -30241,7 +30241,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C21" s="19">
         <v>1</v>
@@ -30250,7 +30250,7 @@
         <v>-1</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>1077</v>
@@ -30267,7 +30267,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C22" s="19">
         <v>1</v>
@@ -30290,7 +30290,7 @@
     </row>
     <row r="23" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="30" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
@@ -30484,7 +30484,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="30" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -30678,7 +30678,7 @@
     </row>
     <row r="39" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
@@ -30716,7 +30716,7 @@
     </row>
     <row r="41" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
@@ -31066,7 +31066,7 @@
     </row>
     <row r="55" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="31"/>
@@ -31494,7 +31494,7 @@
     </row>
     <row r="72" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="31"/>
@@ -31509,7 +31509,7 @@
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>1079</v>
@@ -31535,7 +31535,7 @@
         <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>1079</v>
@@ -31561,7 +31561,7 @@
         <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>1079</v>
@@ -31579,7 +31579,7 @@
         <v>1082</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -31587,7 +31587,7 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C76" s="19">
         <v>1</v>
@@ -31605,7 +31605,7 @@
         <v>1082</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>1114</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -31613,7 +31613,7 @@
         <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C77" s="19">
         <v>1</v>
@@ -31631,12 +31631,12 @@
         <v>1082</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B78" s="30"/>
       <c r="C78" s="31"/>
@@ -31651,7 +31651,7 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>1079</v>
@@ -31677,7 +31677,7 @@
         <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>1079</v>
@@ -31703,7 +31703,7 @@
         <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>1079</v>
@@ -31721,7 +31721,7 @@
         <v>1082</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>1088</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -31729,7 +31729,7 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C82" s="19">
         <v>1</v>
@@ -31747,7 +31747,7 @@
         <v>1082</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>1114</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -31755,7 +31755,7 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C83" s="19">
         <v>1</v>
@@ -31773,12 +31773,12 @@
         <v>1082</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B84" s="30"/>
       <c r="C84" s="31"/>
@@ -31933,7 +31933,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
@@ -31948,27 +31948,27 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="50" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="61.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="40" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>395</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -32323,13 +32323,13 @@
         <v>1015</v>
       </c>
       <c r="B32" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>555</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I32" s="16"/>
     </row>
@@ -32536,13 +32536,13 @@
         <v>1115</v>
       </c>
       <c r="B49" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>555</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -32757,7 +32757,7 @@
         <v>555</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -32796,7 +32796,7 @@
         <v>1220</v>
       </c>
       <c r="B69" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>555</v>
@@ -32809,7 +32809,7 @@
         <v>1221</v>
       </c>
       <c r="B70" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>555</v>
@@ -32822,7 +32822,7 @@
         <v>1222</v>
       </c>
       <c r="B71" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>555</v>
@@ -32835,7 +32835,7 @@
         <v>1223</v>
       </c>
       <c r="B72" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>555</v>
@@ -32848,7 +32848,7 @@
         <v>1224</v>
       </c>
       <c r="B73" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>555</v>
@@ -32861,7 +32861,7 @@
         <v>1225</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>555</v>
@@ -32874,7 +32874,7 @@
         <v>1226</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>555</v>
@@ -32887,7 +32887,7 @@
         <v>1227</v>
       </c>
       <c r="B76" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>555</v>
@@ -32900,7 +32900,7 @@
         <v>1228</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>555</v>
@@ -32913,7 +32913,7 @@
         <v>1229</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>555</v>
@@ -32926,7 +32926,7 @@
         <v>1230</v>
       </c>
       <c r="B79" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>555</v>
@@ -32939,7 +32939,7 @@
         <v>1231</v>
       </c>
       <c r="B80" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>555</v>
@@ -32954,7 +32954,7 @@
         <v>1232</v>
       </c>
       <c r="B81" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>555</v>
@@ -32969,7 +32969,7 @@
         <v>1233</v>
       </c>
       <c r="B82" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>555</v>
@@ -32982,13 +32982,13 @@
         <v>1315</v>
       </c>
       <c r="B83" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C83">
         <v>110</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I83" s="16"/>
     </row>
@@ -33209,13 +33209,13 @@
         <v>1415</v>
       </c>
       <c r="B101" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C101">
         <v>67</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I101" s="16"/>
     </row>
@@ -33610,7 +33610,7 @@
         <v>1534</v>
       </c>
       <c r="B134" s="37" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C134" s="41" t="s">
         <v>555</v>
@@ -33622,7 +33622,7 @@
         <v>1536</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C135" s="41" t="s">
         <v>555</v>
@@ -33636,27 +33636,27 @@
     </row>
     <row r="137" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
       <c r="A137" s="50" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B137" s="50"/>
       <c r="C137" s="50"/>
     </row>
     <row r="138" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="51" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B138" s="51"/>
       <c r="C138" s="51"/>
     </row>
     <row r="139" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="40" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B139" s="40" t="s">
         <v>395</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="I139" s="16"/>
     </row>
@@ -34420,7 +34420,7 @@
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="17"/>
       <c r="B199" s="38" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C199">
         <v>119</v>
@@ -34477,7 +34477,7 @@
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="17"/>
       <c r="B203" s="38" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C203">
         <v>121</v>
@@ -34695,7 +34695,7 @@
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="17"/>
       <c r="B220" s="38" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C220">
         <v>135</v>
@@ -34752,7 +34752,7 @@
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="17"/>
       <c r="B224" s="38" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C224">
         <v>137</v>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99375053-B872-456E-B2BE-CC980E49FDAB}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC1903F-7A75-433B-BB26-FC07EB1F8BB1}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Columns!$A$1:$I$291</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$632</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lists!$A$1:$D$633</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1172">
   <si>
     <t>File ID</t>
   </si>
@@ -3693,6 +3693,9 @@
   </si>
   <si>
     <t>50-82, 1176, 1177, 1276, 1277, subpops 53-71 of pops 50-52</t>
+  </si>
+  <si>
+    <t>Chronically Homeless Household - Parenting Child</t>
   </si>
 </sst>
 </file>
@@ -12557,9 +12560,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:XFC641"/>
+  <dimension ref="A1:XFC642"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="K426" sqref="K426"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -26771,10 +26776,10 @@
         <v>395</v>
       </c>
       <c r="C430" s="46">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D430" s="47" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
@@ -26784,11 +26789,11 @@
       <c r="B431" t="s">
         <v>395</v>
       </c>
-      <c r="C431" s="44">
-        <v>5053</v>
-      </c>
-      <c r="D431" s="21" t="s">
-        <v>635</v>
+      <c r="C431" s="46">
+        <v>1536</v>
+      </c>
+      <c r="D431" s="47" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
@@ -26799,10 +26804,10 @@
         <v>395</v>
       </c>
       <c r="C432" s="44">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="D432" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
@@ -26813,10 +26818,10 @@
         <v>395</v>
       </c>
       <c r="C433" s="44">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="D433" s="21" t="s">
-        <v>504</v>
+        <v>636</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
@@ -26827,10 +26832,10 @@
         <v>395</v>
       </c>
       <c r="C434" s="44">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="D434" s="21" t="s">
-        <v>637</v>
+        <v>504</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
@@ -26841,10 +26846,10 @@
         <v>395</v>
       </c>
       <c r="C435" s="44">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="D435" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
@@ -26855,10 +26860,10 @@
         <v>395</v>
       </c>
       <c r="C436" s="44">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="D436" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
@@ -26869,10 +26874,10 @@
         <v>395</v>
       </c>
       <c r="C437" s="44">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="D437" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
@@ -26883,10 +26888,10 @@
         <v>395</v>
       </c>
       <c r="C438" s="44">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="D438" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
@@ -26897,10 +26902,10 @@
         <v>395</v>
       </c>
       <c r="C439" s="44">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="D439" s="21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.45">
@@ -26911,10 +26916,10 @@
         <v>395</v>
       </c>
       <c r="C440" s="44">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="D440" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
@@ -26925,10 +26930,10 @@
         <v>395</v>
       </c>
       <c r="C441" s="44">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="D441" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
@@ -26939,10 +26944,10 @@
         <v>395</v>
       </c>
       <c r="C442" s="44">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
@@ -26953,10 +26958,10 @@
         <v>395</v>
       </c>
       <c r="C443" s="44">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="D443" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
@@ -26967,10 +26972,10 @@
         <v>395</v>
       </c>
       <c r="C444" s="44">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
@@ -26981,10 +26986,10 @@
         <v>395</v>
       </c>
       <c r="C445" s="44">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>500</v>
+        <v>647</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
@@ -26995,10 +27000,10 @@
         <v>395</v>
       </c>
       <c r="C446" s="44">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
@@ -27009,10 +27014,10 @@
         <v>395</v>
       </c>
       <c r="C447" s="44">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
@@ -27023,10 +27028,10 @@
         <v>395</v>
       </c>
       <c r="C448" s="44">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>648</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
@@ -27037,10 +27042,10 @@
         <v>395</v>
       </c>
       <c r="C449" s="44">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="D449" s="21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
@@ -27051,10 +27056,10 @@
         <v>395</v>
       </c>
       <c r="C450" s="44">
-        <v>5153</v>
+        <v>5071</v>
       </c>
       <c r="D450" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.45">
@@ -27065,10 +27070,10 @@
         <v>395</v>
       </c>
       <c r="C451" s="44">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="D451" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
@@ -27079,10 +27084,10 @@
         <v>395</v>
       </c>
       <c r="C452" s="44">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="D452" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
@@ -27093,10 +27098,10 @@
         <v>395</v>
       </c>
       <c r="C453" s="44">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="D453" s="21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
@@ -27107,10 +27112,10 @@
         <v>395</v>
       </c>
       <c r="C454" s="44">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="D454" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
@@ -27121,10 +27126,10 @@
         <v>395</v>
       </c>
       <c r="C455" s="44">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
@@ -27135,10 +27140,10 @@
         <v>395</v>
       </c>
       <c r="C456" s="44">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="D456" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
@@ -27149,10 +27154,10 @@
         <v>395</v>
       </c>
       <c r="C457" s="44">
-        <v>5160</v>
+        <v>5159</v>
       </c>
       <c r="D457" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
@@ -27163,10 +27168,10 @@
         <v>395</v>
       </c>
       <c r="C458" s="44">
-        <v>5161</v>
+        <v>5160</v>
       </c>
       <c r="D458" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
@@ -27177,10 +27182,10 @@
         <v>395</v>
       </c>
       <c r="C459" s="44">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
@@ -27191,10 +27196,10 @@
         <v>395</v>
       </c>
       <c r="C460" s="44">
-        <v>5163</v>
+        <v>5162</v>
       </c>
       <c r="D460" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
@@ -27205,10 +27210,10 @@
         <v>395</v>
       </c>
       <c r="C461" s="44">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="D461" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
@@ -27219,10 +27224,10 @@
         <v>395</v>
       </c>
       <c r="C462" s="44">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="D462" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
@@ -27233,10 +27238,10 @@
         <v>395</v>
       </c>
       <c r="C463" s="44">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="D463" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
@@ -27247,10 +27252,10 @@
         <v>395</v>
       </c>
       <c r="C464" s="44">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="D464" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
@@ -27261,10 +27266,10 @@
         <v>395</v>
       </c>
       <c r="C465" s="44">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="D465" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
@@ -27275,10 +27280,10 @@
         <v>395</v>
       </c>
       <c r="C466" s="44">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="D466" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
@@ -27289,10 +27294,10 @@
         <v>395</v>
       </c>
       <c r="C467" s="44">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="D467" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
@@ -27303,10 +27308,10 @@
         <v>395</v>
       </c>
       <c r="C468" s="44">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="D468" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
@@ -27317,10 +27322,10 @@
         <v>395</v>
       </c>
       <c r="C469" s="44">
-        <v>5253</v>
+        <v>5171</v>
       </c>
       <c r="D469" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
@@ -27331,10 +27336,10 @@
         <v>395</v>
       </c>
       <c r="C470" s="44">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="D470" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
@@ -27345,10 +27350,10 @@
         <v>395</v>
       </c>
       <c r="C471" s="44">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="D471" s="21" t="s">
-        <v>509</v>
+        <v>670</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
@@ -27359,10 +27364,10 @@
         <v>395</v>
       </c>
       <c r="C472" s="44">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="D472" s="21" t="s">
-        <v>671</v>
+        <v>509</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.45">
@@ -27373,10 +27378,10 @@
         <v>395</v>
       </c>
       <c r="C473" s="44">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="D473" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
@@ -27387,10 +27392,10 @@
         <v>395</v>
       </c>
       <c r="C474" s="44">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="D474" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
@@ -27401,10 +27406,10 @@
         <v>395</v>
       </c>
       <c r="C475" s="44">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="D475" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
@@ -27415,10 +27420,10 @@
         <v>395</v>
       </c>
       <c r="C476" s="44">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="D476" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
@@ -27429,10 +27434,10 @@
         <v>395</v>
       </c>
       <c r="C477" s="44">
-        <v>5261</v>
+        <v>5260</v>
       </c>
       <c r="D477" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
@@ -27443,10 +27448,10 @@
         <v>395</v>
       </c>
       <c r="C478" s="44">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="D478" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
@@ -27457,10 +27462,10 @@
         <v>395</v>
       </c>
       <c r="C479" s="44">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="D479" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
@@ -27471,10 +27476,10 @@
         <v>395</v>
       </c>
       <c r="C480" s="44">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="D480" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
@@ -27485,10 +27490,10 @@
         <v>395</v>
       </c>
       <c r="C481" s="44">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="D481" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
@@ -27499,10 +27504,10 @@
         <v>395</v>
       </c>
       <c r="C482" s="44">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="D482" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
@@ -27513,10 +27518,10 @@
         <v>395</v>
       </c>
       <c r="C483" s="44">
-        <v>5267</v>
+        <v>5266</v>
       </c>
       <c r="D483" s="21" t="s">
-        <v>505</v>
+        <v>681</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.45">
@@ -27527,10 +27532,10 @@
         <v>395</v>
       </c>
       <c r="C484" s="44">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.45">
@@ -27541,10 +27546,10 @@
         <v>395</v>
       </c>
       <c r="C485" s="44">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
@@ -27555,10 +27560,10 @@
         <v>395</v>
       </c>
       <c r="C486" s="44">
-        <v>5270</v>
+        <v>5269</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>682</v>
+        <v>507</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
@@ -27569,24 +27574,24 @@
         <v>395</v>
       </c>
       <c r="C487" s="44">
-        <v>5271</v>
+        <v>5270</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B488" t="s">
-        <v>398</v>
-      </c>
-      <c r="C488">
-        <v>1</v>
-      </c>
-      <c r="D488" t="s">
-        <v>684</v>
+        <v>395</v>
+      </c>
+      <c r="C488" s="44">
+        <v>5271</v>
+      </c>
+      <c r="D488" s="21" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
@@ -27597,10 +27602,10 @@
         <v>398</v>
       </c>
       <c r="C489">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D489" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
@@ -27611,10 +27616,10 @@
         <v>398</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D490" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
@@ -27625,10 +27630,10 @@
         <v>398</v>
       </c>
       <c r="C491">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D491" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.45">
@@ -27639,10 +27644,10 @@
         <v>398</v>
       </c>
       <c r="C492">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D492" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.45">
@@ -27653,10 +27658,10 @@
         <v>398</v>
       </c>
       <c r="C493">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D493" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.45">
@@ -27667,10 +27672,10 @@
         <v>398</v>
       </c>
       <c r="C494">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D494" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
@@ -27681,10 +27686,10 @@
         <v>398</v>
       </c>
       <c r="C495">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D495" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
@@ -27695,10 +27700,10 @@
         <v>398</v>
       </c>
       <c r="C496">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D496" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
@@ -27709,10 +27714,10 @@
         <v>398</v>
       </c>
       <c r="C497">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D497" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
@@ -27723,10 +27728,10 @@
         <v>398</v>
       </c>
       <c r="C498">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D498" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
@@ -27737,10 +27742,10 @@
         <v>398</v>
       </c>
       <c r="C499">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D499" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
@@ -27751,10 +27756,10 @@
         <v>398</v>
       </c>
       <c r="C500">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D500" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
@@ -27765,10 +27770,10 @@
         <v>398</v>
       </c>
       <c r="C501">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D501" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
@@ -27779,10 +27784,10 @@
         <v>398</v>
       </c>
       <c r="C502">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D502" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
@@ -27793,10 +27798,10 @@
         <v>398</v>
       </c>
       <c r="C503">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D503" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
@@ -27807,10 +27812,10 @@
         <v>398</v>
       </c>
       <c r="C504">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D504" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
@@ -27821,10 +27826,10 @@
         <v>398</v>
       </c>
       <c r="C505">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D505" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
@@ -27835,10 +27840,10 @@
         <v>398</v>
       </c>
       <c r="C506">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D506" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
@@ -27849,10 +27854,10 @@
         <v>398</v>
       </c>
       <c r="C507">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D507" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.45">
@@ -27863,10 +27868,10 @@
         <v>398</v>
       </c>
       <c r="C508">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D508" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.45">
@@ -27877,10 +27882,10 @@
         <v>398</v>
       </c>
       <c r="C509">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D509" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.45">
@@ -27891,10 +27896,10 @@
         <v>398</v>
       </c>
       <c r="C510">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D510" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.45">
@@ -27905,10 +27910,10 @@
         <v>398</v>
       </c>
       <c r="C511">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D511" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
@@ -27919,10 +27924,10 @@
         <v>398</v>
       </c>
       <c r="C512">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D512" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
@@ -27933,10 +27938,10 @@
         <v>398</v>
       </c>
       <c r="C513">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D513" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
@@ -27947,10 +27952,10 @@
         <v>398</v>
       </c>
       <c r="C514">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D514" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
@@ -27961,10 +27966,10 @@
         <v>398</v>
       </c>
       <c r="C515">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D515" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
@@ -27975,10 +27980,10 @@
         <v>398</v>
       </c>
       <c r="C516">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D516" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.45">
@@ -27989,10 +27994,10 @@
         <v>398</v>
       </c>
       <c r="C517">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D517" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.45">
@@ -28003,10 +28008,10 @@
         <v>398</v>
       </c>
       <c r="C518">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D518" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.45">
@@ -28017,10 +28022,10 @@
         <v>398</v>
       </c>
       <c r="C519">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D519" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.45">
@@ -28031,10 +28036,10 @@
         <v>398</v>
       </c>
       <c r="C520">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D520" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.45">
@@ -28045,10 +28050,10 @@
         <v>398</v>
       </c>
       <c r="C521">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D521" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
@@ -28059,10 +28064,10 @@
         <v>398</v>
       </c>
       <c r="C522">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D522" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
@@ -28073,10 +28078,10 @@
         <v>398</v>
       </c>
       <c r="C523">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D523" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
@@ -28087,10 +28092,10 @@
         <v>398</v>
       </c>
       <c r="C524">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D524" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
@@ -28101,10 +28106,10 @@
         <v>398</v>
       </c>
       <c r="C525">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D525" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
@@ -28115,10 +28120,10 @@
         <v>398</v>
       </c>
       <c r="C526">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D526" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
@@ -28129,10 +28134,10 @@
         <v>398</v>
       </c>
       <c r="C527">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D527" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.45">
@@ -28143,10 +28148,10 @@
         <v>398</v>
       </c>
       <c r="C528">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D528" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
@@ -28157,10 +28162,10 @@
         <v>398</v>
       </c>
       <c r="C529">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D529" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
@@ -28171,10 +28176,10 @@
         <v>398</v>
       </c>
       <c r="C530">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D530" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
@@ -28185,10 +28190,10 @@
         <v>398</v>
       </c>
       <c r="C531">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D531" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
@@ -28199,10 +28204,10 @@
         <v>398</v>
       </c>
       <c r="C532">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D532" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
@@ -28213,10 +28218,10 @@
         <v>398</v>
       </c>
       <c r="C533">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D533" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
@@ -28227,10 +28232,10 @@
         <v>398</v>
       </c>
       <c r="C534">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D534" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
@@ -28241,10 +28246,10 @@
         <v>398</v>
       </c>
       <c r="C535">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D535" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
@@ -28255,10 +28260,10 @@
         <v>398</v>
       </c>
       <c r="C536">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D536" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
@@ -28269,10 +28274,10 @@
         <v>398</v>
       </c>
       <c r="C537">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D537" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
@@ -28283,10 +28288,10 @@
         <v>398</v>
       </c>
       <c r="C538">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D538" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.45">
@@ -28297,10 +28302,10 @@
         <v>398</v>
       </c>
       <c r="C539">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D539" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
@@ -28311,10 +28316,10 @@
         <v>398</v>
       </c>
       <c r="C540">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D540" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
@@ -28325,10 +28330,10 @@
         <v>398</v>
       </c>
       <c r="C541">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D541" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
@@ -28339,10 +28344,10 @@
         <v>398</v>
       </c>
       <c r="C542">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D542" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
@@ -28353,10 +28358,10 @@
         <v>398</v>
       </c>
       <c r="C543">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D543" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
@@ -28367,10 +28372,10 @@
         <v>398</v>
       </c>
       <c r="C544">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D544" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.45">
@@ -28381,10 +28386,10 @@
         <v>398</v>
       </c>
       <c r="C545">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D545" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
@@ -28395,10 +28400,10 @@
         <v>398</v>
       </c>
       <c r="C546">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D546" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
@@ -28409,10 +28414,10 @@
         <v>398</v>
       </c>
       <c r="C547">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D547" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
@@ -28423,10 +28428,10 @@
         <v>398</v>
       </c>
       <c r="C548">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D548" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
@@ -28437,10 +28442,10 @@
         <v>398</v>
       </c>
       <c r="C549">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D549" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.45">
@@ -28451,10 +28456,10 @@
         <v>398</v>
       </c>
       <c r="C550">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D550" t="s">
-        <v>1017</v>
+        <v>745</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
@@ -28465,24 +28470,24 @@
         <v>398</v>
       </c>
       <c r="C551">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D551" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B552" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C552">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D552" t="s">
-        <v>970</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.45">
@@ -28493,10 +28498,10 @@
         <v>412</v>
       </c>
       <c r="C553">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D553" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
@@ -28507,10 +28512,10 @@
         <v>412</v>
       </c>
       <c r="C554">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D554" t="s">
-        <v>885</v>
+        <v>971</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
@@ -28521,10 +28526,10 @@
         <v>412</v>
       </c>
       <c r="C555">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D555" t="s">
-        <v>972</v>
+        <v>885</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
@@ -28535,10 +28540,10 @@
         <v>412</v>
       </c>
       <c r="C556">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D556" t="s">
-        <v>1019</v>
+        <v>972</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.45">
@@ -28549,10 +28554,10 @@
         <v>412</v>
       </c>
       <c r="C557">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D557" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
@@ -28563,24 +28568,24 @@
         <v>412</v>
       </c>
       <c r="C558">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D558" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B559" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C559">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D559" t="s">
-        <v>753</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
@@ -28591,24 +28596,24 @@
         <v>415</v>
       </c>
       <c r="C560">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D560" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B561" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C561">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D561" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
@@ -28619,10 +28624,10 @@
         <v>417</v>
       </c>
       <c r="C562">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D562" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
@@ -28633,24 +28638,24 @@
         <v>417</v>
       </c>
       <c r="C563">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D563" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B564" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D564" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
@@ -28661,10 +28666,10 @@
         <v>413</v>
       </c>
       <c r="C565">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D565" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
@@ -28675,24 +28680,24 @@
         <v>413</v>
       </c>
       <c r="C566">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D566" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B567" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="C567">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D567" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
@@ -28703,10 +28708,10 @@
         <v>21</v>
       </c>
       <c r="C568">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D568" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
@@ -28717,10 +28722,10 @@
         <v>21</v>
       </c>
       <c r="C569">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D569" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
@@ -28731,10 +28736,10 @@
         <v>21</v>
       </c>
       <c r="C570">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D570" t="s">
-        <v>1022</v>
+        <v>757</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
@@ -28745,10 +28750,10 @@
         <v>21</v>
       </c>
       <c r="C571">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D571" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.45">
@@ -28759,10 +28764,10 @@
         <v>21</v>
       </c>
       <c r="C572">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D572" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
@@ -28773,10 +28778,10 @@
         <v>21</v>
       </c>
       <c r="C573">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D573" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
@@ -28787,10 +28792,10 @@
         <v>21</v>
       </c>
       <c r="C574">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D574" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
@@ -28801,10 +28806,10 @@
         <v>21</v>
       </c>
       <c r="C575">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D575" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
@@ -28815,10 +28820,10 @@
         <v>21</v>
       </c>
       <c r="C576">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D576" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
@@ -28829,10 +28834,10 @@
         <v>21</v>
       </c>
       <c r="C577">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D577" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
@@ -28843,10 +28848,10 @@
         <v>21</v>
       </c>
       <c r="C578">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D578" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
@@ -28857,10 +28862,10 @@
         <v>21</v>
       </c>
       <c r="C579">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D579" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.45">
@@ -28871,10 +28876,10 @@
         <v>21</v>
       </c>
       <c r="C580">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D580" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.45">
@@ -28885,10 +28890,10 @@
         <v>21</v>
       </c>
       <c r="C581">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D581" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.45">
@@ -28899,10 +28904,10 @@
         <v>21</v>
       </c>
       <c r="C582">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D582" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.45">
@@ -28913,10 +28918,10 @@
         <v>21</v>
       </c>
       <c r="C583">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D583" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.45">
@@ -28927,10 +28932,10 @@
         <v>21</v>
       </c>
       <c r="C584">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D584" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
@@ -28941,10 +28946,10 @@
         <v>21</v>
       </c>
       <c r="C585">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D585" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
@@ -28955,10 +28960,10 @@
         <v>21</v>
       </c>
       <c r="C586">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D586" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
@@ -28969,10 +28974,10 @@
         <v>21</v>
       </c>
       <c r="C587">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D587" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
@@ -28983,10 +28988,10 @@
         <v>21</v>
       </c>
       <c r="C588">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D588" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.45">
@@ -28997,10 +29002,10 @@
         <v>21</v>
       </c>
       <c r="C589">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D589" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.45">
@@ -29011,10 +29016,10 @@
         <v>21</v>
       </c>
       <c r="C590">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D590" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.45">
@@ -29025,10 +29030,10 @@
         <v>21</v>
       </c>
       <c r="C591">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D591" t="s">
-        <v>758</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.45">
@@ -29039,10 +29044,10 @@
         <v>21</v>
       </c>
       <c r="C592">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D592" t="s">
-        <v>1043</v>
+        <v>758</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.45">
@@ -29053,10 +29058,10 @@
         <v>21</v>
       </c>
       <c r="C593">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D593" t="s">
-        <v>759</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
@@ -29067,10 +29072,10 @@
         <v>21</v>
       </c>
       <c r="C594">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D594" t="s">
-        <v>1044</v>
+        <v>759</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
@@ -29081,10 +29086,10 @@
         <v>21</v>
       </c>
       <c r="C595">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D595" t="s">
-        <v>760</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
@@ -29095,10 +29100,10 @@
         <v>21</v>
       </c>
       <c r="C596">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D596" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
@@ -29109,10 +29114,10 @@
         <v>21</v>
       </c>
       <c r="C597">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D597" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
@@ -29123,10 +29128,10 @@
         <v>21</v>
       </c>
       <c r="C598">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D598" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
@@ -29137,10 +29142,10 @@
         <v>21</v>
       </c>
       <c r="C599">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D599" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
@@ -29151,10 +29156,10 @@
         <v>21</v>
       </c>
       <c r="C600">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D600" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
@@ -29165,10 +29170,10 @@
         <v>21</v>
       </c>
       <c r="C601">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D601" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
@@ -29179,10 +29184,10 @@
         <v>21</v>
       </c>
       <c r="C602">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D602" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
@@ -29193,10 +29198,10 @@
         <v>21</v>
       </c>
       <c r="C603">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D603" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
@@ -29207,10 +29212,10 @@
         <v>21</v>
       </c>
       <c r="C604">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D604" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
@@ -29221,10 +29226,10 @@
         <v>21</v>
       </c>
       <c r="C605">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D605" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
@@ -29235,10 +29240,10 @@
         <v>21</v>
       </c>
       <c r="C606">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D606" t="s">
-        <v>1045</v>
+        <v>769</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
@@ -29249,10 +29254,10 @@
         <v>21</v>
       </c>
       <c r="C607">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D607" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
@@ -29263,10 +29268,10 @@
         <v>21</v>
       </c>
       <c r="C608">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D608" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
@@ -29277,24 +29282,24 @@
         <v>21</v>
       </c>
       <c r="C609">
+        <v>45</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A610">
+        <v>38</v>
+      </c>
+      <c r="B610" t="s">
+        <v>21</v>
+      </c>
+      <c r="C610">
         <v>46</v>
       </c>
-      <c r="D609" t="s">
+      <c r="D610" t="s">
         <v>1048</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A610" s="22">
-        <v>38</v>
-      </c>
-      <c r="B610" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C610" s="22">
-        <v>47</v>
-      </c>
-      <c r="D610" s="22" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="611" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -29305,24 +29310,24 @@
         <v>21</v>
       </c>
       <c r="C611" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D611" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="612" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A612" s="22">
         <v>38</v>
       </c>
-      <c r="B612" s="21" t="s">
+      <c r="B612" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C612" s="21">
-        <v>49</v>
-      </c>
-      <c r="D612" s="21" t="s">
-        <v>770</v>
+      <c r="C612" s="22">
+        <v>48</v>
+      </c>
+      <c r="D612" s="22" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="613" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -29333,10 +29338,10 @@
         <v>21</v>
       </c>
       <c r="C613" s="21">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D613" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="614" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -29347,10 +29352,10 @@
         <v>21</v>
       </c>
       <c r="C614" s="21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D614" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="615" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
@@ -29361,38 +29366,38 @@
         <v>21</v>
       </c>
       <c r="C615" s="21">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D615" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="616" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A616" s="22">
+        <v>38</v>
+      </c>
+      <c r="B616" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C616" s="21">
+        <v>52</v>
+      </c>
+      <c r="D616" s="21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A617" s="22">
         <v>39</v>
       </c>
-      <c r="B616" s="22" t="s">
+      <c r="B617" s="22" t="s">
         <v>774</v>
       </c>
-      <c r="C616" s="22">
+      <c r="C617" s="22">
         <v>1</v>
       </c>
-      <c r="D616" s="22" t="s">
+      <c r="D617" s="22" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A617">
-        <v>39</v>
-      </c>
-      <c r="B617" t="s">
-        <v>774</v>
-      </c>
-      <c r="C617">
-        <v>3</v>
-      </c>
-      <c r="D617" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
@@ -29403,24 +29408,24 @@
         <v>774</v>
       </c>
       <c r="C618">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D618" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B619" t="s">
-        <v>435</v>
+        <v>774</v>
       </c>
       <c r="C619">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D619" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
@@ -29431,10 +29436,10 @@
         <v>435</v>
       </c>
       <c r="C620">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D620" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
@@ -29445,24 +29450,24 @@
         <v>435</v>
       </c>
       <c r="C621">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D621" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B622" t="s">
-        <v>778</v>
+        <v>435</v>
       </c>
       <c r="C622">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D622" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
@@ -29473,10 +29478,10 @@
         <v>778</v>
       </c>
       <c r="C623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D623" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
@@ -29487,24 +29492,24 @@
         <v>778</v>
       </c>
       <c r="C624">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D624" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B625" t="s">
-        <v>432</v>
+        <v>778</v>
       </c>
       <c r="C625">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D625" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.45">
@@ -29515,10 +29520,10 @@
         <v>432</v>
       </c>
       <c r="C626">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D626" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.45">
@@ -29529,10 +29534,10 @@
         <v>432</v>
       </c>
       <c r="C627">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D627" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.45">
@@ -29543,24 +29548,24 @@
         <v>432</v>
       </c>
       <c r="C628">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D628" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629">
-        <v>43</v>
-      </c>
-      <c r="B629" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C629" s="21">
-        <v>0</v>
-      </c>
-      <c r="D629" s="21" t="s">
-        <v>747</v>
+        <v>42</v>
+      </c>
+      <c r="B629" t="s">
+        <v>432</v>
+      </c>
+      <c r="C629">
+        <v>99</v>
+      </c>
+      <c r="D629" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
@@ -29571,10 +29576,10 @@
         <v>152</v>
       </c>
       <c r="C630" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D630" s="21" t="s">
-        <v>1057</v>
+        <v>747</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
@@ -29585,10 +29590,10 @@
         <v>152</v>
       </c>
       <c r="C631" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D631" s="21" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
@@ -29599,24 +29604,24 @@
         <v>152</v>
       </c>
       <c r="C632" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D632" s="21" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B633" s="21" t="s">
-        <v>1134</v>
+        <v>152</v>
       </c>
       <c r="C633" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D633" s="21" t="s">
-        <v>747</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.45">
@@ -29627,38 +29632,38 @@
         <v>1134</v>
       </c>
       <c r="C634" s="21">
+        <v>0</v>
+      </c>
+      <c r="D634" s="21" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A635">
+        <v>44</v>
+      </c>
+      <c r="B635" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C635" s="21">
         <v>1</v>
       </c>
-      <c r="D634" s="21" t="s">
+      <c r="D635" s="21" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A635" s="45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A636" s="45">
         <v>44</v>
       </c>
-      <c r="B635" s="45" t="s">
+      <c r="B636" s="45" t="s">
         <v>1134</v>
       </c>
-      <c r="C635" s="45">
+      <c r="C636" s="45">
         <v>-1</v>
       </c>
-      <c r="D635" s="45" t="s">
+      <c r="D636" s="45" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A636">
-        <v>45</v>
-      </c>
-      <c r="B636" s="21" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C636" s="21">
-        <v>0</v>
-      </c>
-      <c r="D636" s="21" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.45">
@@ -29669,10 +29674,10 @@
         <v>1136</v>
       </c>
       <c r="C637" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D637" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.45">
@@ -29683,24 +29688,24 @@
         <v>1136</v>
       </c>
       <c r="C638" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D638" s="21" t="s">
-        <v>1137</v>
+        <v>748</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B639" s="21" t="s">
-        <v>281</v>
+        <v>1136</v>
       </c>
       <c r="C639" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D639" s="21" t="s">
-        <v>1160</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
@@ -29711,10 +29716,10 @@
         <v>281</v>
       </c>
       <c r="C640" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D640" s="21" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
@@ -29725,14 +29730,28 @@
         <v>281</v>
       </c>
       <c r="C641" s="21">
+        <v>1</v>
+      </c>
+      <c r="D641" s="21" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A642">
+        <v>46</v>
+      </c>
+      <c r="B642" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C642" s="21">
         <v>99</v>
       </c>
-      <c r="D641" s="21" t="s">
+      <c r="D642" s="21" t="s">
         <v>875</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D632" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:D633" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -29743,7 +29762,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>

--- a/LSA Data Dictionary FY2021.xlsx
+++ b/LSA Data Dictionary FY2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC1903F-7A75-433B-BB26-FC07EB1F8BB1}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{83E998E8-FF1F-4227-897A-6FABEC67F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6C742C-FC39-42E0-8996-E542AA8352A9}"/>
   <bookViews>
-    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-3810" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1172">
   <si>
     <t>File ID</t>
   </si>
@@ -12562,7 +12562,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFC642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+    <sheetView topLeftCell="A403" workbookViewId="0">
       <selection activeCell="K426" sqref="K426"/>
     </sheetView>
   </sheetViews>
@@ -31950,10 +31950,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EC4D7B-F345-49DF-A673-D9D6EB0CFE79}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L256"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33638,10 +33638,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" s="37">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B135" s="37" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C135" s="41" t="s">
         <v>555</v>
@@ -33649,59 +33649,57 @@
       <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A136"/>
-      <c r="C136" s="16"/>
+      <c r="A136" s="37">
+        <v>1536</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>555</v>
+      </c>
       <c r="I136" s="16"/>
     </row>
-    <row r="137" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
-      <c r="A137" s="50" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137"/>
+      <c r="C137" s="16"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.899999999999999" x14ac:dyDescent="0.5">
+      <c r="A138" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-    </row>
-    <row r="138" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A138" s="51" t="s">
+      <c r="B138" s="50"/>
+      <c r="C138" s="50"/>
+    </row>
+    <row r="139" spans="1:9" ht="45.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="51" t="s">
         <v>1132</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-    </row>
-    <row r="139" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="40" t="s">
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A140" s="40" t="s">
         <v>1130</v>
       </c>
-      <c r="B139" s="40" t="s">
+      <c r="B140" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C140" s="20" t="s">
         <v>1129</v>
       </c>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="18">
-        <v>50</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
       <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="C141">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
@@ -33709,13 +33707,13 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" s="18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
@@ -33723,13 +33721,13 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="18">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
@@ -33737,13 +33735,13 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" s="18">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
@@ -33751,13 +33749,13 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>461</v>
+        <v>560</v>
       </c>
       <c r="C145">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
@@ -33765,49 +33763,48 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="18">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="C146">
-        <v>15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
       <c r="I146" s="16"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="18">
+        <v>56</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C147">
+        <v>15</v>
+      </c>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148" s="18">
         <v>57</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B148" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C147">
+      <c r="C148">
         <v>16</v>
       </c>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A148" s="36">
-        <v>58</v>
-      </c>
-      <c r="B148" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="C148" s="41">
-        <v>17</v>
-      </c>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
       <c r="I148" s="16"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="36">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C149" s="41">
         <v>17</v>
@@ -33818,38 +33815,38 @@
       <c r="I149" s="16"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A150" s="18">
+      <c r="A150" s="36">
+        <v>59</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="C150" s="41">
+        <v>17</v>
+      </c>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151" s="18">
         <v>60</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="C150">
+      <c r="C151">
         <v>18</v>
       </c>
-      <c r="I150" s="16"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A151" s="36">
-        <v>61</v>
-      </c>
-      <c r="B151" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="C151" s="41">
-        <v>19</v>
-      </c>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
       <c r="I151" s="16"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="36">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B152" s="41" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C152" s="41">
         <v>19</v>
@@ -33860,353 +33857,352 @@
       <c r="I152" s="16"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A153" s="18">
-        <v>63</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C153">
-        <v>20</v>
-      </c>
+      <c r="A153" s="36">
+        <v>62</v>
+      </c>
+      <c r="B153" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="C153" s="41">
+        <v>19</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
       <c r="I153" s="16"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C154">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I154" s="16"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="18">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C155">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="18">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C156">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="18">
-        <v>67</v>
-      </c>
-      <c r="B157" t="s">
-        <v>475</v>
+        <v>66</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="C157">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I157" s="16"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="18">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C158">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I158" s="16"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="18">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C159">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I159" s="16"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="18">
+        <v>69</v>
+      </c>
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160">
+        <v>37</v>
+      </c>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161" s="18">
         <v>70</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>530</v>
       </c>
-      <c r="C160">
+      <c r="C161">
         <v>38</v>
       </c>
-      <c r="I160" s="16"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A161" s="42">
+      <c r="I161" s="16"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162" s="42">
         <v>71</v>
       </c>
-      <c r="B161" s="37" t="s">
+      <c r="B162" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C162" s="16" t="s">
         <v>555</v>
-      </c>
-      <c r="I161" s="16"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A162" s="18">
-        <v>72</v>
-      </c>
-      <c r="B162" t="s">
-        <v>464</v>
-      </c>
-      <c r="C162">
-        <v>24</v>
       </c>
       <c r="I162" s="16"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="18">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B163" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C163">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I163" s="16"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="18">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B164" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C164">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I164" s="16"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="18">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B165" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C165">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I165" s="16"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="18">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B166" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C166">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="18">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B167" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C167">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I167" s="16"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" s="18">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B168" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C168">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I168" s="16"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" s="18">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B169" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C169">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I169" s="16"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" s="18">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B170" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C170">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I170" s="16"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" s="18">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B171" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C171">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I171" s="16"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" s="18">
+        <v>81</v>
+      </c>
+      <c r="B172" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172">
+        <v>33</v>
+      </c>
+      <c r="I172" s="16"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A173" s="18">
         <v>82</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>474</v>
       </c>
-      <c r="C172">
+      <c r="C173">
         <v>34</v>
-      </c>
-      <c r="I172" s="16"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A173" s="17">
-        <v>5067</v>
-      </c>
-      <c r="B173" t="s">
-        <v>500</v>
-      </c>
-      <c r="C173">
-        <v>97</v>
       </c>
       <c r="I173" s="16"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" s="17">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C174">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I174" s="16"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" s="17">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="B175" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C175">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I175" s="16"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" s="17">
+        <v>5069</v>
+      </c>
+      <c r="B176" t="s">
+        <v>502</v>
+      </c>
+      <c r="C176">
+        <v>99</v>
+      </c>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A177" s="17">
         <v>5070</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>648</v>
       </c>
-      <c r="C176">
+      <c r="C177">
         <v>100</v>
       </c>
-      <c r="I176" s="16"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A177" s="42">
+      <c r="I177" s="16"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A178" s="42">
         <v>5071</v>
       </c>
-      <c r="B177" s="37" t="s">
+      <c r="B178" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="C177" s="16" t="s">
+      <c r="C178" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="I177" s="16"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A178" s="17">
-        <v>5056</v>
-      </c>
-      <c r="B178" t="s">
-        <v>637</v>
-      </c>
-      <c r="C178">
-        <v>101</v>
-      </c>
       <c r="I178" s="16"/>
-      <c r="L178" s="16"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="17">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="B179" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C179">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I179" s="16"/>
       <c r="L179" s="16"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A180" s="36">
-        <v>5058</v>
-      </c>
-      <c r="B180" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="C180" s="41">
-        <v>103</v>
-      </c>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
+      <c r="A180" s="17">
+        <v>5057</v>
+      </c>
+      <c r="B180" t="s">
+        <v>638</v>
+      </c>
+      <c r="C180">
+        <v>102</v>
+      </c>
       <c r="I180" s="16"/>
       <c r="L180" s="16"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="36">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="B181" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C181" s="41">
         <v>103</v>
@@ -34218,40 +34214,40 @@
       <c r="L181" s="16"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A182" s="17">
-        <v>5060</v>
-      </c>
-      <c r="B182" t="s">
-        <v>641</v>
-      </c>
-      <c r="C182">
-        <v>104</v>
-      </c>
+      <c r="A182" s="36">
+        <v>5059</v>
+      </c>
+      <c r="B182" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="C182" s="41">
+        <v>103</v>
+      </c>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
       <c r="I182" s="16"/>
       <c r="L182" s="16"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A183" s="36">
-        <v>5061</v>
-      </c>
-      <c r="B183" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="C183" s="41">
-        <v>105</v>
-      </c>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
+      <c r="A183" s="17">
+        <v>5060</v>
+      </c>
+      <c r="B183" t="s">
+        <v>641</v>
+      </c>
+      <c r="C183">
+        <v>104</v>
+      </c>
       <c r="I183" s="16"/>
       <c r="L183" s="16"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="36">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="B184" s="41" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C184" s="41">
         <v>105</v>
@@ -34263,213 +34259,213 @@
       <c r="L184" s="16"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A185" s="17">
-        <v>5063</v>
-      </c>
-      <c r="B185" t="s">
-        <v>644</v>
-      </c>
-      <c r="C185">
-        <v>106</v>
-      </c>
+      <c r="A185" s="36">
+        <v>5062</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="C185" s="41">
+        <v>105</v>
+      </c>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
       <c r="I185" s="16"/>
       <c r="L185" s="16"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="17">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="B186" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C186">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I186" s="16"/>
       <c r="L186" s="16"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="17">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="B187" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C187">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I187" s="16"/>
       <c r="L187" s="16"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="17">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="B188" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C188">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I188" s="16"/>
       <c r="L188" s="16"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="17">
-        <v>5053</v>
+        <v>5066</v>
       </c>
       <c r="B189" t="s">
-        <v>503</v>
+        <v>647</v>
       </c>
       <c r="C189">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I189" s="16"/>
+      <c r="L189" s="16"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="17">
-        <v>5054</v>
+        <v>5053</v>
       </c>
       <c r="B190" t="s">
-        <v>1058</v>
+        <v>503</v>
       </c>
       <c r="C190">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I190" s="16"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="17">
-        <v>5055</v>
+        <v>5054</v>
       </c>
       <c r="B191" t="s">
-        <v>504</v>
+        <v>1058</v>
       </c>
       <c r="C191">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I191" s="16"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="17">
-        <v>5167</v>
+        <v>5055</v>
       </c>
       <c r="B192" t="s">
-        <v>1059</v>
+        <v>504</v>
       </c>
       <c r="C192">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I192" s="16"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="17">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="B193" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C193">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I193" s="16"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="17">
-        <v>5169</v>
+        <v>5168</v>
       </c>
       <c r="B194" t="s">
-        <v>666</v>
+        <v>1060</v>
       </c>
       <c r="C194">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I194" s="16"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="17">
+        <v>5169</v>
+      </c>
+      <c r="B195" t="s">
+        <v>666</v>
+      </c>
+      <c r="C195">
+        <v>115</v>
+      </c>
+      <c r="I195" s="16"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A196" s="17">
         <v>5170</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>667</v>
       </c>
-      <c r="C195">
+      <c r="C196">
         <v>116</v>
       </c>
-      <c r="I195" s="16"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A196" s="42">
+      <c r="I196" s="16"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A197" s="42">
         <v>5171</v>
       </c>
-      <c r="B196" s="37" t="s">
+      <c r="B197" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="C196" s="16" t="s">
+      <c r="C197" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="I196" s="16"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A197" s="17">
-        <v>5156</v>
-      </c>
-      <c r="B197" t="s">
-        <v>653</v>
-      </c>
-      <c r="C197">
-        <v>117</v>
-      </c>
       <c r="I197" s="16"/>
-      <c r="L197" s="16"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="17">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="B198" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C198">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I198" s="16"/>
       <c r="L198" s="16"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A199" s="17"/>
-      <c r="B199" s="38" t="s">
+      <c r="A199" s="17">
+        <v>5157</v>
+      </c>
+      <c r="B199" t="s">
+        <v>654</v>
+      </c>
+      <c r="C199">
+        <v>118</v>
+      </c>
+      <c r="I199" s="16"/>
+      <c r="L199" s="16"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A200" s="17"/>
+      <c r="B200" s="38" t="s">
         <v>1124</v>
       </c>
-      <c r="C199">
+      <c r="C200">
         <v>119</v>
       </c>
-      <c r="I199" s="16"/>
-      <c r="K199" s="16"/>
-      <c r="L199" s="16"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A200" s="36">
-        <v>5158</v>
-      </c>
-      <c r="B200" s="41" t="s">
-        <v>655</v>
-      </c>
-      <c r="C200" s="41">
-        <v>119</v>
-      </c>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
       <c r="I200" s="16"/>
+      <c r="K200" s="16"/>
       <c r="L200" s="16"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="36">
-        <v>5159</v>
+        <v>5158</v>
       </c>
       <c r="B201" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C201" s="41">
         <v>119</v>
@@ -34481,52 +34477,52 @@
       <c r="L201" s="16"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A202" s="17">
-        <v>5160</v>
-      </c>
-      <c r="B202" t="s">
-        <v>657</v>
-      </c>
-      <c r="C202">
-        <v>120</v>
-      </c>
+      <c r="A202" s="36">
+        <v>5159</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="C202" s="41">
+        <v>119</v>
+      </c>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="16"/>
       <c r="I202" s="16"/>
       <c r="L202" s="16"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A203" s="17"/>
-      <c r="B203" s="38" t="s">
+      <c r="A203" s="17">
+        <v>5160</v>
+      </c>
+      <c r="B203" t="s">
+        <v>657</v>
+      </c>
+      <c r="C203">
+        <v>120</v>
+      </c>
+      <c r="I203" s="16"/>
+      <c r="L203" s="16"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A204" s="17"/>
+      <c r="B204" s="38" t="s">
         <v>1125</v>
       </c>
-      <c r="C203">
+      <c r="C204">
         <v>121</v>
       </c>
-      <c r="I203" s="16"/>
-      <c r="K203" s="16"/>
-      <c r="L203" s="16"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A204" s="36">
-        <v>5161</v>
-      </c>
-      <c r="B204" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="C204" s="41">
-        <v>121</v>
-      </c>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="16"/>
       <c r="I204" s="16"/>
+      <c r="K204" s="16"/>
       <c r="L204" s="16"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="36">
-        <v>5162</v>
+        <v>5161</v>
       </c>
       <c r="B205" s="41" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C205" s="41">
         <v>121</v>
@@ -34538,213 +34534,213 @@
       <c r="L205" s="16"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A206" s="17">
-        <v>5163</v>
-      </c>
-      <c r="B206" t="s">
-        <v>660</v>
-      </c>
-      <c r="C206">
-        <v>122</v>
-      </c>
+      <c r="A206" s="36">
+        <v>5162</v>
+      </c>
+      <c r="B206" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C206" s="41">
+        <v>121</v>
+      </c>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
       <c r="I206" s="16"/>
       <c r="L206" s="16"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="17">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="B207" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C207">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I207" s="16"/>
       <c r="L207" s="16"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="17">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="B208" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C208">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I208" s="16"/>
       <c r="L208" s="16"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="17">
-        <v>5166</v>
+        <v>5165</v>
       </c>
       <c r="B209" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C209">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I209" s="16"/>
       <c r="L209" s="16"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="17">
-        <v>5153</v>
+        <v>5166</v>
       </c>
       <c r="B210" t="s">
-        <v>1061</v>
+        <v>663</v>
       </c>
       <c r="C210">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I210" s="16"/>
+      <c r="L210" s="16"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="17">
-        <v>5154</v>
+        <v>5153</v>
       </c>
       <c r="B211" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C211">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I211" s="16"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="17">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="B212" t="s">
-        <v>652</v>
+        <v>1062</v>
       </c>
       <c r="C212">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I212" s="16"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="17">
-        <v>5267</v>
+        <v>5155</v>
       </c>
       <c r="B213" t="s">
-        <v>505</v>
+        <v>652</v>
       </c>
       <c r="C213">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I213" s="16"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="17">
-        <v>5268</v>
+        <v>5267</v>
       </c>
       <c r="B214" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C214">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I214" s="16"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="17">
-        <v>5269</v>
+        <v>5268</v>
       </c>
       <c r="B215" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C215">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I215" s="16"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="17">
+        <v>5269</v>
+      </c>
+      <c r="B216" t="s">
+        <v>507</v>
+      </c>
+      <c r="C216">
+        <v>131</v>
+      </c>
+      <c r="I216" s="16"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A217" s="17">
         <v>5270</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>682</v>
       </c>
-      <c r="C216">
+      <c r="C217">
         <v>132</v>
       </c>
-      <c r="I216" s="16"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A217" s="42">
+      <c r="I217" s="16"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A218" s="42">
         <v>5271</v>
       </c>
-      <c r="B217" s="37" t="s">
+      <c r="B218" s="37" t="s">
         <v>683</v>
       </c>
-      <c r="C217" s="16" t="s">
+      <c r="C218" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="I217" s="16"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A218" s="17">
-        <v>5256</v>
-      </c>
-      <c r="B218" t="s">
-        <v>671</v>
-      </c>
-      <c r="C218">
-        <v>133</v>
-      </c>
       <c r="I218" s="16"/>
-      <c r="L218" s="16"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="17">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="B219" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C219">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I219" s="16"/>
       <c r="L219" s="16"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A220" s="17"/>
-      <c r="B220" s="38" t="s">
+      <c r="A220" s="17">
+        <v>5257</v>
+      </c>
+      <c r="B220" t="s">
+        <v>672</v>
+      </c>
+      <c r="C220">
+        <v>134</v>
+      </c>
+      <c r="I220" s="16"/>
+      <c r="L220" s="16"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A221" s="17"/>
+      <c r="B221" s="38" t="s">
         <v>1126</v>
       </c>
-      <c r="C220">
+      <c r="C221">
         <v>135</v>
       </c>
-      <c r="I220" s="16"/>
-      <c r="K220" s="16"/>
-      <c r="L220" s="16"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A221" s="36">
-        <v>5258</v>
-      </c>
-      <c r="B221" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="C221" s="41">
-        <v>135</v>
-      </c>
-      <c r="D221" s="16"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="16"/>
       <c r="I221" s="16"/>
+      <c r="K221" s="16"/>
       <c r="L221" s="16"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="36">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C222" s="41">
         <v>135</v>
@@ -34756,52 +34752,52 @@
       <c r="L222" s="16"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A223" s="17">
-        <v>5260</v>
-      </c>
-      <c r="B223" t="s">
-        <v>675</v>
-      </c>
-      <c r="C223">
-        <v>136</v>
-      </c>
+      <c r="A223" s="36">
+        <v>5259</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="C223" s="41">
+        <v>135</v>
+      </c>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
       <c r="I223" s="16"/>
       <c r="L223" s="16"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A224" s="17"/>
-      <c r="B224" s="38" t="s">
+      <c r="A224" s="17">
+        <v>5260</v>
+      </c>
+      <c r="B224" t="s">
+        <v>675</v>
+      </c>
+      <c r="C224">
+        <v>136</v>
+      </c>
+      <c r="I224" s="16"/>
+      <c r="L224" s="16"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A225" s="17"/>
+      <c r="B225" s="38" t="s">
         <v>1127</v>
       </c>
-      <c r="C224">
+      <c r="C225">
         <v>137</v>
       </c>
-      <c r="I224" s="16"/>
-      <c r="K224" s="16"/>
-      <c r="L224" s="16"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A225" s="36">
-        <v>5261</v>
-      </c>
-      <c r="B225" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="C225" s="41">
-        <v>137</v>
-      </c>
-      <c r="D225" s="16"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="16"/>
       <c r="I225" s="16"/>
+      <c r="K225" s="16"/>
       <c r="L225" s="16"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="36">
-        <v>5262</v>
+        <v>5261</v>
       </c>
       <c r="B226" s="41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C226" s="41">
         <v>137</v>
@@ -34813,178 +34809,194 @@
       <c r="L226" s="16"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A227" s="17">
-        <v>5263</v>
-      </c>
-      <c r="B227" t="s">
-        <v>678</v>
-      </c>
-      <c r="C227">
-        <v>138</v>
-      </c>
+      <c r="A227" s="36">
+        <v>5262</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="C227" s="41">
+        <v>137</v>
+      </c>
+      <c r="D227" s="16"/>
+      <c r="E227" s="16"/>
+      <c r="F227" s="16"/>
       <c r="I227" s="16"/>
       <c r="L227" s="16"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="17">
-        <v>5264</v>
+        <v>5263</v>
       </c>
       <c r="B228" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C228">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I228" s="16"/>
       <c r="L228" s="16"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="17">
-        <v>5265</v>
+        <v>5264</v>
       </c>
       <c r="B229" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C229">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I229" s="16"/>
       <c r="L229" s="16"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="17">
-        <v>5266</v>
+        <v>5265</v>
       </c>
       <c r="B230" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C230">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I230" s="16"/>
       <c r="L230" s="16"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="17">
-        <v>5253</v>
+        <v>5266</v>
       </c>
       <c r="B231" t="s">
-        <v>508</v>
+        <v>681</v>
       </c>
       <c r="C231">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I231" s="16"/>
+      <c r="L231" s="16"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="17">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="B232" t="s">
-        <v>1063</v>
+        <v>508</v>
       </c>
       <c r="C232">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I232" s="16"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="17">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="B233" t="s">
-        <v>509</v>
+        <v>1063</v>
       </c>
       <c r="C233">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I233" s="16"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="17">
-        <v>1176</v>
+        <v>5255</v>
       </c>
       <c r="B234" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C234">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I234" s="16"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="17">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B235" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C235">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I235" s="16"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="17">
-        <v>1276</v>
+        <v>1177</v>
       </c>
       <c r="B236" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C236">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I236" s="16"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="17">
+        <v>1276</v>
+      </c>
+      <c r="B237" t="s">
+        <v>512</v>
+      </c>
+      <c r="C237">
+        <v>147</v>
+      </c>
+      <c r="I237" s="16"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A238" s="17">
         <v>1277</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>513</v>
       </c>
-      <c r="C237">
+      <c r="C238">
         <v>148</v>
       </c>
-      <c r="I237" s="16"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-    </row>
-    <row r="250" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I250" s="16"/>
-      <c r="J250" s="16"/>
+      <c r="I238" s="16"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="G240" s="16"/>
+      <c r="H240" s="16"/>
     </row>
     <row r="251" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
+      <c r="I251" s="16"/>
+      <c r="J251" s="16"/>
     </row>
     <row r="252" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G252" s="16"/>
       <c r="H252" s="16"/>
     </row>
-    <row r="254" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="I254" s="16"/>
-      <c r="J254" s="16"/>
+    <row r="253" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G253" s="16"/>
+      <c r="H253" s="16"/>
     </row>
     <row r="255" spans="7:10" x14ac:dyDescent="0.45">
-      <c r="G255" s="16"/>
-      <c r="H255" s="16"/>
+      <c r="I255" s="16"/>
+      <c r="J255" s="16"/>
     </row>
     <row r="256" spans="7:10" x14ac:dyDescent="0.45">
       <c r="G256" s="16"/>
       <c r="H256" s="16"/>
     </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G257" s="16"/>
+      <c r="H257" s="16"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D139">
-    <sortCondition ref="A4:A139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D140">
+    <sortCondition ref="A4:A140"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A137:C137"/>
     <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
